--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84016FEE-F1FC-4994-B0FF-8CFA41990409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441333C-C474-491B-A01B-A92A983F15DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2110" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
   <dimension ref="A1:BU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4618,11 +4618,11 @@
         <v>103</v>
       </c>
       <c r="D22" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>L6</v>
+        <v>L4</v>
       </c>
       <c r="F22" s="5">
         <v>8</v>
@@ -4638,11 +4638,11 @@
       </c>
       <c r="J22" s="7">
         <f>VLOOKUP(E22,LATLON!$A$2:$C$19,2)</f>
-        <v>-5.4686510000000004</v>
+        <v>-5.4663769999999996</v>
       </c>
       <c r="K22" s="7">
         <f>VLOOKUP(E22,LATLON!$A$2:$C$19,3)</f>
-        <v>119.300428</v>
+        <v>119.30229</v>
       </c>
       <c r="L22" s="5">
         <v>39</v>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441333C-C474-491B-A01B-A92A983F15DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50511416-47CF-4F93-971A-B1EAB5E8164B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2110" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="207">
   <si>
     <t>DATE</t>
   </si>
@@ -555,6 +555,105 @@
   </si>
   <si>
     <t>L5</t>
+  </si>
+  <si>
+    <t>F4_TIME</t>
+  </si>
+  <si>
+    <t>F5_TIME</t>
+  </si>
+  <si>
+    <t>F6_TIME</t>
+  </si>
+  <si>
+    <t>MAXN_FISHK</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHK</t>
+  </si>
+  <si>
+    <t>T1_FISHK</t>
+  </si>
+  <si>
+    <t>MAXN_FISHL</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHL</t>
+  </si>
+  <si>
+    <t>T1_FISHL</t>
+  </si>
+  <si>
+    <t>MAXN_KERONGKERONG</t>
+  </si>
+  <si>
+    <t>TIME_1STKERONGKERONG</t>
+  </si>
+  <si>
+    <t>T1_KERONGKERONG</t>
+  </si>
+  <si>
+    <t>MAXN_FISHM</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHM</t>
+  </si>
+  <si>
+    <t>T1_FISHM</t>
+  </si>
+  <si>
+    <t>MAXN_GUPPYC</t>
+  </si>
+  <si>
+    <t>TIME_1STGUPPYC</t>
+  </si>
+  <si>
+    <t>T1_GUPPYC</t>
+  </si>
+  <si>
+    <t>MAXN_YL</t>
+  </si>
+  <si>
+    <t>TIME_1STYL</t>
+  </si>
+  <si>
+    <t>T1_YL</t>
+  </si>
+  <si>
+    <t>MAXN_BFLY1</t>
+  </si>
+  <si>
+    <t>TIME_1STBFLY1</t>
+  </si>
+  <si>
+    <t>T1_BFLY1</t>
+  </si>
+  <si>
+    <t>MAXN_BFLY2</t>
+  </si>
+  <si>
+    <t>TIME_1STBFLY2</t>
+  </si>
+  <si>
+    <t>T1_BFLY2</t>
+  </si>
+  <si>
+    <t>MAXN_FISHO</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHO</t>
+  </si>
+  <si>
+    <t>T1_FISHO</t>
+  </si>
+  <si>
+    <t>MAXN_FISHN</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHN</t>
+  </si>
+  <si>
+    <t>T1_FISHN</t>
   </si>
 </sst>
 </file>
@@ -791,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -910,6 +1009,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,22 +1297,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:BU22"/>
+  <dimension ref="A1:DB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN14" sqref="BN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="25" width="8.7265625" style="1" customWidth="1"/>
-    <col min="26" max="33" width="8.7265625" customWidth="1"/>
-    <col min="73" max="73" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="21" width="8.7265625" customWidth="1"/>
+    <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
+    <col min="29" max="36" width="8.7265625" customWidth="1"/>
+    <col min="82" max="82" width="8.7265625" style="88"/>
+    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1275,158 +1387,257 @@
       <c r="W1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="82" t="s">
         <v>15</v>
       </c>
       <c r="Y1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AP1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AR1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AS1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="27" t="s">
+      <c r="AT1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AU1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AV1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX1" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY1" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="28" t="s">
+      <c r="BA1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="BB1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="28" t="s">
+      <c r="BD1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="29" t="s">
+      <c r="BE1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="BF1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="28" t="s">
+      <c r="BG1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="29" t="s">
+      <c r="BH1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="28" t="s">
+      <c r="BJ1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BK1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="27" t="s">
+      <c r="BL1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="BG1" s="28" t="s">
+      <c r="BM1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="29" t="s">
+      <c r="BN1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BI1" s="27" t="s">
+      <c r="BO1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="28" t="s">
+      <c r="BP1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="29" t="s">
+      <c r="BQ1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="27" t="s">
+      <c r="BR1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="28" t="s">
+      <c r="BS1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BT1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="27" t="s">
+      <c r="BU1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="28" t="s">
+      <c r="BV1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="29" t="s">
+      <c r="BW1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="27" t="s">
+      <c r="BX1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ1" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA1" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB1" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC1" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD1" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE1" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF1" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="CG1" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH1" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI1" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="CJ1" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="CK1" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="CL1" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM1" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO1" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="CP1" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ1" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR1" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="CS1" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="CT1" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="CU1" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="CV1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="CW1" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="CX1" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="CY1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="BS1" s="28" t="s">
+      <c r="CZ1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="BT1" s="72" t="s">
+      <c r="DA1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="BU1" s="29" t="s">
+      <c r="DB1" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
@@ -1489,105 +1700,200 @@
         <v>99</v>
       </c>
       <c r="U2" s="8"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20">
-        <f t="shared" ref="Y2:Y13" si="0">SUM(V2:X2)</f>
-        <v>0</v>
-      </c>
+      <c r="V2" s="19">
+        <v>2.0543981481481479E-2</v>
+      </c>
+      <c r="W2" s="20">
+        <v>1.7870370370370373E-2</v>
+      </c>
+      <c r="X2" s="20">
+        <v>5.2314814814814819E-3</v>
+      </c>
+      <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20">
-        <f t="shared" ref="AB2:AB13" si="1">Y2-Z2-AA2</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="69" t="str">
-        <f t="shared" ref="AJ2:AJ13" si="2">IF(AH2=0,"NA",AI2-$Z2)</f>
-        <v>NA</v>
+        <f>SUM(V2:AA2)</f>
+        <v>4.3645833333333335E-2</v>
+      </c>
+      <c r="AC2" s="20">
+        <v>3.8078703703703707E-3</v>
+      </c>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20">
+        <f t="shared" ref="AE2:AE13" si="0">AB2-AC2-AD2</f>
+        <v>3.9837962962962964E-2</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>85</v>
+      </c>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="30">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="31">
+        <v>4</v>
       </c>
       <c r="AK2" s="32"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34" t="str">
-        <f t="shared" ref="AM2:AM13" si="3">IF(AK2=0,"NA",AL2-$Z2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="34" t="str">
-        <f t="shared" ref="AP2:AP13" si="4">IF(AN2=0,"NA",AO2-$Z2)</f>
-        <v>NA</v>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="69" t="str">
+        <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AN2" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="69">
+        <v>1.7106481481481483E-2</v>
+      </c>
+      <c r="AP2" s="34">
+        <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
+        <v>1.3298611111111112E-2</v>
       </c>
       <c r="AQ2" s="71"/>
       <c r="AR2" s="70"/>
       <c r="AS2" s="34" t="str">
-        <f t="shared" ref="AS2:AS13" si="5">IF(AQ2=0,"NA",AR2-$Z2)</f>
+        <f t="shared" ref="AS2:AS13" si="3">IF(AQ2=0,"NA",AR2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="AT2" s="71"/>
       <c r="AU2" s="70"/>
       <c r="AV2" s="34" t="str">
-        <f t="shared" ref="AV2:AV13" si="6">IF(AT2=0,"NA",AU2-$Z2)</f>
+        <f t="shared" ref="AV2:AV13" si="4">IF(AT2=0,"NA",AU2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="AW2" s="71"/>
       <c r="AX2" s="70"/>
       <c r="AY2" s="34" t="str">
-        <f t="shared" ref="AY2:AY13" si="7">IF(AW2=0,"NA",AX2-$Z2)</f>
+        <f t="shared" ref="AY2:AY20" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="AZ2" s="71"/>
       <c r="BA2" s="70"/>
       <c r="BB2" s="34" t="str">
-        <f t="shared" ref="BB2:BB13" si="8">IF(AZ2=0,"NA",BA2-$Z2)</f>
+        <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BC2" s="71"/>
       <c r="BD2" s="70"/>
       <c r="BE2" s="34" t="str">
-        <f t="shared" ref="BE2:BE13" si="9">IF(BC2=0,"NA",BD2-$Z2)</f>
+        <f t="shared" ref="BE2:BE13" si="7">IF(BC2=0,"NA",BD2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BF2" s="71"/>
       <c r="BG2" s="70"/>
       <c r="BH2" s="34" t="str">
-        <f t="shared" ref="BH2:BH13" si="10">IF(BF2=0,"NA",BG2-$Z2)</f>
+        <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BI2" s="71"/>
       <c r="BJ2" s="70"/>
       <c r="BK2" s="34" t="str">
-        <f t="shared" ref="BK2:BK13" si="11">IF(BI2=0,"NA",BJ2-$Z2)</f>
+        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BL2" s="71"/>
       <c r="BM2" s="70"/>
       <c r="BN2" s="34" t="str">
-        <f t="shared" ref="BN2:BN13" si="12">IF(BL2=0,"NA",BM2-$Z2)</f>
+        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BO2" s="71"/>
       <c r="BP2" s="70"/>
       <c r="BQ2" s="34" t="str">
-        <f t="shared" ref="BQ2:BQ13" si="13">IF(BO2=0,"NA",BP2-$Z2)</f>
+        <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BR2" s="71"/>
       <c r="BS2" s="70"/>
       <c r="BT2" s="34" t="str">
-        <f t="shared" ref="BT2:BT13" si="14">IF(BR2=0,"NA",BS2-$Z2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU2" s="37"/>
+        <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BU2" s="71"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="34" t="str">
+        <f t="shared" ref="BW2:BW20" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BX2" s="71">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="89">
+        <v>1.2037037037037035E-2</v>
+      </c>
+      <c r="BZ2" s="34">
+        <f t="shared" ref="BZ2:BZ13" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
+        <v>8.2291666666666641E-3</v>
+      </c>
+      <c r="CA2" s="71"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="34" t="str">
+        <f t="shared" ref="CC2:CC20" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CD2" s="86"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="34" t="str">
+        <f t="shared" ref="CF2:CF20" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CG2" s="71">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="84">
+        <v>1.8553240740740742E-2</v>
+      </c>
+      <c r="CI2" s="34">
+        <f t="shared" ref="CI2:CI20" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="CJ2" s="71"/>
+      <c r="CK2" s="84"/>
+      <c r="CL2" s="34" t="str">
+        <f t="shared" ref="CL2:CL20" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CM2" s="71"/>
+      <c r="CN2" s="84"/>
+      <c r="CO2" s="34" t="str">
+        <f t="shared" ref="CO2:CO20" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CP2" s="71"/>
+      <c r="CQ2" s="84"/>
+      <c r="CR2" s="34" t="str">
+        <f t="shared" ref="CR2:CR20" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="84"/>
+      <c r="CU2" s="34" t="str">
+        <f t="shared" ref="CU2:CU20" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CV2" s="71"/>
+      <c r="CW2" s="84"/>
+      <c r="CX2" s="34" t="str">
+        <f t="shared" ref="CX2:CX20" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CY2" s="71">
+        <v>3</v>
+      </c>
+      <c r="CZ2" s="84">
+        <v>4.1319444444444442E-3</v>
+      </c>
+      <c r="DA2" s="34">
+        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+        <v>3.2407407407407341E-4</v>
+      </c>
+      <c r="DB2" s="37"/>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>97</v>
       </c>
@@ -1601,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E22" si="15">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
         <v>D3</v>
       </c>
       <c r="F3" s="5">
@@ -1650,105 +1956,192 @@
       <c r="U3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
+      <c r="V3" s="19">
+        <v>1.7569444444444447E-2</v>
+      </c>
+      <c r="W3" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X3" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
       <c r="Y3" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="AB3" s="20">
+        <f t="shared" ref="AB3:AB22" si="25">SUM(V3:AA3)</f>
+        <v>7.8148148148148147E-2</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>2.5208333333333333E-2</v>
+      </c>
+      <c r="AE3" s="20">
         <f t="shared" si="0"/>
+        <v>4.2523148148148143E-2</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG3" s="21">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="30">
         <v>0</v>
       </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20">
+      <c r="AJ3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="34" t="str">
-        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AN3" s="32"/>
       <c r="AO3" s="33"/>
       <c r="AP3" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ3" s="32"/>
       <c r="AR3" s="33"/>
       <c r="AS3" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT3" s="32"/>
       <c r="AU3" s="33"/>
       <c r="AV3" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW3" s="32"/>
       <c r="AX3" s="33"/>
       <c r="AY3" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ3" s="32"/>
       <c r="BA3" s="33"/>
       <c r="BB3" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC3" s="32"/>
       <c r="BD3" s="33"/>
       <c r="BE3" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF3" s="32"/>
       <c r="BG3" s="33"/>
       <c r="BH3" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI3" s="32"/>
       <c r="BJ3" s="33"/>
       <c r="BK3" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL3" s="32"/>
       <c r="BM3" s="33"/>
       <c r="BN3" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO3" s="32"/>
       <c r="BP3" s="33"/>
       <c r="BQ3" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR3" s="32"/>
       <c r="BS3" s="33"/>
       <c r="BT3" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="33"/>
+      <c r="BW3" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU3" s="37"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD3" s="86"/>
+      <c r="CE3" s="69"/>
+      <c r="CF3" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="33"/>
+      <c r="CI3" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ3" s="32"/>
+      <c r="CK3" s="33"/>
+      <c r="CL3" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="33"/>
+      <c r="CO3" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP3" s="32"/>
+      <c r="CQ3" s="33"/>
+      <c r="CR3" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="33"/>
+      <c r="CU3" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="33"/>
+      <c r="CX3" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY3" s="32"/>
+      <c r="CZ3" s="33"/>
+      <c r="DA3" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB3" s="37"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>97</v>
       </c>
@@ -1762,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L2</v>
       </c>
       <c r="F4" s="5">
@@ -1811,105 +2204,206 @@
         <v>99</v>
       </c>
       <c r="U4" s="8"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="V4" s="19">
+        <v>2.2291666666666668E-2</v>
+      </c>
+      <c r="W4" s="20">
+        <v>2.9525462962962962E-2</v>
+      </c>
+      <c r="X4" s="20">
+        <v>9.0856481481481483E-3</v>
+      </c>
+      <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
+        <f t="shared" si="25"/>
+        <v>6.0902777777777778E-2</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>3.6574074074074074E-3</v>
+      </c>
+      <c r="AD4" s="20">
+        <v>1.6724537037037034E-2</v>
+      </c>
+      <c r="AE4" s="20">
+        <f t="shared" si="0"/>
+        <v>4.0520833333333339E-2</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>70</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>80</v>
+      </c>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="30">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="31">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="35">
+        <v>3.4236111111111113E-2</v>
+      </c>
+      <c r="AM4" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
+        <v>3.0578703703703705E-2</v>
       </c>
       <c r="AN4" s="32"/>
       <c r="AO4" s="33"/>
       <c r="AP4" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ4" s="32"/>
       <c r="AR4" s="33"/>
       <c r="AS4" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT4" s="32"/>
       <c r="AU4" s="33"/>
       <c r="AV4" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW4" s="32"/>
       <c r="AX4" s="33"/>
       <c r="AY4" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ4" s="32"/>
       <c r="BA4" s="33"/>
       <c r="BB4" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC4" s="32"/>
       <c r="BD4" s="33"/>
       <c r="BE4" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="BF4" s="32">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="35">
+        <v>1.6284722222222221E-2</v>
+      </c>
+      <c r="BH4" s="34">
+        <f t="shared" si="8"/>
+        <v>1.2627314814814813E-2</v>
+      </c>
+      <c r="BI4" s="32">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="35">
+        <v>3.9131944444444448E-2</v>
+      </c>
+      <c r="BK4" s="34">
         <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="33"/>
-      <c r="BH4" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v>NA</v>
+        <v>3.5474537037037041E-2</v>
       </c>
       <c r="BL4" s="32"/>
       <c r="BM4" s="33"/>
       <c r="BN4" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO4" s="32"/>
       <c r="BP4" s="33"/>
       <c r="BQ4" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR4" s="32"/>
       <c r="BS4" s="33"/>
       <c r="BT4" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU4" s="37"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="33"/>
+      <c r="CC4" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD4" s="86"/>
+      <c r="CE4" s="69"/>
+      <c r="CF4" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ4" s="32">
+        <v>1</v>
+      </c>
+      <c r="CK4" s="35">
+        <v>2.4062500000000001E-2</v>
+      </c>
+      <c r="CL4" s="34">
+        <f t="shared" si="18"/>
+        <v>2.0405092592592593E-2</v>
+      </c>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY4" s="32">
+        <v>6</v>
+      </c>
+      <c r="CZ4" s="35">
+        <v>3.7731481481481483E-3</v>
+      </c>
+      <c r="DA4" s="34">
+        <f t="shared" si="23"/>
+        <v>1.1574074074074091E-4</v>
+      </c>
+      <c r="DB4" s="37"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>97</v>
       </c>
@@ -1923,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L1</v>
       </c>
       <c r="F5" s="5">
@@ -1977,102 +2471,165 @@
       <c r="V5" s="19"/>
       <c r="W5" s="20"/>
       <c r="X5" s="20"/>
-      <c r="Y5" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="34" t="str">
-        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AN5" s="32"/>
       <c r="AO5" s="33"/>
       <c r="AP5" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ5" s="32"/>
       <c r="AR5" s="33"/>
       <c r="AS5" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT5" s="32"/>
       <c r="AU5" s="33"/>
       <c r="AV5" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW5" s="32"/>
       <c r="AX5" s="33"/>
       <c r="AY5" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ5" s="32"/>
       <c r="BA5" s="33"/>
       <c r="BB5" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC5" s="32"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF5" s="32"/>
       <c r="BG5" s="33"/>
       <c r="BH5" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI5" s="32"/>
       <c r="BJ5" s="33"/>
       <c r="BK5" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL5" s="32"/>
       <c r="BM5" s="33"/>
       <c r="BN5" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO5" s="32"/>
       <c r="BP5" s="33"/>
       <c r="BQ5" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR5" s="32"/>
       <c r="BS5" s="33"/>
       <c r="BT5" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX5" s="32"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU5" s="37"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD5" s="86"/>
+      <c r="CE5" s="69"/>
+      <c r="CF5" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="33"/>
+      <c r="CI5" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ5" s="32"/>
+      <c r="CK5" s="33"/>
+      <c r="CL5" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM5" s="32"/>
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP5" s="32"/>
+      <c r="CQ5" s="33"/>
+      <c r="CR5" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS5" s="32"/>
+      <c r="CT5" s="33"/>
+      <c r="CU5" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="33"/>
+      <c r="DA5" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB5" s="37"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>97</v>
       </c>
@@ -2086,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>D1</v>
       </c>
       <c r="F6" s="5">
@@ -2140,102 +2697,165 @@
       <c r="V6" s="19"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
-      <c r="Y6" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="34" t="str">
-        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AN6" s="32"/>
       <c r="AO6" s="33"/>
       <c r="AP6" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ6" s="32"/>
       <c r="AR6" s="33"/>
       <c r="AS6" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT6" s="32"/>
       <c r="AU6" s="33"/>
       <c r="AV6" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW6" s="32"/>
       <c r="AX6" s="33"/>
       <c r="AY6" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ6" s="32"/>
       <c r="BA6" s="33"/>
       <c r="BB6" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC6" s="32"/>
       <c r="BD6" s="33"/>
       <c r="BE6" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF6" s="32"/>
       <c r="BG6" s="33"/>
       <c r="BH6" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI6" s="32"/>
       <c r="BJ6" s="33"/>
       <c r="BK6" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL6" s="32"/>
       <c r="BM6" s="33"/>
       <c r="BN6" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO6" s="32"/>
       <c r="BP6" s="33"/>
       <c r="BQ6" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR6" s="32"/>
       <c r="BS6" s="33"/>
       <c r="BT6" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="33"/>
+      <c r="BW6" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="33"/>
+      <c r="BZ6" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU6" s="37"/>
+      <c r="CA6" s="32"/>
+      <c r="CB6" s="33"/>
+      <c r="CC6" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD6" s="86"/>
+      <c r="CE6" s="69"/>
+      <c r="CF6" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG6" s="32"/>
+      <c r="CH6" s="33"/>
+      <c r="CI6" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ6" s="32"/>
+      <c r="CK6" s="33"/>
+      <c r="CL6" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM6" s="32"/>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP6" s="32"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS6" s="32"/>
+      <c r="CT6" s="33"/>
+      <c r="CU6" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV6" s="32"/>
+      <c r="CW6" s="33"/>
+      <c r="CX6" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY6" s="32"/>
+      <c r="CZ6" s="33"/>
+      <c r="DA6" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB6" s="37"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>97</v>
       </c>
@@ -2249,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L3</v>
       </c>
       <c r="F7" s="5">
@@ -2303,102 +2923,165 @@
       <c r="V7" s="19"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
-      <c r="Y7" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="34" t="str">
-        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AN7" s="32"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ7" s="32"/>
       <c r="AR7" s="33"/>
       <c r="AS7" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT7" s="32"/>
       <c r="AU7" s="33"/>
       <c r="AV7" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW7" s="32"/>
       <c r="AX7" s="33"/>
       <c r="AY7" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ7" s="32"/>
       <c r="BA7" s="33"/>
       <c r="BB7" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC7" s="32"/>
       <c r="BD7" s="33"/>
       <c r="BE7" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF7" s="32"/>
       <c r="BG7" s="33"/>
       <c r="BH7" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI7" s="32"/>
       <c r="BJ7" s="33"/>
       <c r="BK7" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL7" s="32"/>
       <c r="BM7" s="33"/>
       <c r="BN7" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO7" s="32"/>
       <c r="BP7" s="33"/>
       <c r="BQ7" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR7" s="32"/>
       <c r="BS7" s="33"/>
       <c r="BT7" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU7" s="32"/>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX7" s="32"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU7" s="37"/>
+      <c r="CA7" s="32"/>
+      <c r="CB7" s="33"/>
+      <c r="CC7" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD7" s="86"/>
+      <c r="CE7" s="69"/>
+      <c r="CF7" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG7" s="32"/>
+      <c r="CH7" s="33"/>
+      <c r="CI7" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ7" s="32"/>
+      <c r="CK7" s="33"/>
+      <c r="CL7" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM7" s="32"/>
+      <c r="CN7" s="33"/>
+      <c r="CO7" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP7" s="32"/>
+      <c r="CQ7" s="33"/>
+      <c r="CR7" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS7" s="32"/>
+      <c r="CT7" s="33"/>
+      <c r="CU7" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV7" s="32"/>
+      <c r="CW7" s="33"/>
+      <c r="CX7" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY7" s="32"/>
+      <c r="CZ7" s="33"/>
+      <c r="DA7" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB7" s="37"/>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>125</v>
       </c>
@@ -2412,7 +3095,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L3</v>
       </c>
       <c r="F8" s="5">
@@ -2464,102 +3147,165 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
-      <c r="Y8" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="34" t="str">
-        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AN8" s="32"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ8" s="32"/>
       <c r="AR8" s="33"/>
       <c r="AS8" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT8" s="32"/>
       <c r="AU8" s="33"/>
       <c r="AV8" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW8" s="32"/>
       <c r="AX8" s="33"/>
       <c r="AY8" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ8" s="32"/>
       <c r="BA8" s="33"/>
       <c r="BB8" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC8" s="32"/>
       <c r="BD8" s="33"/>
       <c r="BE8" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF8" s="32"/>
       <c r="BG8" s="33"/>
       <c r="BH8" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI8" s="32"/>
       <c r="BJ8" s="33"/>
       <c r="BK8" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL8" s="32"/>
       <c r="BM8" s="33"/>
       <c r="BN8" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO8" s="32"/>
       <c r="BP8" s="33"/>
       <c r="BQ8" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR8" s="32"/>
       <c r="BS8" s="33"/>
       <c r="BT8" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU8" s="32"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX8" s="32"/>
+      <c r="BY8" s="33"/>
+      <c r="BZ8" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU8" s="37"/>
+      <c r="CA8" s="32"/>
+      <c r="CB8" s="33"/>
+      <c r="CC8" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD8" s="86"/>
+      <c r="CE8" s="69"/>
+      <c r="CF8" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG8" s="32"/>
+      <c r="CH8" s="33"/>
+      <c r="CI8" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ8" s="32"/>
+      <c r="CK8" s="33"/>
+      <c r="CL8" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM8" s="32"/>
+      <c r="CN8" s="33"/>
+      <c r="CO8" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP8" s="32"/>
+      <c r="CQ8" s="33"/>
+      <c r="CR8" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS8" s="32"/>
+      <c r="CT8" s="33"/>
+      <c r="CU8" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV8" s="32"/>
+      <c r="CW8" s="33"/>
+      <c r="CX8" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY8" s="32"/>
+      <c r="CZ8" s="33"/>
+      <c r="DA8" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB8" s="37"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>125</v>
       </c>
@@ -2573,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>D1</v>
       </c>
       <c r="F9" s="5">
@@ -2625,102 +3371,165 @@
       <c r="V9" s="19"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
-      <c r="Y9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="34" t="str">
-        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AN9" s="32"/>
       <c r="AO9" s="33"/>
       <c r="AP9" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ9" s="32"/>
       <c r="AR9" s="33"/>
       <c r="AS9" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT9" s="32"/>
       <c r="AU9" s="33"/>
       <c r="AV9" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW9" s="32"/>
       <c r="AX9" s="33"/>
       <c r="AY9" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ9" s="32"/>
       <c r="BA9" s="33"/>
       <c r="BB9" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC9" s="32"/>
       <c r="BD9" s="33"/>
       <c r="BE9" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF9" s="32"/>
       <c r="BG9" s="33"/>
       <c r="BH9" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI9" s="32"/>
       <c r="BJ9" s="33"/>
       <c r="BK9" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL9" s="32"/>
       <c r="BM9" s="33"/>
       <c r="BN9" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO9" s="32"/>
       <c r="BP9" s="33"/>
       <c r="BQ9" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR9" s="32"/>
       <c r="BS9" s="33"/>
       <c r="BT9" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="33"/>
+      <c r="BW9" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU9" s="37"/>
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD9" s="86"/>
+      <c r="CE9" s="69"/>
+      <c r="CF9" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="33"/>
+      <c r="CI9" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="33"/>
+      <c r="CL9" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM9" s="32"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP9" s="32"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS9" s="32"/>
+      <c r="CT9" s="33"/>
+      <c r="CU9" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV9" s="32"/>
+      <c r="CW9" s="33"/>
+      <c r="CX9" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY9" s="32"/>
+      <c r="CZ9" s="33"/>
+      <c r="DA9" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB9" s="37"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>125</v>
       </c>
@@ -2734,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L1</v>
       </c>
       <c r="F10" s="5">
@@ -2783,105 +3592,202 @@
         <v>145</v>
       </c>
       <c r="U10" s="8"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
+      <c r="V10" s="19">
+        <v>8.7962962962962962E-4</v>
+      </c>
+      <c r="W10" s="20">
+        <v>1.6655092592592593E-2</v>
+      </c>
+      <c r="X10" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
       <c r="Y10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="20"/>
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>5.0115740740740737E-3</v>
+      </c>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
+        <f t="shared" si="25"/>
+        <v>5.2268518518518513E-2</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>5.0115740740740737E-3</v>
+      </c>
+      <c r="AE10" s="20">
+        <f t="shared" si="0"/>
+        <v>4.2615740740740739E-2</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>40</v>
+      </c>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="31">
+        <v>3</v>
+      </c>
+      <c r="AK10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="35">
+        <v>1.8634259259259257E-2</v>
+      </c>
+      <c r="AM10" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="69" t="str">
+        <v>1.3993055555555554E-2</v>
+      </c>
+      <c r="AN10" s="32">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="35">
+        <v>1.7615740740740741E-2</v>
+      </c>
+      <c r="AP10" s="34">
         <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
+        <v>1.2974537037037038E-2</v>
       </c>
       <c r="AQ10" s="32"/>
       <c r="AR10" s="33"/>
       <c r="AS10" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT10" s="32"/>
       <c r="AU10" s="33"/>
       <c r="AV10" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW10" s="32"/>
       <c r="AX10" s="33"/>
       <c r="AY10" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ10" s="32"/>
       <c r="BA10" s="33"/>
       <c r="BB10" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC10" s="32"/>
       <c r="BD10" s="33"/>
       <c r="BE10" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF10" s="32"/>
       <c r="BG10" s="33"/>
       <c r="BH10" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI10" s="32"/>
       <c r="BJ10" s="33"/>
       <c r="BK10" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL10" s="32"/>
       <c r="BM10" s="33"/>
       <c r="BN10" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO10" s="32"/>
       <c r="BP10" s="33"/>
       <c r="BQ10" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR10" s="32"/>
       <c r="BS10" s="33"/>
       <c r="BT10" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU10" s="32"/>
+      <c r="BV10" s="33"/>
+      <c r="BW10" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX10" s="32"/>
+      <c r="BY10" s="33"/>
+      <c r="BZ10" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU10" s="37"/>
+      <c r="CA10" s="32"/>
+      <c r="CB10" s="33"/>
+      <c r="CC10" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD10" s="86"/>
+      <c r="CE10" s="69"/>
+      <c r="CF10" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG10" s="32"/>
+      <c r="CH10" s="35"/>
+      <c r="CI10" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ10" s="32"/>
+      <c r="CK10" s="35"/>
+      <c r="CL10" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM10" s="32"/>
+      <c r="CN10" s="35"/>
+      <c r="CO10" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP10" s="32"/>
+      <c r="CQ10" s="35"/>
+      <c r="CR10" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS10" s="32"/>
+      <c r="CT10" s="35"/>
+      <c r="CU10" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV10" s="32"/>
+      <c r="CW10" s="35"/>
+      <c r="CX10" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY10" s="32">
+        <v>2</v>
+      </c>
+      <c r="CZ10" s="35">
+        <v>6.8402777777777776E-3</v>
+      </c>
+      <c r="DA10" s="34">
+        <f t="shared" si="23"/>
+        <v>2.1990740740740738E-3</v>
+      </c>
+      <c r="DB10" s="37"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>125</v>
       </c>
@@ -2895,7 +3801,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>E2</v>
       </c>
       <c r="F11" s="5">
@@ -2944,105 +3850,220 @@
         <v>145</v>
       </c>
       <c r="U11" s="8"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
+      <c r="V11" s="19">
+        <v>2.5937500000000002E-2</v>
+      </c>
+      <c r="W11" s="20">
+        <v>2.5370370370370366E-2</v>
+      </c>
       <c r="X11" s="20"/>
-      <c r="Y11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
+        <f t="shared" si="25"/>
+        <v>5.1307870370370365E-2</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>3.5416666666666665E-3</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="AE11" s="20">
+        <f t="shared" si="0"/>
+        <v>4.7256944444444442E-2</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>70</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>80</v>
+      </c>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="30">
+        <v>12</v>
+      </c>
+      <c r="AJ11" s="31">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="35">
+        <v>2.3645833333333335E-2</v>
+      </c>
+      <c r="AM11" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="69" t="str">
+        <v>2.0104166666666669E-2</v>
+      </c>
+      <c r="AN11" s="32">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="35">
+        <v>7.7083333333333335E-3</v>
+      </c>
+      <c r="AP11" s="34">
         <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
+        <v>4.1666666666666675E-3</v>
       </c>
       <c r="AQ11" s="32"/>
       <c r="AR11" s="33"/>
       <c r="AS11" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT11" s="32"/>
       <c r="AU11" s="33"/>
       <c r="AV11" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+      <c r="AW11" s="32">
+        <v>14</v>
+      </c>
+      <c r="AX11" s="35">
+        <v>4.2939814814814811E-3</v>
+      </c>
+      <c r="AY11" s="34">
+        <f t="shared" si="5"/>
+        <v>7.523148148148146E-4</v>
+      </c>
+      <c r="AZ11" s="32">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="35">
+        <v>2.2812499999999999E-2</v>
+      </c>
+      <c r="BB11" s="34">
         <f t="shared" si="6"/>
-        <v>NA</v>
-      </c>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v>NA</v>
-      </c>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>NA</v>
+        <v>1.9270833333333334E-2</v>
       </c>
       <c r="BC11" s="32"/>
       <c r="BD11" s="33"/>
       <c r="BE11" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-      <c r="BF11" s="32"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="BF11" s="32">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="35">
+        <v>2.3645833333333335E-2</v>
+      </c>
+      <c r="BH11" s="34">
+        <f t="shared" si="8"/>
+        <v>2.0104166666666669E-2</v>
       </c>
       <c r="BI11" s="32"/>
       <c r="BJ11" s="33"/>
       <c r="BK11" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v>NA</v>
-      </c>
-      <c r="BL11" s="32"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="34" t="str">
-        <f t="shared" si="12"/>
-        <v>NA</v>
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="BL11" s="32">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="35">
+        <v>2.6226851851851852E-2</v>
+      </c>
+      <c r="BN11" s="34">
+        <f t="shared" si="10"/>
+        <v>2.2685185185185187E-2</v>
       </c>
       <c r="BO11" s="32"/>
       <c r="BP11" s="33"/>
       <c r="BQ11" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR11" s="32"/>
       <c r="BS11" s="33"/>
       <c r="BT11" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU11" s="32"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX11" s="32"/>
+      <c r="BY11" s="33"/>
+      <c r="BZ11" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU11" s="37"/>
+      <c r="CA11" s="32"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD11" s="86">
+        <v>2</v>
+      </c>
+      <c r="CE11" s="69">
+        <v>2.929398148148148E-2</v>
+      </c>
+      <c r="CF11" s="34">
+        <f t="shared" si="16"/>
+        <v>2.5752314814814815E-2</v>
+      </c>
+      <c r="CG11" s="32"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ11" s="32"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM11" s="32"/>
+      <c r="CN11" s="35"/>
+      <c r="CO11" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP11" s="32">
+        <v>1</v>
+      </c>
+      <c r="CQ11" s="35">
+        <v>4.9178240740740738E-2</v>
+      </c>
+      <c r="CR11" s="34">
+        <f t="shared" si="20"/>
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="CS11" s="32"/>
+      <c r="CT11" s="35"/>
+      <c r="CU11" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV11" s="32"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY11" s="32">
+        <v>1</v>
+      </c>
+      <c r="CZ11" s="35">
+        <v>4.2245370370370371E-3</v>
+      </c>
+      <c r="DA11" s="34">
+        <f t="shared" si="23"/>
+        <v>6.8287037037037058E-4</v>
+      </c>
+      <c r="DB11" s="37"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>125</v>
       </c>
@@ -3056,7 +4077,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>E3</v>
       </c>
       <c r="F12" s="5">
@@ -3105,105 +4126,190 @@
         <v>145</v>
       </c>
       <c r="U12" s="8"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="V12" s="19">
+        <v>1.9583333333333331E-2</v>
+      </c>
+      <c r="W12" s="20">
+        <v>2.4189814814814817E-2</v>
+      </c>
+      <c r="X12" s="20">
+        <v>5.7754629629629623E-3</v>
+      </c>
+      <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
+        <f t="shared" si="25"/>
+        <v>4.9548611111111106E-2</v>
+      </c>
+      <c r="AC12" s="20">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>5.7754629629629623E-3</v>
+      </c>
+      <c r="AE12" s="20">
+        <f t="shared" si="0"/>
+        <v>4.0069444444444442E-2</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG12" s="21">
+        <v>30</v>
+      </c>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="30">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="34" t="str">
-        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AN12" s="32"/>
       <c r="AO12" s="33"/>
       <c r="AP12" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="33"/>
       <c r="AS12" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT12" s="32"/>
       <c r="AU12" s="33"/>
       <c r="AV12" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW12" s="32"/>
       <c r="AX12" s="33"/>
       <c r="AY12" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ12" s="32"/>
       <c r="BA12" s="33"/>
       <c r="BB12" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC12" s="32"/>
       <c r="BD12" s="33"/>
       <c r="BE12" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="BF12" s="32"/>
       <c r="BG12" s="33"/>
       <c r="BH12" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="BI12" s="32"/>
       <c r="BJ12" s="33"/>
       <c r="BK12" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL12" s="32"/>
       <c r="BM12" s="33"/>
       <c r="BN12" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO12" s="32"/>
       <c r="BP12" s="33"/>
       <c r="BQ12" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR12" s="32"/>
       <c r="BS12" s="33"/>
       <c r="BT12" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU12" s="32"/>
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX12" s="32"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BU12" s="37"/>
+      <c r="CA12" s="32"/>
+      <c r="CB12" s="33"/>
+      <c r="CC12" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD12" s="86"/>
+      <c r="CE12" s="69"/>
+      <c r="CF12" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG12" s="32"/>
+      <c r="CH12" s="83"/>
+      <c r="CI12" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ12" s="32"/>
+      <c r="CK12" s="83"/>
+      <c r="CL12" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM12" s="32"/>
+      <c r="CN12" s="83"/>
+      <c r="CO12" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP12" s="32"/>
+      <c r="CQ12" s="83"/>
+      <c r="CR12" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS12" s="32"/>
+      <c r="CT12" s="83"/>
+      <c r="CU12" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV12" s="32"/>
+      <c r="CW12" s="83"/>
+      <c r="CX12" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY12" s="32">
+        <v>5</v>
+      </c>
+      <c r="CZ12" s="83">
+        <v>1.2997685185185183E-2</v>
+      </c>
+      <c r="DA12" s="34">
+        <f t="shared" si="23"/>
+        <v>9.2939814814814795E-3</v>
+      </c>
+      <c r="DB12" s="37"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>125</v>
       </c>
@@ -3217,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>E1</v>
       </c>
       <c r="F13" s="5">
@@ -3266,105 +4372,204 @@
         <v>145</v>
       </c>
       <c r="U13" s="8"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
+      <c r="V13" s="19">
+        <v>2.9270833333333333E-2</v>
+      </c>
+      <c r="W13" s="20">
+        <v>2.6238425925925925E-2</v>
+      </c>
       <c r="X13" s="20"/>
-      <c r="Y13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
+        <f t="shared" si="25"/>
+        <v>5.5509259259259258E-2</v>
+      </c>
+      <c r="AC13" s="20">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="AD13" s="20">
+        <v>9.432870370370371E-3</v>
+      </c>
+      <c r="AE13" s="20">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG13" s="21">
+        <v>30</v>
+      </c>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="30">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="31">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="32">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="35">
+        <v>2.6550925925925926E-2</v>
+      </c>
+      <c r="AM13" s="69">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="34" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
+        <v>2.2141203703703705E-2</v>
       </c>
       <c r="AN13" s="32"/>
       <c r="AO13" s="33"/>
       <c r="AP13" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="33"/>
       <c r="AS13" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AT13" s="32"/>
       <c r="AU13" s="33"/>
       <c r="AV13" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AW13" s="32"/>
       <c r="AX13" s="33"/>
       <c r="AY13" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ13" s="32"/>
       <c r="BA13" s="33"/>
       <c r="BB13" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="BC13" s="32"/>
       <c r="BD13" s="33"/>
       <c r="BE13" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v>NA</v>
-      </c>
-      <c r="BF13" s="32"/>
-      <c r="BG13" s="33"/>
-      <c r="BH13" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>NA</v>
+        <f t="shared" si="7"/>
+        <v>NA</v>
+      </c>
+      <c r="BF13" s="32">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="35">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="BH13" s="34">
+        <f t="shared" si="8"/>
+        <v>1.41087962962963E-2</v>
       </c>
       <c r="BI13" s="32"/>
       <c r="BJ13" s="33"/>
       <c r="BK13" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BL13" s="32"/>
       <c r="BM13" s="33"/>
       <c r="BN13" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BO13" s="32"/>
       <c r="BP13" s="33"/>
       <c r="BQ13" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BR13" s="32"/>
       <c r="BS13" s="33"/>
       <c r="BT13" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>NA</v>
+      </c>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="33"/>
+      <c r="BW13" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX13" s="32">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="35">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="BZ13" s="34">
         <f t="shared" si="14"/>
-        <v>NA</v>
-      </c>
-      <c r="BU13" s="37"/>
+        <v>2.5347222222222221E-3</v>
+      </c>
+      <c r="CA13" s="32"/>
+      <c r="CB13" s="33"/>
+      <c r="CC13" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD13" s="86"/>
+      <c r="CE13" s="69"/>
+      <c r="CF13" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG13" s="32"/>
+      <c r="CH13" s="33"/>
+      <c r="CI13" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ13" s="32"/>
+      <c r="CK13" s="33"/>
+      <c r="CL13" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM13" s="32"/>
+      <c r="CN13" s="33"/>
+      <c r="CO13" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP13" s="32"/>
+      <c r="CQ13" s="33"/>
+      <c r="CR13" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS13" s="32">
+        <v>1</v>
+      </c>
+      <c r="CT13" s="35">
+        <v>2.326388888888889E-2</v>
+      </c>
+      <c r="CU13" s="34">
+        <f t="shared" si="21"/>
+        <v>1.8854166666666668E-2</v>
+      </c>
+      <c r="CV13" s="32">
+        <v>2</v>
+      </c>
+      <c r="CW13" s="35">
+        <v>3.3321759259259259E-2</v>
+      </c>
+      <c r="CX13" s="34">
+        <f t="shared" si="22"/>
+        <v>2.8912037037037038E-2</v>
+      </c>
+      <c r="CY13" s="32"/>
+      <c r="CZ13" s="33"/>
+      <c r="DA13" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB13" s="37"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>137</v>
       </c>
@@ -3378,7 +4583,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>E4</v>
       </c>
       <c r="F14" s="5">
@@ -3427,105 +4632,196 @@
         <v>99</v>
       </c>
       <c r="U14" s="8"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
+      <c r="V14" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W14" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="X14" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
       <c r="Y14" s="20">
-        <f t="shared" ref="Y14:Y20" si="16">SUM(V14:X14)</f>
-        <v>0</v>
+        <v>8.1828703703703699E-3</v>
       </c>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" ref="AB14:AB20" si="17">Y14-Z14-AA14</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="34" t="str">
-        <f t="shared" ref="AJ14:AJ20" si="18">IF(AH14=0,"NA",AI14-$Z14)</f>
-        <v>NA</v>
+        <f t="shared" si="25"/>
+        <v>6.1759259259259257E-2</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>1.5127314814814816E-2</v>
+      </c>
+      <c r="AE14" s="20">
+        <f t="shared" ref="AE14:AE22" si="26">AB14-AC14-AD14</f>
+        <v>4.2905092592592592E-2</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG14" s="21">
+        <v>80</v>
+      </c>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="30">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="31">
+        <v>2</v>
       </c>
       <c r="AK14" s="32"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="34" t="str">
-        <f t="shared" ref="AM14:AM20" si="19">IF(AK14=0,"NA",AL14-$Z14)</f>
+        <f t="shared" ref="AM14:AM20" si="27">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="34" t="str">
-        <f t="shared" ref="AP14:AP20" si="20">IF(AN14=0,"NA",AO14-$Z14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="33"/>
+        <f t="shared" ref="AP14:AP20" si="28">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ14" s="32"/>
       <c r="AR14" s="33"/>
       <c r="AS14" s="34" t="str">
-        <f t="shared" ref="AS14:AS20" si="21">IF(AQ14=0,"NA",AR14-$Z14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="35"/>
+        <f t="shared" ref="AS14:AS20" si="29">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="33"/>
       <c r="AV14" s="34" t="str">
-        <f t="shared" ref="AV14:AV20" si="22">IF(AT14=0,"NA",AU14-$Z14)</f>
+        <f t="shared" ref="AV14:AV20" si="30">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="32"/>
-      <c r="AX14" s="33"/>
+      <c r="AX14" s="35"/>
       <c r="AY14" s="34" t="str">
-        <f t="shared" ref="AY14:AY20" si="23">IF(AW14=0,"NA",AX14-$Z14)</f>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ14" s="32"/>
       <c r="BA14" s="35"/>
       <c r="BB14" s="34" t="str">
-        <f t="shared" ref="BB14:BB20" si="24">IF(AZ14=0,"NA",BA14-$Z14)</f>
+        <f t="shared" ref="BB14:BB20" si="31">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="32"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="34" t="str">
-        <f t="shared" ref="BE14:BE20" si="25">IF(BC14=0,"NA",BD14-$Z14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
+        <f t="shared" ref="BE14:BE20" si="32">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="35"/>
       <c r="BH14" s="34" t="str">
-        <f t="shared" ref="BH14:BH20" si="26">IF(BF14=0,"NA",BG14-$Z14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI14" s="32"/>
-      <c r="BJ14" s="33"/>
-      <c r="BK14" s="34" t="str">
-        <f t="shared" ref="BK14:BK20" si="27">IF(BI14=0,"NA",BJ14-$Z14)</f>
-        <v>NA</v>
+        <f t="shared" ref="BH14:BH20" si="33">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BI14" s="32">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="35">
+        <v>1.8148148148148146E-2</v>
+      </c>
+      <c r="BK14" s="34">
+        <f t="shared" ref="BK14:BK20" si="34">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <v>1.4421296296296295E-2</v>
       </c>
       <c r="BL14" s="33"/>
       <c r="BM14" s="33"/>
       <c r="BN14" s="34" t="str">
-        <f t="shared" ref="BN14:BN20" si="28">IF(BL14=0,"NA",BM14-$Z14)</f>
+        <f t="shared" ref="BN14:BN20" si="35">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="32"/>
       <c r="BP14" s="33"/>
       <c r="BQ14" s="34" t="str">
-        <f t="shared" ref="BQ14:BQ20" si="29">IF(BO14=0,"NA",BP14-$Z14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="32"/>
+        <f t="shared" ref="BQ14:BQ20" si="36">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BR14" s="33"/>
       <c r="BS14" s="33"/>
       <c r="BT14" s="34" t="str">
-        <f t="shared" ref="BT14:BT20" si="30">IF(BR14=0,"NA",BS14-$Z14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU14" s="37"/>
+        <f t="shared" ref="BT14:BT20" si="37">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="33"/>
+      <c r="BW14" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX14" s="32">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="35">
+        <v>1.653935185185185E-2</v>
+      </c>
+      <c r="BZ14" s="34">
+        <f t="shared" ref="BZ14:BZ20" si="38">IF(BX14=0,"NA",BY14-$AC14)</f>
+        <v>1.2812499999999999E-2</v>
+      </c>
+      <c r="CA14" s="32"/>
+      <c r="CB14" s="35"/>
+      <c r="CC14" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD14" s="86"/>
+      <c r="CE14" s="69"/>
+      <c r="CF14" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG14" s="32"/>
+      <c r="CH14" s="33"/>
+      <c r="CI14" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ14" s="32"/>
+      <c r="CK14" s="33"/>
+      <c r="CL14" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM14" s="32"/>
+      <c r="CN14" s="33"/>
+      <c r="CO14" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP14" s="32"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS14" s="32"/>
+      <c r="CT14" s="33"/>
+      <c r="CU14" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV14" s="32"/>
+      <c r="CW14" s="33"/>
+      <c r="CX14" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY14" s="32"/>
+      <c r="CZ14" s="33"/>
+      <c r="DA14" s="34" t="str">
+        <f t="shared" ref="DA14:DA20" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DB14" s="37"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>137</v>
       </c>
@@ -3539,7 +4835,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>E6</v>
       </c>
       <c r="F15" s="5">
@@ -3588,105 +4884,204 @@
         <v>99</v>
       </c>
       <c r="U15" s="8"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="V15" s="19">
+        <v>2.1539351851851851E-2</v>
+      </c>
+      <c r="W15" s="20">
+        <v>1.9131944444444444E-2</v>
+      </c>
+      <c r="X15" s="20">
+        <v>9.7453703703703713E-3</v>
+      </c>
+      <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="34" t="str">
-        <f t="shared" si="19"/>
-        <v>NA</v>
+        <f t="shared" si="25"/>
+        <v>5.0416666666666665E-2</v>
+      </c>
+      <c r="AC15" s="20">
+        <v>5.8796296296296296E-3</v>
+      </c>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20">
+        <f t="shared" si="26"/>
+        <v>4.4537037037037035E-2</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG15" s="21">
+        <v>50</v>
+      </c>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="30">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="31">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="32">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="35">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="AM15" s="34">
+        <f t="shared" si="27"/>
+        <v>7.4537037037037046E-3</v>
       </c>
       <c r="AN15" s="32"/>
       <c r="AO15" s="33"/>
       <c r="AP15" s="34" t="str">
-        <f t="shared" si="20"/>
-        <v>NA</v>
-      </c>
-      <c r="AQ15" s="33"/>
+        <f t="shared" si="28"/>
+        <v>NA</v>
+      </c>
+      <c r="AQ15" s="32"/>
       <c r="AR15" s="33"/>
       <c r="AS15" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="AT15" s="32"/>
+        <f t="shared" si="29"/>
+        <v>NA</v>
+      </c>
+      <c r="AT15" s="33"/>
       <c r="AU15" s="33"/>
       <c r="AV15" s="34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="32"/>
       <c r="AX15" s="33"/>
       <c r="AY15" s="34" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ15" s="32"/>
-      <c r="BA15" s="35"/>
+      <c r="BA15" s="33"/>
       <c r="BB15" s="34" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="32"/>
       <c r="BD15" s="33"/>
       <c r="BE15" s="34" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="32"/>
-      <c r="BG15" s="33"/>
+      <c r="BG15" s="35"/>
       <c r="BH15" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="32"/>
       <c r="BJ15" s="33"/>
       <c r="BK15" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL15" s="32"/>
       <c r="BM15" s="33"/>
       <c r="BN15" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO15" s="32"/>
       <c r="BP15" s="33"/>
       <c r="BQ15" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="32"/>
       <c r="BS15" s="33"/>
       <c r="BT15" s="34" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="BU15" s="37"/>
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="BU15" s="32"/>
+      <c r="BV15" s="33"/>
+      <c r="BW15" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX15" s="32">
+        <v>2</v>
+      </c>
+      <c r="BY15" s="35">
+        <v>7.9976851851851858E-3</v>
+      </c>
+      <c r="BZ15" s="34">
+        <f t="shared" si="38"/>
+        <v>2.1180555555555562E-3</v>
+      </c>
+      <c r="CA15" s="32">
+        <v>1</v>
+      </c>
+      <c r="CB15" s="83">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="CC15" s="34">
+        <f t="shared" si="15"/>
+        <v>6.8518518518518512E-3</v>
+      </c>
+      <c r="CD15" s="86">
+        <v>1</v>
+      </c>
+      <c r="CE15" s="69">
+        <v>1.0034722222222221E-2</v>
+      </c>
+      <c r="CF15" s="34">
+        <f t="shared" si="16"/>
+        <v>4.1550925925925913E-3</v>
+      </c>
+      <c r="CG15" s="32"/>
+      <c r="CH15" s="83"/>
+      <c r="CI15" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ15" s="32"/>
+      <c r="CK15" s="83"/>
+      <c r="CL15" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM15" s="32">
+        <v>1</v>
+      </c>
+      <c r="CN15" s="83">
+        <v>1.0289351851851852E-2</v>
+      </c>
+      <c r="CO15" s="34">
+        <f t="shared" si="19"/>
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="CP15" s="32"/>
+      <c r="CQ15" s="33"/>
+      <c r="CR15" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS15" s="32"/>
+      <c r="CT15" s="33"/>
+      <c r="CU15" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV15" s="32"/>
+      <c r="CW15" s="33"/>
+      <c r="CX15" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY15" s="32"/>
+      <c r="CZ15" s="33"/>
+      <c r="DA15" s="34" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB15" s="37"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>137</v>
       </c>
@@ -3700,7 +5095,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>E5</v>
       </c>
       <c r="F16" s="5">
@@ -3752,102 +5147,165 @@
       <c r="V16" s="19"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
-      <c r="Y16" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="31"/>
       <c r="AK16" s="32"/>
       <c r="AL16" s="35"/>
       <c r="AM16" s="34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="32"/>
       <c r="AO16" s="35"/>
       <c r="AP16" s="34" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="35"/>
       <c r="AS16" s="34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT16" s="32"/>
       <c r="AU16" s="35"/>
       <c r="AV16" s="34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="32"/>
       <c r="AX16" s="35"/>
       <c r="AY16" s="34" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ16" s="32"/>
       <c r="BA16" s="35"/>
       <c r="BB16" s="34" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="32"/>
       <c r="BD16" s="35"/>
       <c r="BE16" s="34" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="32"/>
-      <c r="BG16" s="33"/>
+      <c r="BG16" s="35"/>
       <c r="BH16" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="32"/>
-      <c r="BJ16" s="33"/>
+      <c r="BJ16" s="35"/>
       <c r="BK16" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL16" s="32"/>
       <c r="BM16" s="33"/>
       <c r="BN16" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO16" s="32"/>
       <c r="BP16" s="33"/>
       <c r="BQ16" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="32"/>
-      <c r="BS16" s="35"/>
+      <c r="BS16" s="33"/>
       <c r="BT16" s="34" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="BU16" s="37"/>
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="BU16" s="32"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX16" s="32"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="34" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="CA16" s="32"/>
+      <c r="CB16" s="33"/>
+      <c r="CC16" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD16" s="86"/>
+      <c r="CE16" s="69"/>
+      <c r="CF16" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG16" s="32"/>
+      <c r="CH16" s="35"/>
+      <c r="CI16" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ16" s="32"/>
+      <c r="CK16" s="35"/>
+      <c r="CL16" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM16" s="32"/>
+      <c r="CN16" s="35"/>
+      <c r="CO16" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP16" s="32"/>
+      <c r="CQ16" s="35"/>
+      <c r="CR16" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS16" s="32"/>
+      <c r="CT16" s="35"/>
+      <c r="CU16" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV16" s="32"/>
+      <c r="CW16" s="35"/>
+      <c r="CX16" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY16" s="32"/>
+      <c r="CZ16" s="35"/>
+      <c r="DA16" s="34" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB16" s="37"/>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>137</v>
       </c>
@@ -3861,7 +5319,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L6</v>
       </c>
       <c r="F17" s="5">
@@ -3913,102 +5371,165 @@
       <c r="V17" s="19"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
-      <c r="Y17" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="31"/>
       <c r="AK17" s="32"/>
       <c r="AL17" s="35"/>
       <c r="AM17" s="34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="32"/>
       <c r="AO17" s="35"/>
       <c r="AP17" s="34" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="35"/>
       <c r="AS17" s="34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="32"/>
       <c r="AU17" s="35"/>
       <c r="AV17" s="34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="32"/>
       <c r="AX17" s="35"/>
       <c r="AY17" s="34" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ17" s="32"/>
       <c r="BA17" s="35"/>
       <c r="BB17" s="34" t="str">
-        <f t="shared" si="24"/>
-        <v>NA</v>
-      </c>
-      <c r="BC17" s="43"/>
+        <f t="shared" si="31"/>
+        <v>NA</v>
+      </c>
+      <c r="BC17" s="32"/>
       <c r="BD17" s="35"/>
       <c r="BE17" s="34" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="BF17" s="43"/>
+        <f t="shared" si="32"/>
+        <v>NA</v>
+      </c>
+      <c r="BF17" s="32"/>
       <c r="BG17" s="35"/>
       <c r="BH17" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="35"/>
       <c r="BK17" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL17" s="43"/>
       <c r="BM17" s="35"/>
       <c r="BN17" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>NA</v>
-      </c>
-      <c r="BO17" s="32"/>
-      <c r="BP17" s="33"/>
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
+      <c r="BO17" s="43"/>
+      <c r="BP17" s="35"/>
       <c r="BQ17" s="34" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
-      </c>
-      <c r="BR17" s="32"/>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="BR17" s="43"/>
       <c r="BS17" s="35"/>
       <c r="BT17" s="34" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="BU17" s="37"/>
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="BU17" s="32"/>
+      <c r="BV17" s="33"/>
+      <c r="BW17" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX17" s="32"/>
+      <c r="BY17" s="33"/>
+      <c r="BZ17" s="34" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="CA17" s="32"/>
+      <c r="CB17" s="33"/>
+      <c r="CC17" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD17" s="86"/>
+      <c r="CE17" s="69"/>
+      <c r="CF17" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG17" s="32"/>
+      <c r="CH17" s="35"/>
+      <c r="CI17" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ17" s="32"/>
+      <c r="CK17" s="35"/>
+      <c r="CL17" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM17" s="32"/>
+      <c r="CN17" s="35"/>
+      <c r="CO17" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP17" s="32"/>
+      <c r="CQ17" s="35"/>
+      <c r="CR17" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS17" s="32"/>
+      <c r="CT17" s="35"/>
+      <c r="CU17" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV17" s="32"/>
+      <c r="CW17" s="35"/>
+      <c r="CX17" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY17" s="32"/>
+      <c r="CZ17" s="35"/>
+      <c r="DA17" s="34" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB17" s="37"/>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>137</v>
       </c>
@@ -4022,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>D4</v>
       </c>
       <c r="F18" s="5">
@@ -4074,102 +5595,165 @@
       <c r="V18" s="19"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
-      <c r="Y18" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="31"/>
       <c r="AK18" s="32"/>
       <c r="AL18" s="35"/>
       <c r="AM18" s="34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN18" s="32"/>
       <c r="AO18" s="35"/>
       <c r="AP18" s="34" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="35"/>
       <c r="AS18" s="34" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="32"/>
       <c r="AU18" s="35"/>
       <c r="AV18" s="34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="32"/>
       <c r="AX18" s="35"/>
       <c r="AY18" s="34" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ18" s="32"/>
       <c r="BA18" s="35"/>
       <c r="BB18" s="34" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BC18" s="32"/>
       <c r="BD18" s="35"/>
       <c r="BE18" s="34" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF18" s="32"/>
       <c r="BG18" s="35"/>
       <c r="BH18" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI18" s="32"/>
       <c r="BJ18" s="35"/>
       <c r="BK18" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL18" s="32"/>
       <c r="BM18" s="35"/>
       <c r="BN18" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO18" s="32"/>
-      <c r="BP18" s="33"/>
+      <c r="BP18" s="35"/>
       <c r="BQ18" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR18" s="32"/>
       <c r="BS18" s="35"/>
       <c r="BT18" s="34" t="str">
-        <f t="shared" si="30"/>
-        <v>NA</v>
-      </c>
-      <c r="BU18" s="37"/>
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="34" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="CA18" s="32"/>
+      <c r="CB18" s="33"/>
+      <c r="CC18" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD18" s="86"/>
+      <c r="CE18" s="69"/>
+      <c r="CF18" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG18" s="32"/>
+      <c r="CH18" s="35"/>
+      <c r="CI18" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ18" s="32"/>
+      <c r="CK18" s="35"/>
+      <c r="CL18" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM18" s="32"/>
+      <c r="CN18" s="35"/>
+      <c r="CO18" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP18" s="32"/>
+      <c r="CQ18" s="35"/>
+      <c r="CR18" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS18" s="32"/>
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV18" s="32"/>
+      <c r="CW18" s="35"/>
+      <c r="CX18" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY18" s="32"/>
+      <c r="CZ18" s="35"/>
+      <c r="DA18" s="34" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB18" s="37"/>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>137</v>
       </c>
@@ -4183,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L5</v>
       </c>
       <c r="F19" s="5">
@@ -4235,102 +5819,165 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
-      <c r="Y19" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="69" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
       <c r="AK19" s="33"/>
       <c r="AL19" s="35"/>
       <c r="AM19" s="69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="33"/>
       <c r="AO19" s="35"/>
       <c r="AP19" s="69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ19" s="33"/>
       <c r="AR19" s="35"/>
       <c r="AS19" s="69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="33"/>
       <c r="AU19" s="35"/>
       <c r="AV19" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="33"/>
       <c r="AX19" s="35"/>
       <c r="AY19" s="69" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ19" s="33"/>
       <c r="BA19" s="35"/>
       <c r="BB19" s="69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BC19" s="33"/>
       <c r="BD19" s="35"/>
       <c r="BE19" s="69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="33"/>
       <c r="BG19" s="35"/>
       <c r="BH19" s="69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="33"/>
       <c r="BJ19" s="35"/>
       <c r="BK19" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL19" s="33"/>
       <c r="BM19" s="35"/>
       <c r="BN19" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO19" s="33"/>
-      <c r="BP19" s="33"/>
+      <c r="BP19" s="35"/>
       <c r="BQ19" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="33"/>
       <c r="BS19" s="35"/>
       <c r="BT19" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="33"/>
+      <c r="BV19" s="33"/>
+      <c r="BW19" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX19" s="33"/>
+      <c r="BY19" s="33"/>
+      <c r="BZ19" s="69" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="33"/>
+      <c r="CC19" s="69" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD19" s="86"/>
+      <c r="CE19" s="69"/>
+      <c r="CF19" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG19" s="33"/>
+      <c r="CH19" s="35"/>
+      <c r="CI19" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ19" s="33"/>
+      <c r="CK19" s="35"/>
+      <c r="CL19" s="69" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM19" s="33"/>
+      <c r="CN19" s="35"/>
+      <c r="CO19" s="69" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="35"/>
+      <c r="CR19" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS19" s="33"/>
+      <c r="CT19" s="35"/>
+      <c r="CU19" s="69" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV19" s="33"/>
+      <c r="CW19" s="35"/>
+      <c r="CX19" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY19" s="33"/>
+      <c r="CZ19" s="35"/>
+      <c r="DA19" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB19" s="33"/>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>137</v>
       </c>
@@ -4344,7 +5991,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>D5</v>
       </c>
       <c r="F20" s="5">
@@ -4396,102 +6043,165 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
-      <c r="Y20" s="20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="35"/>
-      <c r="AJ20" s="69" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
       <c r="AK20" s="33"/>
       <c r="AL20" s="35"/>
       <c r="AM20" s="69" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="33"/>
       <c r="AO20" s="35"/>
       <c r="AP20" s="69" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="35"/>
       <c r="AS20" s="69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="33"/>
       <c r="AU20" s="35"/>
       <c r="AV20" s="69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="33"/>
       <c r="AX20" s="35"/>
       <c r="AY20" s="69" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AZ20" s="33"/>
       <c r="BA20" s="35"/>
       <c r="BB20" s="69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BC20" s="33"/>
       <c r="BD20" s="35"/>
       <c r="BE20" s="69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="33"/>
       <c r="BG20" s="35"/>
       <c r="BH20" s="69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="33"/>
       <c r="BJ20" s="35"/>
       <c r="BK20" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="33"/>
       <c r="BM20" s="35"/>
       <c r="BN20" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO20" s="33"/>
       <c r="BP20" s="35"/>
       <c r="BQ20" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="33"/>
       <c r="BS20" s="35"/>
       <c r="BT20" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="33"/>
+      <c r="BV20" s="35"/>
+      <c r="BW20" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
+      <c r="BX20" s="33"/>
+      <c r="BY20" s="35"/>
+      <c r="BZ20" s="69" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="CA20" s="33"/>
+      <c r="CB20" s="35"/>
+      <c r="CC20" s="69" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD20" s="86"/>
+      <c r="CE20" s="69"/>
+      <c r="CF20" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG20" s="33"/>
+      <c r="CH20" s="35"/>
+      <c r="CI20" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ20" s="33"/>
+      <c r="CK20" s="35"/>
+      <c r="CL20" s="69" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM20" s="33"/>
+      <c r="CN20" s="35"/>
+      <c r="CO20" s="69" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
+      <c r="CP20" s="33"/>
+      <c r="CQ20" s="35"/>
+      <c r="CR20" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS20" s="33"/>
+      <c r="CT20" s="35"/>
+      <c r="CU20" s="69" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV20" s="33"/>
+      <c r="CW20" s="35"/>
+      <c r="CX20" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY20" s="33"/>
+      <c r="CZ20" s="35"/>
+      <c r="DA20" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>NA</v>
+      </c>
+      <c r="DB20" s="33"/>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>137</v>
       </c>
@@ -4505,7 +6215,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>D6</v>
       </c>
       <c r="F21" s="5">
@@ -4558,15 +6268,21 @@
       <c r="W21" s="66"/>
       <c r="X21" s="66"/>
       <c r="Y21" s="66"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AC21" s="67"/>
       <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
+      <c r="AE21" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
       <c r="AI21" s="68"/>
       <c r="AJ21" s="68"/>
       <c r="AK21" s="68"/>
@@ -4606,8 +6322,41 @@
       <c r="BS21" s="68"/>
       <c r="BT21" s="68"/>
       <c r="BU21" s="68"/>
+      <c r="BV21" s="68"/>
+      <c r="BW21" s="68"/>
+      <c r="BX21" s="68"/>
+      <c r="BY21" s="68"/>
+      <c r="BZ21" s="68"/>
+      <c r="CA21" s="68"/>
+      <c r="CB21" s="68"/>
+      <c r="CC21" s="68"/>
+      <c r="CD21" s="87"/>
+      <c r="CE21" s="68"/>
+      <c r="CF21" s="68"/>
+      <c r="CG21" s="68"/>
+      <c r="CH21" s="68"/>
+      <c r="CI21" s="68"/>
+      <c r="CJ21" s="68"/>
+      <c r="CK21" s="68"/>
+      <c r="CL21" s="68"/>
+      <c r="CM21" s="68"/>
+      <c r="CN21" s="68"/>
+      <c r="CO21" s="68"/>
+      <c r="CP21" s="68"/>
+      <c r="CQ21" s="68"/>
+      <c r="CR21" s="68"/>
+      <c r="CS21" s="68"/>
+      <c r="CT21" s="68"/>
+      <c r="CU21" s="68"/>
+      <c r="CV21" s="68"/>
+      <c r="CW21" s="68"/>
+      <c r="CX21" s="68"/>
+      <c r="CY21" s="68"/>
+      <c r="CZ21" s="68"/>
+      <c r="DA21" s="68"/>
+      <c r="DB21" s="68"/>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>137</v>
       </c>
@@ -4621,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>L4</v>
       </c>
       <c r="F22" s="5">
@@ -4674,15 +6423,21 @@
       <c r="W22" s="66"/>
       <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AC22" s="67"/>
       <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
+      <c r="AE22" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
       <c r="AI22" s="68"/>
       <c r="AJ22" s="68"/>
       <c r="AK22" s="68"/>
@@ -4722,6 +6477,39 @@
       <c r="BS22" s="68"/>
       <c r="BT22" s="68"/>
       <c r="BU22" s="68"/>
+      <c r="BV22" s="68"/>
+      <c r="BW22" s="68"/>
+      <c r="BX22" s="68"/>
+      <c r="BY22" s="68"/>
+      <c r="BZ22" s="68"/>
+      <c r="CA22" s="68"/>
+      <c r="CB22" s="68"/>
+      <c r="CC22" s="68"/>
+      <c r="CD22" s="87"/>
+      <c r="CE22" s="68"/>
+      <c r="CF22" s="68"/>
+      <c r="CG22" s="68"/>
+      <c r="CH22" s="68"/>
+      <c r="CI22" s="68"/>
+      <c r="CJ22" s="68"/>
+      <c r="CK22" s="68"/>
+      <c r="CL22" s="68"/>
+      <c r="CM22" s="68"/>
+      <c r="CN22" s="68"/>
+      <c r="CO22" s="68"/>
+      <c r="CP22" s="68"/>
+      <c r="CQ22" s="68"/>
+      <c r="CR22" s="68"/>
+      <c r="CS22" s="68"/>
+      <c r="CT22" s="68"/>
+      <c r="CU22" s="68"/>
+      <c r="CV22" s="68"/>
+      <c r="CW22" s="68"/>
+      <c r="CX22" s="68"/>
+      <c r="CY22" s="68"/>
+      <c r="CZ22" s="68"/>
+      <c r="DA22" s="68"/>
+      <c r="DB22" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50511416-47CF-4F93-971A-B1EAB5E8164B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9D50B-A1DE-47F7-8D44-61FF91822E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4910" yWindow="-60" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="208">
   <si>
     <t>DATE</t>
   </si>
@@ -638,15 +638,6 @@
     <t>T1_BFLY2</t>
   </si>
   <si>
-    <t>MAXN_FISHO</t>
-  </si>
-  <si>
-    <t>TIME_1STFISHO</t>
-  </si>
-  <si>
-    <t>T1_FISHO</t>
-  </si>
-  <si>
     <t>MAXN_FISHN</t>
   </si>
   <si>
@@ -654,6 +645,18 @@
   </si>
   <si>
     <t>T1_FISHN</t>
+  </si>
+  <si>
+    <t>REDO</t>
+  </si>
+  <si>
+    <t>MAXN_VERTFISH</t>
+  </si>
+  <si>
+    <t>TIME_1STVERTFISH</t>
+  </si>
+  <si>
+    <t>T1_VERTFISH</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1017,6 +1020,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,9 +1306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
   <dimension ref="A1:DB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN14" sqref="BN14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,8 +1321,20 @@
     <col min="6" max="7" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="8" max="21" width="8.7265625" customWidth="1"/>
     <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
-    <col min="29" max="36" width="8.7265625" customWidth="1"/>
+    <col min="29" max="35" width="8.7265625" customWidth="1"/>
+    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="8.7265625" style="88"/>
+    <col min="84" max="84" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1571,58 +1592,58 @@
         <v>188</v>
       </c>
       <c r="CG1" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="CH1" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="CI1" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ1" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="CK1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL1" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM1" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="CN1" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO1" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP1" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="CQ1" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR1" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="CS1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="CT1" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="CU1" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="CV1" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="CI1" s="72" t="s">
+      <c r="CW1" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="CJ1" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="CK1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="CL1" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="CM1" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="CN1" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="CO1" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="CP1" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="CQ1" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR1" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="CS1" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="CT1" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="CU1" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="CV1" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="CW1" s="28" t="s">
-        <v>199</v>
-      </c>
       <c r="CX1" s="72" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="CY1" s="27" t="s">
         <v>12</v>
@@ -1768,7 +1789,7 @@
       <c r="AW2" s="71"/>
       <c r="AX2" s="70"/>
       <c r="AY2" s="34" t="str">
-        <f t="shared" ref="AY2:AY20" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
+        <f t="shared" ref="AY2:AY22" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="AZ2" s="71"/>
@@ -1816,7 +1837,7 @@
       <c r="BU2" s="71"/>
       <c r="BV2" s="70"/>
       <c r="BW2" s="34" t="str">
-        <f t="shared" ref="BW2:BW20" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
+        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="BX2" s="71">
@@ -1832,13 +1853,13 @@
       <c r="CA2" s="71"/>
       <c r="CB2" s="70"/>
       <c r="CC2" s="34" t="str">
-        <f t="shared" ref="CC2:CC20" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
+        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="CD2" s="86"/>
       <c r="CE2" s="69"/>
       <c r="CF2" s="34" t="str">
-        <f t="shared" ref="CF2:CF20" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
+        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="CG2" s="71">
@@ -1848,37 +1869,37 @@
         <v>1.8553240740740742E-2</v>
       </c>
       <c r="CI2" s="34">
-        <f t="shared" ref="CI2:CI20" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
+        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
         <v>1.474537037037037E-2</v>
       </c>
       <c r="CJ2" s="71"/>
       <c r="CK2" s="84"/>
       <c r="CL2" s="34" t="str">
-        <f t="shared" ref="CL2:CL20" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
+        <f t="shared" ref="CL2:CL22" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="CM2" s="71"/>
       <c r="CN2" s="84"/>
       <c r="CO2" s="34" t="str">
-        <f t="shared" ref="CO2:CO20" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
+        <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="CP2" s="71"/>
       <c r="CQ2" s="84"/>
       <c r="CR2" s="34" t="str">
-        <f t="shared" ref="CR2:CR20" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
+        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="CS2" s="71"/>
       <c r="CT2" s="84"/>
       <c r="CU2" s="34" t="str">
-        <f t="shared" ref="CU2:CU20" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
+        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="CV2" s="71"/>
       <c r="CW2" s="84"/>
       <c r="CX2" s="34" t="str">
-        <f t="shared" ref="CX2:CX20" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
         <v>NA</v>
       </c>
       <c r="CY2" s="71">
@@ -2303,11 +2324,11 @@
         <v>1</v>
       </c>
       <c r="BJ4" s="35">
-        <v>3.9131944444444448E-2</v>
+        <v>2.4062500000000001E-2</v>
       </c>
       <c r="BK4" s="34">
         <f t="shared" si="9"/>
-        <v>3.5474537037037041E-2</v>
+        <v>2.0405092592592593E-2</v>
       </c>
       <c r="BL4" s="32"/>
       <c r="BM4" s="33"/>
@@ -2357,15 +2378,11 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ4" s="32">
-        <v>1</v>
-      </c>
-      <c r="CK4" s="35">
-        <v>2.4062500000000001E-2</v>
-      </c>
-      <c r="CL4" s="34">
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="34" t="str">
         <f t="shared" si="18"/>
-        <v>2.0405092592592593E-2</v>
+        <v>NA</v>
       </c>
       <c r="CM4" s="32"/>
       <c r="CN4" s="35"/>
@@ -3143,39 +3160,61 @@
       <c r="T8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="V8" s="19">
+        <v>3.2546296296296295E-2</v>
+      </c>
+      <c r="W8" s="20">
+        <v>2.0474537037037038E-2</v>
+      </c>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
+        <v>5.3020833333333336E-2</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>3.9351851851851857E-3</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="AE8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
+        <v>4.2141203703703708E-2</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG8" s="21">
+        <v>85</v>
+      </c>
       <c r="AH8" s="22"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="31"/>
+      <c r="AI8" s="30">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>2</v>
+      </c>
       <c r="AK8" s="32"/>
       <c r="AL8" s="35"/>
       <c r="AM8" s="69" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="34" t="str">
+      <c r="AN8" s="32">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="83">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="AP8" s="34">
         <f t="shared" si="2"/>
-        <v>NA</v>
+        <v>0.28425925925925927</v>
       </c>
       <c r="AQ8" s="32"/>
       <c r="AR8" s="33"/>
@@ -3292,16 +3331,20 @@
         <v>NA</v>
       </c>
       <c r="CV8" s="32"/>
-      <c r="CW8" s="33"/>
+      <c r="CW8" s="83"/>
       <c r="CX8" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY8" s="32"/>
-      <c r="CZ8" s="33"/>
-      <c r="DA8" s="34" t="str">
+      <c r="CY8" s="32">
+        <v>5</v>
+      </c>
+      <c r="CZ8" s="83">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="DA8" s="34">
         <f t="shared" si="23"/>
-        <v>NA</v>
+        <v>0.25300925925925927</v>
       </c>
       <c r="DB8" s="37"/>
     </row>
@@ -3367,33 +3410,55 @@
       <c r="T9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
+      <c r="U9" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="V9" s="19">
+        <v>1.982638888888889E-2</v>
+      </c>
+      <c r="W9" s="20">
+        <v>2.3483796296296298E-2</v>
+      </c>
+      <c r="X9" s="20">
+        <v>2.5925925925925925E-3</v>
+      </c>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="20"/>
+        <v>4.5902777777777778E-2</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>3.7847222222222223E-3</v>
+      </c>
       <c r="AD9" s="20"/>
       <c r="AE9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
+        <v>4.2118055555555554E-2</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG9" s="21">
+        <v>85</v>
+      </c>
       <c r="AH9" s="22"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="35"/>
-      <c r="AM9" s="69" t="str">
+      <c r="AI9" s="30">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="32">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="35">
+        <v>2.5358796296296296E-2</v>
+      </c>
+      <c r="AM9" s="69">
         <f t="shared" si="1"/>
-        <v>NA</v>
+        <v>2.1574074074074072E-2</v>
       </c>
       <c r="AN9" s="32"/>
       <c r="AO9" s="33"/>
@@ -3437,11 +3502,15 @@
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="33"/>
-      <c r="BK9" s="34" t="str">
+      <c r="BI9" s="32">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="35">
+        <v>4.5856481481481477E-2</v>
+      </c>
+      <c r="BK9" s="34">
         <f t="shared" si="9"/>
-        <v>NA</v>
+        <v>4.2071759259259253E-2</v>
       </c>
       <c r="BL9" s="32"/>
       <c r="BM9" s="33"/>
@@ -3516,16 +3585,20 @@
         <v>NA</v>
       </c>
       <c r="CV9" s="32"/>
-      <c r="CW9" s="33"/>
+      <c r="CW9" s="69"/>
       <c r="CX9" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY9" s="32"/>
-      <c r="CZ9" s="33"/>
-      <c r="DA9" s="34" t="str">
+      <c r="CY9" s="32">
+        <v>2</v>
+      </c>
+      <c r="CZ9" s="69">
+        <v>2.193287037037037E-2</v>
+      </c>
+      <c r="DA9" s="34">
         <f t="shared" si="23"/>
-        <v>NA</v>
+        <v>1.8148148148148149E-2</v>
       </c>
       <c r="DB9" s="37"/>
     </row>
@@ -3591,7 +3664,9 @@
       <c r="T10" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="V10" s="19">
         <v>8.7962962962962962E-4</v>
       </c>
@@ -4023,21 +4098,21 @@
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM11" s="32"/>
-      <c r="CN11" s="35"/>
-      <c r="CO11" s="34" t="str">
+      <c r="CM11" s="32">
+        <v>1</v>
+      </c>
+      <c r="CN11" s="35">
+        <v>4.9178240740740738E-2</v>
+      </c>
+      <c r="CO11" s="34">
         <f t="shared" si="19"/>
-        <v>NA</v>
-      </c>
-      <c r="CP11" s="32">
-        <v>1</v>
-      </c>
-      <c r="CQ11" s="35">
-        <v>4.9178240740740738E-2</v>
-      </c>
-      <c r="CR11" s="34">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="CP11" s="32"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="34" t="str">
         <f t="shared" si="20"/>
-        <v>4.5636574074074072E-2</v>
+        <v>NA</v>
       </c>
       <c r="CS11" s="32"/>
       <c r="CT11" s="35"/>
@@ -4535,31 +4610,31 @@
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP13" s="32"/>
-      <c r="CQ13" s="33"/>
-      <c r="CR13" s="34" t="str">
+      <c r="CP13" s="32">
+        <v>1</v>
+      </c>
+      <c r="CQ13" s="35">
+        <v>2.326388888888889E-2</v>
+      </c>
+      <c r="CR13" s="34">
         <f t="shared" si="20"/>
-        <v>NA</v>
+        <v>1.8854166666666668E-2</v>
       </c>
       <c r="CS13" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT13" s="35">
-        <v>2.326388888888889E-2</v>
+        <v>3.3321759259259259E-2</v>
       </c>
       <c r="CU13" s="34">
         <f t="shared" si="21"/>
-        <v>1.8854166666666668E-2</v>
-      </c>
-      <c r="CV13" s="32">
-        <v>2</v>
-      </c>
-      <c r="CW13" s="35">
-        <v>3.3321759259259259E-2</v>
-      </c>
-      <c r="CX13" s="34">
+        <v>2.8912037037037038E-2</v>
+      </c>
+      <c r="CV13" s="32"/>
+      <c r="CW13" s="33"/>
+      <c r="CX13" s="34" t="str">
         <f t="shared" si="22"/>
-        <v>2.8912037037037038E-2</v>
+        <v>NA</v>
       </c>
       <c r="CY13" s="32"/>
       <c r="CZ13" s="33"/>
@@ -4676,25 +4751,25 @@
       <c r="AK14" s="32"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="34" t="str">
-        <f t="shared" ref="AM14:AM20" si="27">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="27">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="34" t="str">
-        <f t="shared" ref="AP14:AP20" si="28">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="28">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="33"/>
       <c r="AS14" s="34" t="str">
-        <f t="shared" ref="AS14:AS20" si="29">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="29">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="33"/>
       <c r="AU14" s="33"/>
       <c r="AV14" s="34" t="str">
-        <f t="shared" ref="AV14:AV20" si="30">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="30">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="32"/>
@@ -4706,19 +4781,19 @@
       <c r="AZ14" s="32"/>
       <c r="BA14" s="35"/>
       <c r="BB14" s="34" t="str">
-        <f t="shared" ref="BB14:BB20" si="31">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB22" si="31">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="32"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="34" t="str">
-        <f t="shared" ref="BE14:BE20" si="32">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="32">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="32"/>
       <c r="BG14" s="35"/>
       <c r="BH14" s="34" t="str">
-        <f t="shared" ref="BH14:BH20" si="33">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="33">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="32">
@@ -4728,25 +4803,25 @@
         <v>1.8148148148148146E-2</v>
       </c>
       <c r="BK14" s="34">
-        <f t="shared" ref="BK14:BK20" si="34">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="34">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>1.4421296296296295E-2</v>
       </c>
       <c r="BL14" s="33"/>
       <c r="BM14" s="33"/>
       <c r="BN14" s="34" t="str">
-        <f t="shared" ref="BN14:BN20" si="35">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="35">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="32"/>
       <c r="BP14" s="33"/>
       <c r="BQ14" s="34" t="str">
-        <f t="shared" ref="BQ14:BQ20" si="36">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="36">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="33"/>
       <c r="BS14" s="33"/>
       <c r="BT14" s="34" t="str">
-        <f t="shared" ref="BT14:BT20" si="37">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="37">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BU14" s="32"/>
@@ -4762,7 +4837,7 @@
         <v>1.653935185185185E-2</v>
       </c>
       <c r="BZ14" s="34">
-        <f t="shared" ref="BZ14:BZ20" si="38">IF(BX14=0,"NA",BY14-$AC14)</f>
+        <f t="shared" ref="BZ14:BZ22" si="38">IF(BX14=0,"NA",BY14-$AC14)</f>
         <v>1.2812499999999999E-2</v>
       </c>
       <c r="CA14" s="32"/>
@@ -4816,7 +4891,7 @@
       <c r="CY14" s="32"/>
       <c r="CZ14" s="33"/>
       <c r="DA14" s="34" t="str">
-        <f t="shared" ref="DA14:DA20" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
+        <f t="shared" ref="DA14:DA22" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="DB14" s="37"/>
@@ -5039,21 +5114,21 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ15" s="32"/>
-      <c r="CK15" s="83"/>
-      <c r="CL15" s="34" t="str">
+      <c r="CJ15" s="32">
+        <v>1</v>
+      </c>
+      <c r="CK15" s="83">
+        <v>1.0289351851851852E-2</v>
+      </c>
+      <c r="CL15" s="34">
         <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
-      <c r="CM15" s="32">
-        <v>1</v>
-      </c>
-      <c r="CN15" s="83">
-        <v>1.0289351851851852E-2</v>
-      </c>
-      <c r="CO15" s="34">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="CM15" s="32"/>
+      <c r="CN15" s="33"/>
+      <c r="CO15" s="34" t="str">
         <f t="shared" si="19"/>
-        <v>4.409722222222222E-3</v>
+        <v>NA</v>
       </c>
       <c r="CP15" s="32"/>
       <c r="CQ15" s="33"/>
@@ -5144,27 +5219,47 @@
         <v>99</v>
       </c>
       <c r="U16" s="8"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
+      <c r="V16" s="19">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="W16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>3.3217592592592591E-3</v>
+      </c>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
+        <v>4.7905092592592589E-2</v>
+      </c>
+      <c r="AC16" s="20">
+        <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="AD16" s="20">
+        <v>1.3888888888888889E-3</v>
+      </c>
       <c r="AE16" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+        <v>4.1932870370370363E-2</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>70</v>
+      </c>
+      <c r="AG16" s="21">
+        <v>80</v>
+      </c>
       <c r="AH16" s="22"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="31"/>
+      <c r="AI16" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="31">
+        <v>3</v>
+      </c>
       <c r="AK16" s="32"/>
       <c r="AL16" s="35"/>
       <c r="AM16" s="34" t="str">
@@ -5177,11 +5272,15 @@
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="35"/>
-      <c r="AS16" s="34" t="str">
+      <c r="AQ16" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="35">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="AS16" s="34">
         <f t="shared" si="29"/>
-        <v>NA</v>
+        <v>2.5972222222222223E-2</v>
       </c>
       <c r="AT16" s="32"/>
       <c r="AU16" s="35"/>
@@ -5213,11 +5312,15 @@
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI16" s="32"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="34" t="str">
+      <c r="BI16" s="43">
+        <v>12</v>
+      </c>
+      <c r="BJ16" s="90">
+        <v>5.7407407407407416E-3</v>
+      </c>
+      <c r="BK16" s="34">
         <f t="shared" si="34"/>
-        <v>NA</v>
+        <v>1.1574074074074082E-3</v>
       </c>
       <c r="BL16" s="32"/>
       <c r="BM16" s="33"/>
@@ -5243,11 +5346,15 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="32"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="34" t="str">
+      <c r="BX16" s="32">
+        <v>1</v>
+      </c>
+      <c r="BY16" s="69">
+        <v>3.1041666666666665E-2</v>
+      </c>
+      <c r="BZ16" s="34">
         <f t="shared" si="38"/>
-        <v>NA</v>
+        <v>2.6458333333333334E-2</v>
       </c>
       <c r="CA16" s="32"/>
       <c r="CB16" s="33"/>
@@ -5592,38 +5699,60 @@
         <v>145</v>
       </c>
       <c r="U18" s="8"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
+      <c r="V18" s="19">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="W18" s="20">
+        <v>2.225694444444444E-2</v>
+      </c>
+      <c r="X18" s="20">
+        <v>1.6180555555555556E-2</v>
+      </c>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
+        <v>5.6296296296296289E-2</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>4.155092592592593E-3</v>
+      </c>
+      <c r="AD18" s="20">
+        <v>9.2361111111111116E-3</v>
+      </c>
       <c r="AE18" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
+        <v>4.2905092592592585E-2</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>20</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>80</v>
+      </c>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="31"/>
+      <c r="AI18" s="30">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="31">
+        <v>3</v>
+      </c>
       <c r="AK18" s="32"/>
       <c r="AL18" s="35"/>
       <c r="AM18" s="34" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="34" t="str">
+      <c r="AN18" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="35">
+        <v>2.3078703703703702E-2</v>
+      </c>
+      <c r="AP18" s="34">
         <f t="shared" si="28"/>
-        <v>NA</v>
+        <v>1.892361111111111E-2</v>
       </c>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="35"/>
@@ -5643,11 +5772,15 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="32"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="34" t="str">
+      <c r="AZ18" s="32">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="35">
+        <v>1.3321759259259261E-2</v>
+      </c>
+      <c r="BB18" s="34">
         <f t="shared" si="31"/>
-        <v>NA</v>
+        <v>9.1666666666666667E-3</v>
       </c>
       <c r="BC18" s="32"/>
       <c r="BD18" s="35"/>
@@ -5745,11 +5878,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY18" s="32"/>
-      <c r="CZ18" s="35"/>
-      <c r="DA18" s="34" t="str">
+      <c r="CY18" s="32">
+        <v>3</v>
+      </c>
+      <c r="CZ18" s="35">
+        <v>4.2245370370370371E-3</v>
+      </c>
+      <c r="DA18" s="34">
         <f t="shared" si="39"/>
-        <v>NA</v>
+        <v>6.9444444444444024E-5</v>
       </c>
       <c r="DB18" s="37"/>
     </row>
@@ -6040,27 +6177,45 @@
         <v>145</v>
       </c>
       <c r="U20" s="5"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
+      <c r="V20" s="20">
+        <v>2.5983796296296297E-2</v>
+      </c>
+      <c r="W20" s="20">
+        <v>2.6631944444444444E-2</v>
+      </c>
+      <c r="X20" s="20">
+        <v>1.1574074074074075E-2</v>
+      </c>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
+        <v>6.4189814814814811E-2</v>
+      </c>
+      <c r="AC20" s="20">
+        <v>4.4560185185185189E-3</v>
+      </c>
+      <c r="AD20" s="20">
+        <v>1.5046296296296295E-2</v>
+      </c>
       <c r="AE20" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
+        <v>4.4687499999999998E-2</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>80</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>80</v>
+      </c>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
+      <c r="AI20" s="33">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="33">
+        <v>2</v>
+      </c>
       <c r="AK20" s="33"/>
       <c r="AL20" s="35"/>
       <c r="AM20" s="69" t="str">
@@ -6091,11 +6246,15 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="35"/>
-      <c r="BB20" s="69" t="str">
+      <c r="AZ20" s="33">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="35">
+        <v>3.050925925925926E-2</v>
+      </c>
+      <c r="BB20" s="69">
         <f t="shared" si="31"/>
-        <v>NA</v>
+        <v>2.6053240740740741E-2</v>
       </c>
       <c r="BC20" s="33"/>
       <c r="BD20" s="35"/>
@@ -6193,11 +6352,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY20" s="33"/>
-      <c r="CZ20" s="35"/>
-      <c r="DA20" s="69" t="str">
+      <c r="CY20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CZ20" s="35">
+        <v>3.3784722222222223E-2</v>
+      </c>
+      <c r="DA20" s="69">
         <f t="shared" si="39"/>
-        <v>NA</v>
+        <v>2.9328703703703704E-2</v>
       </c>
       <c r="DB20" s="33"/>
     </row>
@@ -6264,96 +6427,199 @@
         <v>145</v>
       </c>
       <c r="U21" s="65"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
+      <c r="V21" s="66">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="W21" s="66">
+        <v>2.6377314814814815E-2</v>
+      </c>
+      <c r="X21" s="66">
+        <v>2.3043981481481481E-2</v>
+      </c>
       <c r="Y21" s="66"/>
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
+        <v>4.9618055555555554E-2</v>
+      </c>
+      <c r="AC21" s="91">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="AD21" s="91">
+        <v>2.3148148148148146E-4</v>
+      </c>
       <c r="AE21" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
+        <v>4.5023148148148152E-2</v>
+      </c>
+      <c r="AF21" s="67">
+        <v>80</v>
+      </c>
+      <c r="AG21" s="67">
+        <v>75</v>
+      </c>
       <c r="AH21" s="67"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
+      <c r="AI21" s="68">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="68">
+        <v>4</v>
+      </c>
       <c r="AK21" s="68"/>
       <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
+      <c r="AM21" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>NA</v>
+      </c>
       <c r="AN21" s="68"/>
       <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
+      <c r="AP21" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>NA</v>
+      </c>
       <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
+      <c r="AS21" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>NA</v>
+      </c>
       <c r="AT21" s="68"/>
       <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
+      <c r="AV21" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>NA</v>
+      </c>
       <c r="AW21" s="68"/>
       <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
+      <c r="AY21" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="AZ21" s="68">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="92">
+        <v>5.4398148148148149E-3</v>
+      </c>
+      <c r="BB21" s="69">
+        <f t="shared" si="31"/>
+        <v>1.0763888888888889E-3</v>
+      </c>
       <c r="BC21" s="68"/>
       <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
+      <c r="BE21" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>NA</v>
+      </c>
       <c r="BF21" s="68"/>
       <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
+      <c r="BH21" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="BI21" s="68">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="93">
+        <v>1.1743055555555555</v>
+      </c>
+      <c r="BK21" s="69">
+        <f t="shared" si="34"/>
+        <v>1.1699421296296295</v>
+      </c>
       <c r="BL21" s="68"/>
       <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
+      <c r="BN21" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
       <c r="BO21" s="68"/>
       <c r="BP21" s="68"/>
-      <c r="BQ21" s="68"/>
+      <c r="BQ21" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
       <c r="BR21" s="68"/>
       <c r="BS21" s="68"/>
-      <c r="BT21" s="68"/>
+      <c r="BT21" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
       <c r="BU21" s="68"/>
       <c r="BV21" s="68"/>
-      <c r="BW21" s="68"/>
+      <c r="BW21" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
       <c r="BX21" s="68"/>
       <c r="BY21" s="68"/>
-      <c r="BZ21" s="68"/>
+      <c r="BZ21" s="69" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
       <c r="CA21" s="68"/>
       <c r="CB21" s="68"/>
-      <c r="CC21" s="68"/>
-      <c r="CD21" s="87"/>
-      <c r="CE21" s="68"/>
-      <c r="CF21" s="68"/>
+      <c r="CC21" s="69" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD21" s="87">
+        <v>1</v>
+      </c>
+      <c r="CE21" s="92">
+        <v>2.2418981481481481E-2</v>
+      </c>
+      <c r="CF21" s="69">
+        <f t="shared" si="16"/>
+        <v>1.8055555555555554E-2</v>
+      </c>
       <c r="CG21" s="68"/>
       <c r="CH21" s="68"/>
-      <c r="CI21" s="68"/>
+      <c r="CI21" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
       <c r="CJ21" s="68"/>
       <c r="CK21" s="68"/>
-      <c r="CL21" s="68"/>
+      <c r="CL21" s="69" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
       <c r="CM21" s="68"/>
       <c r="CN21" s="68"/>
-      <c r="CO21" s="68"/>
+      <c r="CO21" s="69" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
       <c r="CP21" s="68"/>
       <c r="CQ21" s="68"/>
-      <c r="CR21" s="68"/>
+      <c r="CR21" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
       <c r="CS21" s="68"/>
       <c r="CT21" s="68"/>
-      <c r="CU21" s="68"/>
+      <c r="CU21" s="69" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
       <c r="CV21" s="68"/>
       <c r="CW21" s="68"/>
-      <c r="CX21" s="68"/>
-      <c r="CY21" s="68"/>
-      <c r="CZ21" s="68"/>
-      <c r="DA21" s="68"/>
+      <c r="CX21" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY21" s="68">
+        <v>1</v>
+      </c>
+      <c r="CZ21" s="93">
+        <v>1.4541666666666666</v>
+      </c>
+      <c r="DA21" s="69">
+        <f t="shared" si="39"/>
+        <v>1.4498032407407406</v>
+      </c>
       <c r="DB21" s="68"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.35">
@@ -6419,96 +6685,205 @@
         <v>145</v>
       </c>
       <c r="U22" s="65"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
+      <c r="V22" s="66">
+        <v>2.8020833333333332E-2</v>
+      </c>
+      <c r="W22" s="66">
+        <v>2.3090277777777779E-2</v>
+      </c>
       <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
       <c r="AB22" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
+        <v>5.1111111111111107E-2</v>
+      </c>
+      <c r="AC22" s="91">
+        <v>3.645833333333333E-3</v>
+      </c>
+      <c r="AD22" s="91">
+        <v>6.4004629629629628E-3</v>
+      </c>
       <c r="AE22" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
+        <v>4.1064814814814811E-2</v>
+      </c>
+      <c r="AF22" s="67">
+        <v>80</v>
+      </c>
+      <c r="AG22" s="67">
+        <v>95</v>
+      </c>
       <c r="AH22" s="67"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="68"/>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
+      <c r="AI22" s="68">
+        <v>9</v>
+      </c>
+      <c r="AJ22" s="68">
+        <v>6</v>
+      </c>
+      <c r="AK22" s="68">
+        <v>6</v>
+      </c>
+      <c r="AL22" s="92">
+        <v>3.8541666666666668E-3</v>
+      </c>
+      <c r="AM22" s="69">
+        <f t="shared" si="27"/>
+        <v>2.0833333333333381E-4</v>
+      </c>
+      <c r="AN22" s="68">
+        <v>3</v>
+      </c>
+      <c r="AO22" s="92">
+        <v>3.7384259259259263E-3</v>
+      </c>
+      <c r="AP22" s="69">
+        <f t="shared" si="28"/>
+        <v>9.2592592592593333E-5</v>
+      </c>
       <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
+      <c r="AS22" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>NA</v>
+      </c>
       <c r="AT22" s="68"/>
       <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
+      <c r="AV22" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>NA</v>
+      </c>
       <c r="AW22" s="68"/>
       <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
+      <c r="AY22" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>NA</v>
+      </c>
+      <c r="AZ22" s="68">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="92">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="BB22" s="69">
+        <f t="shared" si="31"/>
+        <v>1.3715277777777779E-2</v>
+      </c>
       <c r="BC22" s="68"/>
       <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
+      <c r="BE22" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>NA</v>
+      </c>
       <c r="BF22" s="68"/>
       <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
+      <c r="BH22" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>NA</v>
+      </c>
+      <c r="BI22" s="68">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="92">
+        <v>2.732638888888889E-2</v>
+      </c>
+      <c r="BK22" s="69">
+        <f t="shared" si="34"/>
+        <v>2.3680555555555555E-2</v>
+      </c>
       <c r="BL22" s="68"/>
       <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
+      <c r="BN22" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>NA</v>
+      </c>
       <c r="BO22" s="68"/>
       <c r="BP22" s="68"/>
-      <c r="BQ22" s="68"/>
+      <c r="BQ22" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
       <c r="BR22" s="68"/>
       <c r="BS22" s="68"/>
-      <c r="BT22" s="68"/>
+      <c r="BT22" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
       <c r="BU22" s="68"/>
       <c r="BV22" s="68"/>
-      <c r="BW22" s="68"/>
+      <c r="BW22" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v>NA</v>
+      </c>
       <c r="BX22" s="68"/>
       <c r="BY22" s="68"/>
-      <c r="BZ22" s="68"/>
+      <c r="BZ22" s="69" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
       <c r="CA22" s="68"/>
       <c r="CB22" s="68"/>
-      <c r="CC22" s="68"/>
+      <c r="CC22" s="69" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
       <c r="CD22" s="87"/>
       <c r="CE22" s="68"/>
-      <c r="CF22" s="68"/>
+      <c r="CF22" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
       <c r="CG22" s="68"/>
       <c r="CH22" s="68"/>
-      <c r="CI22" s="68"/>
+      <c r="CI22" s="69" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
       <c r="CJ22" s="68"/>
       <c r="CK22" s="68"/>
-      <c r="CL22" s="68"/>
+      <c r="CL22" s="69" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
       <c r="CM22" s="68"/>
       <c r="CN22" s="68"/>
-      <c r="CO22" s="68"/>
+      <c r="CO22" s="69" t="str">
+        <f t="shared" si="19"/>
+        <v>NA</v>
+      </c>
       <c r="CP22" s="68"/>
       <c r="CQ22" s="68"/>
-      <c r="CR22" s="68"/>
+      <c r="CR22" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
       <c r="CS22" s="68"/>
       <c r="CT22" s="68"/>
-      <c r="CU22" s="68"/>
-      <c r="CV22" s="68"/>
-      <c r="CW22" s="68"/>
-      <c r="CX22" s="68"/>
-      <c r="CY22" s="68"/>
-      <c r="CZ22" s="68"/>
-      <c r="DA22" s="68"/>
+      <c r="CU22" s="69" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV22" s="68">
+        <v>1</v>
+      </c>
+      <c r="CW22" s="92">
+        <v>7.789351851851852E-3</v>
+      </c>
+      <c r="CX22" s="69">
+        <f t="shared" si="22"/>
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="CY22" s="68">
+        <v>2</v>
+      </c>
+      <c r="CZ22" s="92">
+        <v>2.3541666666666666E-2</v>
+      </c>
+      <c r="DA22" s="69">
+        <f t="shared" si="39"/>
+        <v>1.9895833333333331E-2</v>
+      </c>
       <c r="DB22" s="68"/>
     </row>
   </sheetData>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9D50B-A1DE-47F7-8D44-61FF91822E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2213C05F-5E89-4695-BE8B-0FD0EFC49094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4910" yWindow="-60" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="202">
   <si>
     <t>DATE</t>
   </si>
@@ -230,21 +230,9 @@
     <t>T1_FISHH</t>
   </si>
   <si>
-    <t>MAXN_FISHI</t>
-  </si>
-  <si>
-    <t>TIME_1STFISHI</t>
-  </si>
-  <si>
-    <t>T1_FISHI</t>
-  </si>
-  <si>
     <t>MAXN_FISHJ</t>
   </si>
   <si>
-    <t>TIME_1STFISHJ</t>
-  </si>
-  <si>
     <t>T1_FISHJ</t>
   </si>
   <si>
@@ -629,15 +617,6 @@
     <t>T1_BFLY1</t>
   </si>
   <si>
-    <t>MAXN_BFLY2</t>
-  </si>
-  <si>
-    <t>TIME_1STBFLY2</t>
-  </si>
-  <si>
-    <t>T1_BFLY2</t>
-  </si>
-  <si>
     <t>MAXN_FISHN</t>
   </si>
   <si>
@@ -657,6 +636,9 @@
   </si>
   <si>
     <t>T1_VERTFISH</t>
+  </si>
+  <si>
+    <t>TIME_FISHJ</t>
   </si>
 </sst>
 </file>
@@ -1304,13 +1286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DB22"/>
+  <dimension ref="A1:CV22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
+      <selection pane="bottomRight" activeCell="BS10" sqref="BS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1330,15 +1312,15 @@
     <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.7265625" style="88"/>
-    <col min="84" max="84" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.7265625" style="88"/>
+    <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1412,13 +1394,13 @@
         <v>15</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB1" s="16" t="s">
         <v>4</v>
@@ -1454,7 +1436,7 @@
         <v>49</v>
       </c>
       <c r="AM1" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>55</v>
@@ -1484,13 +1466,13 @@
         <v>54</v>
       </c>
       <c r="AW1" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AX1" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AY1" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>36</v>
@@ -1547,126 +1529,108 @@
         <v>64</v>
       </c>
       <c r="BR1" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS1" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT1" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="BU1" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="BV1" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="BW1" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX1" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="BY1" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="BZ1" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="CA1" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB1" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC1" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE1" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="CF1" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="CG1" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH1" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI1" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ1" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL1" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="CM1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="BS1" s="28" t="s">
+      <c r="CN1" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="CO1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="BT1" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY1" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="BZ1" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="CA1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="CB1" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC1" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="CD1" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE1" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="CF1" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="CG1" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="CH1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="CI1" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="CJ1" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="CK1" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="CL1" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="CM1" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="CN1" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="CO1" s="72" t="s">
-        <v>194</v>
-      </c>
       <c r="CP1" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="CQ1" s="28" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="CR1" s="72" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="CS1" s="27" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="CT1" s="28" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="CU1" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="CV1" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="CW1" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="CX1" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="CY1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="CZ1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="DA1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="DB1" s="29" t="s">
+      <c r="CV1" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
@@ -1685,7 +1649,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J2" s="7">
         <f>VLOOKUP(E2,LATLON!$A$2:$C$19,2)</f>
@@ -1702,23 +1666,23 @@
         <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O2" s="5">
         <v>3</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S2" s="5">
         <v>0.23</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="19">
@@ -1746,7 +1710,7 @@
         <v>3.9837962962962964E-2</v>
       </c>
       <c r="AF2" s="21">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="21">
         <v>85</v>
@@ -1828,11 +1792,15 @@
         <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="34" t="str">
+      <c r="BR2" s="71">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="89">
+        <v>1.2037037037037035E-2</v>
+      </c>
+      <c r="BT2" s="34">
         <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
-        <v>NA</v>
+        <v>8.2291666666666641E-3</v>
       </c>
       <c r="BU2" s="71"/>
       <c r="BV2" s="70"/>
@@ -1840,37 +1808,33 @@
         <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="BX2" s="71">
+      <c r="BX2" s="86"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="34" t="str">
+        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CA2" s="71">
         <v>1</v>
       </c>
-      <c r="BY2" s="89">
-        <v>1.2037037037037035E-2</v>
-      </c>
-      <c r="BZ2" s="34">
-        <f t="shared" ref="BZ2:BZ13" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>8.2291666666666641E-3</v>
-      </c>
-      <c r="CA2" s="71"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="34" t="str">
+      <c r="CB2" s="84">
+        <v>1.8553240740740742E-2</v>
+      </c>
+      <c r="CC2" s="34">
         <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CD2" s="86"/>
-      <c r="CE2" s="69"/>
+        <v>1.474537037037037E-2</v>
+      </c>
+      <c r="CD2" s="71"/>
+      <c r="CE2" s="84"/>
       <c r="CF2" s="34" t="str">
         <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CG2" s="71">
-        <v>1</v>
-      </c>
-      <c r="CH2" s="84">
-        <v>1.8553240740740742E-2</v>
-      </c>
-      <c r="CI2" s="34">
+      <c r="CG2" s="71"/>
+      <c r="CH2" s="84"/>
+      <c r="CI2" s="34" t="str">
         <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
-        <v>1.474537037037037E-2</v>
+        <v>NA</v>
       </c>
       <c r="CJ2" s="71"/>
       <c r="CK2" s="84"/>
@@ -1890,58 +1854,46 @@
         <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="84"/>
-      <c r="CU2" s="34" t="str">
-        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV2" s="71"/>
-      <c r="CW2" s="84"/>
-      <c r="CX2" s="34" t="str">
-        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CY2" s="71">
+      <c r="CS2" s="71">
         <v>3</v>
       </c>
-      <c r="CZ2" s="84">
+      <c r="CT2" s="84">
         <v>4.1319444444444442E-3</v>
       </c>
-      <c r="DA2" s="34">
-        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+      <c r="CU2" s="34">
+        <f t="shared" ref="CU2:CU13" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
         <v>3.2407407407407341E-4</v>
       </c>
-      <c r="DB2" s="37"/>
+      <c r="CV2" s="37"/>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="22">C3&amp;""&amp;D3</f>
         <v>D3</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H3" s="6">
         <v>0.62361111111111112</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J3" s="7">
         <v>-5.1189571000000003</v>
@@ -1956,26 +1908,26 @@
         <v>31</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O3" s="5">
         <v>6</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S3" s="5">
         <v>0.22</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V3" s="19">
         <v>1.7569444444444447E-2</v>
@@ -1996,7 +1948,7 @@
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="25">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="23">SUM(V3:AA3)</f>
         <v>7.8148148148148147E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2100,8 +2052,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="32"/>
-      <c r="BY3" s="33"/>
+      <c r="BX3" s="86"/>
+      <c r="BY3" s="69"/>
       <c r="BZ3" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2112,8 +2064,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD3" s="86"/>
-      <c r="CE3" s="69"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="33"/>
       <c r="CF3" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -2148,35 +2100,23 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="32"/>
-      <c r="CW3" s="33"/>
-      <c r="CX3" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY3" s="32"/>
-      <c r="CZ3" s="33"/>
-      <c r="DA3" s="34" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB3" s="37"/>
+      <c r="CV3" s="37"/>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L2</v>
       </c>
       <c r="F4" s="5">
@@ -2203,26 +2143,26 @@
         <v>50</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O4" s="5">
         <v>3</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S4" s="5">
         <v>0.2</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="19">
@@ -2238,7 +2178,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>6.0902777777777778E-2</v>
       </c>
       <c r="AC4" s="20">
@@ -2252,7 +2192,7 @@
         <v>4.0520833333333339E-2</v>
       </c>
       <c r="AF4" s="21">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="21">
         <v>80</v>
@@ -2354,20 +2294,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="33"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="69"/>
       <c r="BZ4" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA4" s="32"/>
-      <c r="CB4" s="33"/>
+      <c r="CB4" s="35"/>
       <c r="CC4" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD4" s="86"/>
-      <c r="CE4" s="69"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="35"/>
       <c r="CF4" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -2396,45 +2336,33 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="34" t="str">
+      <c r="CS4" s="32">
+        <v>6</v>
+      </c>
+      <c r="CT4" s="35">
+        <v>3.7731481481481483E-3</v>
+      </c>
+      <c r="CU4" s="34">
         <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY4" s="32">
-        <v>6</v>
-      </c>
-      <c r="CZ4" s="35">
-        <v>3.7731481481481483E-3</v>
-      </c>
-      <c r="DA4" s="34">
-        <f t="shared" si="23"/>
         <v>1.1574074074074091E-4</v>
       </c>
-      <c r="DB4" s="37"/>
+      <c r="CV4" s="37"/>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L1</v>
       </c>
       <c r="F5" s="5">
@@ -2464,26 +2392,26 @@
         <v>40</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O5" s="5">
         <v>3</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S5" s="5">
         <v>0.2</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="V5" s="19"/>
       <c r="W5" s="20"/>
@@ -2492,7 +2420,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC5" s="20"/>
@@ -2584,8 +2512,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="33"/>
+      <c r="BX5" s="86"/>
+      <c r="BY5" s="69"/>
       <c r="BZ5" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2596,8 +2524,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD5" s="86"/>
-      <c r="CE5" s="69"/>
+      <c r="CD5" s="32"/>
+      <c r="CE5" s="33"/>
       <c r="CF5" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -2632,35 +2560,23 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="32"/>
-      <c r="CW5" s="33"/>
-      <c r="CX5" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY5" s="32"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="34" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB5" s="37"/>
+      <c r="CV5" s="37"/>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>D1</v>
       </c>
       <c r="F6" s="5">
@@ -2687,29 +2603,29 @@
         <v>55</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O6" s="5">
         <v>3</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S6" s="5">
         <v>0.2</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="V6" s="19"/>
       <c r="W6" s="20"/>
@@ -2718,7 +2634,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC6" s="20"/>
@@ -2810,8 +2726,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX6" s="32"/>
-      <c r="BY6" s="33"/>
+      <c r="BX6" s="86"/>
+      <c r="BY6" s="69"/>
       <c r="BZ6" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -2822,8 +2738,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="86"/>
-      <c r="CE6" s="69"/>
+      <c r="CD6" s="32"/>
+      <c r="CE6" s="33"/>
       <c r="CF6" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -2858,35 +2774,23 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="32"/>
-      <c r="CW6" s="33"/>
-      <c r="CX6" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY6" s="32"/>
-      <c r="CZ6" s="33"/>
-      <c r="DA6" s="34" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB6" s="37"/>
+      <c r="CV6" s="37"/>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L3</v>
       </c>
       <c r="F7" s="5">
@@ -2913,29 +2817,29 @@
         <v>42</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O7" s="5">
         <v>3</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S7" s="5">
         <v>0.17</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="V7" s="19"/>
       <c r="W7" s="20"/>
@@ -2944,7 +2848,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC7" s="20"/>
@@ -3036,8 +2940,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="32"/>
-      <c r="BY7" s="33"/>
+      <c r="BX7" s="86"/>
+      <c r="BY7" s="69"/>
       <c r="BZ7" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3048,8 +2952,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD7" s="86"/>
-      <c r="CE7" s="69"/>
+      <c r="CD7" s="32"/>
+      <c r="CE7" s="33"/>
       <c r="CF7" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3084,35 +2988,23 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="32"/>
-      <c r="CW7" s="33"/>
-      <c r="CX7" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY7" s="32"/>
-      <c r="CZ7" s="33"/>
-      <c r="DA7" s="34" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB7" s="37"/>
+      <c r="CV7" s="37"/>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L3</v>
       </c>
       <c r="F8" s="5">
@@ -3142,26 +3034,26 @@
         <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O8" s="5">
         <v>2</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S8" s="5">
         <v>0.19</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="V8" s="19">
         <v>3.2546296296296295E-2</v>
@@ -3174,7 +3066,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.3020833333333336E-2</v>
       </c>
       <c r="AC8" s="20">
@@ -3188,7 +3080,7 @@
         <v>4.2141203703703708E-2</v>
       </c>
       <c r="AF8" s="21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG8" s="21">
         <v>85</v>
@@ -3282,8 +3174,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="32"/>
-      <c r="BY8" s="33"/>
+      <c r="BX8" s="86"/>
+      <c r="BY8" s="69"/>
       <c r="BZ8" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3294,8 +3186,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD8" s="86"/>
-      <c r="CE8" s="69"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="33"/>
       <c r="CF8" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3319,50 +3211,38 @@
         <v>NA</v>
       </c>
       <c r="CP8" s="32"/>
-      <c r="CQ8" s="33"/>
+      <c r="CQ8" s="83"/>
       <c r="CR8" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS8" s="32"/>
-      <c r="CT8" s="33"/>
-      <c r="CU8" s="34" t="str">
+      <c r="CS8" s="32">
+        <v>5</v>
+      </c>
+      <c r="CT8" s="83">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="CU8" s="34">
         <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV8" s="32"/>
-      <c r="CW8" s="83"/>
-      <c r="CX8" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY8" s="32">
-        <v>5</v>
-      </c>
-      <c r="CZ8" s="83">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="DA8" s="34">
-        <f t="shared" si="23"/>
         <v>0.25300925925925927</v>
       </c>
-      <c r="DB8" s="37"/>
+      <c r="CV8" s="37"/>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>D1</v>
       </c>
       <c r="F9" s="5">
@@ -3392,26 +3272,26 @@
         <v>61</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O9" s="5">
         <v>3</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S9" s="5">
         <v>0.19</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="V9" s="19">
         <v>1.982638888888889E-2</v>
@@ -3426,7 +3306,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.5902777777777778E-2</v>
       </c>
       <c r="AC9" s="20">
@@ -3438,7 +3318,7 @@
         <v>4.2118055555555554E-2</v>
       </c>
       <c r="AF9" s="21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG9" s="21">
         <v>85</v>
@@ -3536,8 +3416,8 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="33"/>
+      <c r="BX9" s="86"/>
+      <c r="BY9" s="69"/>
       <c r="BZ9" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
@@ -3548,8 +3428,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="86"/>
-      <c r="CE9" s="69"/>
+      <c r="CD9" s="32"/>
+      <c r="CE9" s="33"/>
       <c r="CF9" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3573,57 +3453,45 @@
         <v>NA</v>
       </c>
       <c r="CP9" s="32"/>
-      <c r="CQ9" s="33"/>
+      <c r="CQ9" s="69"/>
       <c r="CR9" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS9" s="32"/>
-      <c r="CT9" s="33"/>
-      <c r="CU9" s="34" t="str">
+      <c r="CS9" s="32">
+        <v>2</v>
+      </c>
+      <c r="CT9" s="69">
+        <v>2.193287037037037E-2</v>
+      </c>
+      <c r="CU9" s="34">
         <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV9" s="32"/>
-      <c r="CW9" s="69"/>
-      <c r="CX9" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY9" s="32">
-        <v>2</v>
-      </c>
-      <c r="CZ9" s="69">
-        <v>2.193287037037037E-2</v>
-      </c>
-      <c r="DA9" s="34">
-        <f t="shared" si="23"/>
         <v>1.8148148148148149E-2</v>
       </c>
-      <c r="DB9" s="37"/>
+      <c r="CV9" s="37"/>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L1</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H10" s="6">
         <v>0.5395833333333333</v>
@@ -3646,26 +3514,26 @@
         <v>55</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O10" s="5">
         <v>5</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S10" s="5">
         <v>0.19</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="V10" s="19">
         <v>8.7962962962962962E-4</v>
@@ -3684,7 +3552,7 @@
       </c>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.2268518518518513E-2</v>
       </c>
       <c r="AC10" s="20">
@@ -3698,7 +3566,7 @@
         <v>4.2615740740740739E-2</v>
       </c>
       <c r="AF10" s="21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG10" s="21">
         <v>40</v>
@@ -3796,20 +3664,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="32"/>
-      <c r="BY10" s="33"/>
+      <c r="BX10" s="86"/>
+      <c r="BY10" s="69"/>
       <c r="BZ10" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA10" s="32"/>
-      <c r="CB10" s="33"/>
+      <c r="CB10" s="35"/>
       <c r="CC10" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD10" s="86"/>
-      <c r="CE10" s="69"/>
+      <c r="CD10" s="32"/>
+      <c r="CE10" s="35"/>
       <c r="CF10" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -3838,45 +3706,33 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS10" s="32"/>
-      <c r="CT10" s="35"/>
-      <c r="CU10" s="34" t="str">
+      <c r="CS10" s="32">
+        <v>2</v>
+      </c>
+      <c r="CT10" s="35">
+        <v>6.8402777777777776E-3</v>
+      </c>
+      <c r="CU10" s="34">
         <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV10" s="32"/>
-      <c r="CW10" s="35"/>
-      <c r="CX10" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY10" s="32">
-        <v>2</v>
-      </c>
-      <c r="CZ10" s="35">
-        <v>6.8402777777777776E-3</v>
-      </c>
-      <c r="DA10" s="34">
-        <f t="shared" si="23"/>
         <v>2.1990740740740738E-3</v>
       </c>
-      <c r="DB10" s="37"/>
+      <c r="CV10" s="37"/>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>E2</v>
       </c>
       <c r="F11" s="5">
@@ -3906,23 +3762,23 @@
         <v>68</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O11" s="5">
         <v>2</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S11" s="5">
         <v>0.19</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="19">
@@ -3936,7 +3792,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.1307870370370365E-2</v>
       </c>
       <c r="AC11" s="20">
@@ -3950,7 +3806,7 @@
         <v>4.7256944444444442E-2</v>
       </c>
       <c r="AF11" s="21">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG11" s="21">
         <v>80</v>
@@ -4064,33 +3920,37 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="32"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="34" t="str">
+      <c r="BX11" s="86">
+        <v>2</v>
+      </c>
+      <c r="BY11" s="69">
+        <v>2.929398148148148E-2</v>
+      </c>
+      <c r="BZ11" s="34">
         <f t="shared" si="14"/>
-        <v>NA</v>
+        <v>2.5752314814814815E-2</v>
       </c>
       <c r="CA11" s="32"/>
-      <c r="CB11" s="33"/>
+      <c r="CB11" s="35"/>
       <c r="CC11" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD11" s="86">
-        <v>2</v>
-      </c>
-      <c r="CE11" s="69">
-        <v>2.929398148148148E-2</v>
-      </c>
-      <c r="CF11" s="34">
+      <c r="CD11" s="32"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="34" t="str">
         <f t="shared" si="16"/>
-        <v>2.5752314814814815E-2</v>
-      </c>
-      <c r="CG11" s="32"/>
-      <c r="CH11" s="35"/>
-      <c r="CI11" s="34" t="str">
+        <v>NA</v>
+      </c>
+      <c r="CG11" s="32">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="35">
+        <v>4.9178240740740738E-2</v>
+      </c>
+      <c r="CI11" s="34">
         <f t="shared" si="17"/>
-        <v>NA</v>
+        <v>4.5636574074074072E-2</v>
       </c>
       <c r="CJ11" s="32"/>
       <c r="CK11" s="35"/>
@@ -4098,15 +3958,11 @@
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM11" s="32">
-        <v>1</v>
-      </c>
-      <c r="CN11" s="35">
-        <v>4.9178240740740738E-2</v>
-      </c>
-      <c r="CO11" s="34">
+      <c r="CM11" s="32"/>
+      <c r="CN11" s="35"/>
+      <c r="CO11" s="34" t="str">
         <f t="shared" si="19"/>
-        <v>4.5636574074074072E-2</v>
+        <v>NA</v>
       </c>
       <c r="CP11" s="32"/>
       <c r="CQ11" s="35"/>
@@ -4114,45 +3970,33 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="32"/>
-      <c r="CT11" s="35"/>
-      <c r="CU11" s="34" t="str">
+      <c r="CS11" s="32">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="35">
+        <v>4.2245370370370371E-3</v>
+      </c>
+      <c r="CU11" s="34">
         <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV11" s="32"/>
-      <c r="CW11" s="35"/>
-      <c r="CX11" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY11" s="32">
-        <v>1</v>
-      </c>
-      <c r="CZ11" s="35">
-        <v>4.2245370370370371E-3</v>
-      </c>
-      <c r="DA11" s="34">
-        <f t="shared" si="23"/>
         <v>6.8287037037037058E-4</v>
       </c>
-      <c r="DB11" s="37"/>
+      <c r="CV11" s="37"/>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>E3</v>
       </c>
       <c r="F12" s="5">
@@ -4182,23 +4026,23 @@
         <v>59</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O12" s="5">
         <v>3</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S12" s="5">
         <v>0.22</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="19">
@@ -4214,7 +4058,7 @@
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.9548611111111106E-2</v>
       </c>
       <c r="AC12" s="20">
@@ -4228,7 +4072,7 @@
         <v>4.0069444444444442E-2</v>
       </c>
       <c r="AF12" s="21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG12" s="21">
         <v>30</v>
@@ -4318,20 +4162,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="32"/>
-      <c r="BY12" s="33"/>
+      <c r="BX12" s="86"/>
+      <c r="BY12" s="69"/>
       <c r="BZ12" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA12" s="32"/>
-      <c r="CB12" s="33"/>
+      <c r="CB12" s="83"/>
       <c r="CC12" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD12" s="86"/>
-      <c r="CE12" s="69"/>
+      <c r="CD12" s="32"/>
+      <c r="CE12" s="83"/>
       <c r="CF12" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -4360,45 +4204,33 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS12" s="32"/>
-      <c r="CT12" s="83"/>
-      <c r="CU12" s="34" t="str">
+      <c r="CS12" s="32">
+        <v>5</v>
+      </c>
+      <c r="CT12" s="83">
+        <v>1.2997685185185183E-2</v>
+      </c>
+      <c r="CU12" s="34">
         <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV12" s="32"/>
-      <c r="CW12" s="83"/>
-      <c r="CX12" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY12" s="32">
-        <v>5</v>
-      </c>
-      <c r="CZ12" s="83">
-        <v>1.2997685185185183E-2</v>
-      </c>
-      <c r="DA12" s="34">
-        <f t="shared" si="23"/>
         <v>9.2939814814814795E-3</v>
       </c>
-      <c r="DB12" s="37"/>
+      <c r="CV12" s="37"/>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>E1</v>
       </c>
       <c r="F13" s="5">
@@ -4428,23 +4260,23 @@
         <v>98</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O13" s="5">
         <v>2</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S13" s="5">
         <v>0.22</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="19">
@@ -4458,7 +4290,7 @@
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.5509259259259258E-2</v>
       </c>
       <c r="AC13" s="20">
@@ -4472,7 +4304,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF13" s="21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG13" s="21">
         <v>30</v>
@@ -4558,11 +4390,15 @@
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="32"/>
-      <c r="BS13" s="33"/>
-      <c r="BT13" s="34" t="str">
+      <c r="BR13" s="32">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="35">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="BT13" s="34">
         <f t="shared" si="12"/>
-        <v>NA</v>
+        <v>2.5347222222222221E-3</v>
       </c>
       <c r="BU13" s="32"/>
       <c r="BV13" s="33"/>
@@ -4570,15 +4406,11 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="32">
-        <v>1</v>
-      </c>
-      <c r="BY13" s="35">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="BZ13" s="34">
+      <c r="BX13" s="86"/>
+      <c r="BY13" s="69"/>
+      <c r="BZ13" s="34" t="str">
         <f t="shared" si="14"/>
-        <v>2.5347222222222221E-3</v>
+        <v>NA</v>
       </c>
       <c r="CA13" s="32"/>
       <c r="CB13" s="33"/>
@@ -4586,8 +4418,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD13" s="86"/>
-      <c r="CE13" s="69"/>
+      <c r="CD13" s="32"/>
+      <c r="CE13" s="33"/>
       <c r="CF13" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -4598,67 +4430,55 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ13" s="32"/>
-      <c r="CK13" s="33"/>
-      <c r="CL13" s="34" t="str">
+      <c r="CJ13" s="32">
+        <v>1</v>
+      </c>
+      <c r="CK13" s="35">
+        <v>2.326388888888889E-2</v>
+      </c>
+      <c r="CL13" s="34">
         <f t="shared" si="18"/>
-        <v>NA</v>
-      </c>
-      <c r="CM13" s="32"/>
-      <c r="CN13" s="33"/>
-      <c r="CO13" s="34" t="str">
+        <v>1.8854166666666668E-2</v>
+      </c>
+      <c r="CM13" s="32">
+        <v>2</v>
+      </c>
+      <c r="CN13" s="35">
+        <v>3.3321759259259259E-2</v>
+      </c>
+      <c r="CO13" s="34">
         <f t="shared" si="19"/>
-        <v>NA</v>
-      </c>
-      <c r="CP13" s="32">
-        <v>1</v>
-      </c>
-      <c r="CQ13" s="35">
-        <v>2.326388888888889E-2</v>
-      </c>
-      <c r="CR13" s="34">
+        <v>2.8912037037037038E-2</v>
+      </c>
+      <c r="CP13" s="32"/>
+      <c r="CQ13" s="33"/>
+      <c r="CR13" s="34" t="str">
         <f t="shared" si="20"/>
-        <v>1.8854166666666668E-2</v>
-      </c>
-      <c r="CS13" s="32">
-        <v>2</v>
-      </c>
-      <c r="CT13" s="35">
-        <v>3.3321759259259259E-2</v>
-      </c>
-      <c r="CU13" s="34">
+        <v>NA</v>
+      </c>
+      <c r="CS13" s="32"/>
+      <c r="CT13" s="33"/>
+      <c r="CU13" s="34" t="str">
         <f t="shared" si="21"/>
-        <v>2.8912037037037038E-2</v>
-      </c>
-      <c r="CV13" s="32"/>
-      <c r="CW13" s="33"/>
-      <c r="CX13" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY13" s="32"/>
-      <c r="CZ13" s="33"/>
-      <c r="DA13" s="34" t="str">
-        <f t="shared" si="23"/>
-        <v>NA</v>
-      </c>
-      <c r="DB13" s="37"/>
+        <v>NA</v>
+      </c>
+      <c r="CV13" s="37"/>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D14" s="5">
         <v>4</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>E4</v>
       </c>
       <c r="F14" s="5">
@@ -4688,23 +4508,23 @@
         <v>39</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O14" s="5">
         <v>4</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S14" s="5">
         <v>0.18</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="19">
@@ -4722,7 +4542,7 @@
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>6.1759259259259257E-2</v>
       </c>
       <c r="AC14" s="20">
@@ -4732,11 +4552,11 @@
         <v>1.5127314814814816E-2</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="26">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE22" si="24">AB14-AC14-AD14</f>
         <v>4.2905092592592592E-2</v>
       </c>
       <c r="AF14" s="21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG14" s="21">
         <v>80</v>
@@ -4751,25 +4571,25 @@
       <c r="AK14" s="32"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="34" t="str">
-        <f t="shared" ref="AM14:AM22" si="27">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="25">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="34" t="str">
-        <f t="shared" ref="AP14:AP22" si="28">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="26">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="33"/>
       <c r="AS14" s="34" t="str">
-        <f t="shared" ref="AS14:AS22" si="29">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="27">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="33"/>
       <c r="AU14" s="33"/>
       <c r="AV14" s="34" t="str">
-        <f t="shared" ref="AV14:AV22" si="30">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="28">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="32"/>
@@ -4781,19 +4601,19 @@
       <c r="AZ14" s="32"/>
       <c r="BA14" s="35"/>
       <c r="BB14" s="34" t="str">
-        <f t="shared" ref="BB14:BB22" si="31">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB22" si="29">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="32"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="34" t="str">
-        <f t="shared" ref="BE14:BE22" si="32">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="30">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="32"/>
       <c r="BG14" s="35"/>
       <c r="BH14" s="34" t="str">
-        <f t="shared" ref="BH14:BH22" si="33">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="31">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="32">
@@ -4803,51 +4623,51 @@
         <v>1.8148148148148146E-2</v>
       </c>
       <c r="BK14" s="34">
-        <f t="shared" ref="BK14:BK22" si="34">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="32">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>1.4421296296296295E-2</v>
       </c>
       <c r="BL14" s="33"/>
       <c r="BM14" s="33"/>
       <c r="BN14" s="34" t="str">
-        <f t="shared" ref="BN14:BN22" si="35">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="33">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="32"/>
       <c r="BP14" s="33"/>
       <c r="BQ14" s="34" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="36">IF(BO14=0,"NA",BP14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="33"/>
-      <c r="BS14" s="33"/>
-      <c r="BT14" s="34" t="str">
-        <f t="shared" ref="BT14:BT22" si="37">IF(BR14=0,"NA",BS14-$AC14)</f>
-        <v>NA</v>
+        <f t="shared" ref="BQ14:BQ22" si="34">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BR14" s="32">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="35">
+        <v>1.653935185185185E-2</v>
+      </c>
+      <c r="BT14" s="34">
+        <f t="shared" ref="BT14:BT22" si="35">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <v>1.2812499999999999E-2</v>
       </c>
       <c r="BU14" s="32"/>
-      <c r="BV14" s="33"/>
+      <c r="BV14" s="35"/>
       <c r="BW14" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX14" s="32">
-        <v>1</v>
-      </c>
-      <c r="BY14" s="35">
-        <v>1.653935185185185E-2</v>
-      </c>
-      <c r="BZ14" s="34">
-        <f t="shared" ref="BZ14:BZ22" si="38">IF(BX14=0,"NA",BY14-$AC14)</f>
-        <v>1.2812499999999999E-2</v>
+      <c r="BX14" s="86"/>
+      <c r="BY14" s="69"/>
+      <c r="BZ14" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
       </c>
       <c r="CA14" s="32"/>
-      <c r="CB14" s="35"/>
+      <c r="CB14" s="33"/>
       <c r="CC14" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD14" s="86"/>
-      <c r="CE14" s="69"/>
+      <c r="CD14" s="32"/>
+      <c r="CE14" s="33"/>
       <c r="CF14" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -4879,38 +4699,26 @@
       <c r="CS14" s="32"/>
       <c r="CT14" s="33"/>
       <c r="CU14" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV14" s="32"/>
-      <c r="CW14" s="33"/>
-      <c r="CX14" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY14" s="32"/>
-      <c r="CZ14" s="33"/>
-      <c r="DA14" s="34" t="str">
-        <f t="shared" ref="DA14:DA22" si="39">IF(CY14=0,"NA",CZ14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="DB14" s="37"/>
+        <f t="shared" ref="CU14:CU22" si="36">IF(CS14=0,"NA",CT14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="CV14" s="37"/>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D15" s="5">
         <v>6</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>E6</v>
       </c>
       <c r="F15" s="5">
@@ -4940,23 +4748,23 @@
         <v>61</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O15" s="5">
         <v>3</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S15" s="5">
         <v>0.15</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U15" s="8"/>
       <c r="V15" s="19">
@@ -4972,7 +4780,7 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.0416666666666665E-2</v>
       </c>
       <c r="AC15" s="20">
@@ -4980,11 +4788,11 @@
       </c>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.4537037037037035E-2</v>
       </c>
       <c r="AF15" s="21">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG15" s="21">
         <v>50</v>
@@ -5003,25 +4811,25 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="AM15" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>7.4537037037037046E-3</v>
       </c>
       <c r="AN15" s="32"/>
       <c r="AO15" s="33"/>
       <c r="AP15" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="33"/>
       <c r="AS15" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AT15" s="33"/>
       <c r="AU15" s="33"/>
       <c r="AV15" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="32"/>
@@ -5033,96 +4841,96 @@
       <c r="AZ15" s="32"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="32"/>
       <c r="BD15" s="33"/>
       <c r="BE15" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="32"/>
       <c r="BG15" s="35"/>
       <c r="BH15" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="32"/>
       <c r="BJ15" s="33"/>
       <c r="BK15" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BL15" s="32"/>
       <c r="BM15" s="33"/>
       <c r="BN15" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO15" s="32"/>
       <c r="BP15" s="33"/>
       <c r="BQ15" s="34" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BR15" s="32"/>
-      <c r="BS15" s="33"/>
-      <c r="BT15" s="34" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="BU15" s="32"/>
-      <c r="BV15" s="33"/>
-      <c r="BW15" s="34" t="str">
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
+      <c r="BR15" s="32">
+        <v>2</v>
+      </c>
+      <c r="BS15" s="35">
+        <v>7.9976851851851858E-3</v>
+      </c>
+      <c r="BT15" s="34">
+        <f t="shared" si="35"/>
+        <v>2.1180555555555562E-3</v>
+      </c>
+      <c r="BU15" s="32">
+        <v>1</v>
+      </c>
+      <c r="BV15" s="83">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="BW15" s="34">
         <f t="shared" si="13"/>
-        <v>NA</v>
-      </c>
-      <c r="BX15" s="32">
-        <v>2</v>
-      </c>
-      <c r="BY15" s="35">
-        <v>7.9976851851851858E-3</v>
+        <v>6.8518518518518512E-3</v>
+      </c>
+      <c r="BX15" s="86">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="69">
+        <v>1.0034722222222221E-2</v>
       </c>
       <c r="BZ15" s="34">
-        <f t="shared" si="38"/>
-        <v>2.1180555555555562E-3</v>
-      </c>
-      <c r="CA15" s="32">
+        <f t="shared" si="14"/>
+        <v>4.1550925925925913E-3</v>
+      </c>
+      <c r="CA15" s="32"/>
+      <c r="CB15" s="83"/>
+      <c r="CC15" s="34" t="str">
+        <f t="shared" si="15"/>
+        <v>NA</v>
+      </c>
+      <c r="CD15" s="32">
         <v>1</v>
       </c>
-      <c r="CB15" s="83">
-        <v>1.2731481481481481E-2</v>
-      </c>
-      <c r="CC15" s="34">
-        <f t="shared" si="15"/>
-        <v>6.8518518518518512E-3</v>
-      </c>
-      <c r="CD15" s="86">
-        <v>1</v>
-      </c>
-      <c r="CE15" s="69">
-        <v>1.0034722222222221E-2</v>
+      <c r="CE15" s="83">
+        <v>1.0289351851851852E-2</v>
       </c>
       <c r="CF15" s="34">
         <f t="shared" si="16"/>
-        <v>4.1550925925925913E-3</v>
+        <v>4.409722222222222E-3</v>
       </c>
       <c r="CG15" s="32"/>
-      <c r="CH15" s="83"/>
+      <c r="CH15" s="33"/>
       <c r="CI15" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ15" s="32">
-        <v>1</v>
-      </c>
-      <c r="CK15" s="83">
-        <v>1.0289351851851852E-2</v>
-      </c>
-      <c r="CL15" s="34">
+      <c r="CJ15" s="32"/>
+      <c r="CK15" s="33"/>
+      <c r="CL15" s="34" t="str">
         <f t="shared" si="18"/>
-        <v>4.409722222222222E-3</v>
+        <v>NA</v>
       </c>
       <c r="CM15" s="32"/>
       <c r="CN15" s="33"/>
@@ -5139,45 +4947,33 @@
       <c r="CS15" s="32"/>
       <c r="CT15" s="33"/>
       <c r="CU15" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV15" s="32"/>
-      <c r="CW15" s="33"/>
-      <c r="CX15" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY15" s="32"/>
-      <c r="CZ15" s="33"/>
-      <c r="DA15" s="34" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB15" s="37"/>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="CV15" s="37"/>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>E5</v>
       </c>
       <c r="F16" s="5">
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6">
         <v>0.33958333333333335</v>
@@ -5200,23 +4996,23 @@
         <v>63</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O16" s="5">
         <v>4</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S16" s="5">
         <v>0.15</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="19">
@@ -5234,7 +5030,7 @@
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.7905092592592589E-2</v>
       </c>
       <c r="AC16" s="20">
@@ -5244,11 +5040,11 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.1932870370370363E-2</v>
       </c>
       <c r="AF16" s="21">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG16" s="21">
         <v>80</v>
@@ -5263,13 +5059,13 @@
       <c r="AK16" s="32"/>
       <c r="AL16" s="35"/>
       <c r="AM16" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="32"/>
       <c r="AO16" s="35"/>
       <c r="AP16" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="32">
@@ -5279,13 +5075,13 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="AS16" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2.5972222222222223E-2</v>
       </c>
       <c r="AT16" s="32"/>
       <c r="AU16" s="35"/>
       <c r="AV16" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="32"/>
@@ -5297,19 +5093,19 @@
       <c r="AZ16" s="32"/>
       <c r="BA16" s="35"/>
       <c r="BB16" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="32"/>
       <c r="BD16" s="35"/>
       <c r="BE16" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="32"/>
       <c r="BG16" s="35"/>
       <c r="BH16" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="43">
@@ -5319,26 +5115,30 @@
         <v>5.7407407407407416E-3</v>
       </c>
       <c r="BK16" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.1574074074074082E-3</v>
       </c>
       <c r="BL16" s="32"/>
       <c r="BM16" s="33"/>
       <c r="BN16" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO16" s="32"/>
       <c r="BP16" s="33"/>
       <c r="BQ16" s="34" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BR16" s="32"/>
-      <c r="BS16" s="33"/>
-      <c r="BT16" s="34" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
+      <c r="BR16" s="32">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="69">
+        <v>3.1041666666666665E-2</v>
+      </c>
+      <c r="BT16" s="34">
+        <f t="shared" si="35"/>
+        <v>2.6458333333333334E-2</v>
       </c>
       <c r="BU16" s="32"/>
       <c r="BV16" s="33"/>
@@ -5346,24 +5146,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="32">
-        <v>1</v>
-      </c>
-      <c r="BY16" s="69">
-        <v>3.1041666666666665E-2</v>
-      </c>
-      <c r="BZ16" s="34">
-        <f t="shared" si="38"/>
-        <v>2.6458333333333334E-2</v>
+      <c r="BX16" s="86"/>
+      <c r="BY16" s="69"/>
+      <c r="BZ16" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>NA</v>
       </c>
       <c r="CA16" s="32"/>
-      <c r="CB16" s="33"/>
+      <c r="CB16" s="35"/>
       <c r="CC16" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD16" s="86"/>
-      <c r="CE16" s="69"/>
+      <c r="CD16" s="32"/>
+      <c r="CE16" s="35"/>
       <c r="CF16" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -5395,38 +5191,26 @@
       <c r="CS16" s="32"/>
       <c r="CT16" s="35"/>
       <c r="CU16" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV16" s="32"/>
-      <c r="CW16" s="35"/>
-      <c r="CX16" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY16" s="32"/>
-      <c r="CZ16" s="35"/>
-      <c r="DA16" s="34" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB16" s="37"/>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="CV16" s="37"/>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" s="5">
         <v>6</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L6</v>
       </c>
       <c r="F17" s="5">
@@ -5456,23 +5240,23 @@
         <v>30</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O17" s="5">
         <v>2</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S17" s="5">
         <v>0.24</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="19"/>
@@ -5482,13 +5266,13 @@
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC17" s="20"/>
       <c r="AD17" s="20"/>
       <c r="AE17" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF17" s="21"/>
@@ -5499,25 +5283,25 @@
       <c r="AK17" s="32"/>
       <c r="AL17" s="35"/>
       <c r="AM17" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="32"/>
       <c r="AO17" s="35"/>
       <c r="AP17" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="35"/>
       <c r="AS17" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AT17" s="32"/>
       <c r="AU17" s="35"/>
       <c r="AV17" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="32"/>
@@ -5529,43 +5313,43 @@
       <c r="AZ17" s="32"/>
       <c r="BA17" s="35"/>
       <c r="BB17" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="BC17" s="32"/>
       <c r="BD17" s="35"/>
       <c r="BE17" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF17" s="32"/>
       <c r="BG17" s="35"/>
       <c r="BH17" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="35"/>
       <c r="BK17" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BL17" s="43"/>
       <c r="BM17" s="35"/>
       <c r="BN17" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO17" s="43"/>
       <c r="BP17" s="35"/>
       <c r="BQ17" s="34" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="BR17" s="43"/>
-      <c r="BS17" s="35"/>
+        <f t="shared" si="34"/>
+        <v>NA</v>
+      </c>
+      <c r="BR17" s="32"/>
+      <c r="BS17" s="33"/>
       <c r="BT17" s="34" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BU17" s="32"/>
@@ -5574,20 +5358,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX17" s="32"/>
-      <c r="BY17" s="33"/>
+      <c r="BX17" s="86"/>
+      <c r="BY17" s="69"/>
       <c r="BZ17" s="34" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA17" s="32"/>
-      <c r="CB17" s="33"/>
+      <c r="CB17" s="35"/>
       <c r="CC17" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="86"/>
-      <c r="CE17" s="69"/>
+      <c r="CD17" s="32"/>
+      <c r="CE17" s="35"/>
       <c r="CF17" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -5619,38 +5403,26 @@
       <c r="CS17" s="32"/>
       <c r="CT17" s="35"/>
       <c r="CU17" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV17" s="32"/>
-      <c r="CW17" s="35"/>
-      <c r="CX17" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY17" s="32"/>
-      <c r="CZ17" s="35"/>
-      <c r="DA17" s="34" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB17" s="37"/>
+        <f t="shared" si="36"/>
+        <v>NA</v>
+      </c>
+      <c r="CV17" s="37"/>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>D4</v>
       </c>
       <c r="F18" s="5">
@@ -5680,23 +5452,23 @@
         <v>30</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O18" s="5">
         <v>3</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S18" s="5">
         <v>0.26</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="19">
@@ -5712,7 +5484,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.6296296296296289E-2</v>
       </c>
       <c r="AC18" s="20">
@@ -5722,11 +5494,11 @@
         <v>9.2361111111111116E-3</v>
       </c>
       <c r="AE18" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.2905092592592585E-2</v>
       </c>
       <c r="AF18" s="21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AG18" s="21">
         <v>80</v>
@@ -5741,7 +5513,7 @@
       <c r="AK18" s="32"/>
       <c r="AL18" s="35"/>
       <c r="AM18" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AN18" s="32">
@@ -5751,19 +5523,19 @@
         <v>2.3078703703703702E-2</v>
       </c>
       <c r="AP18" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.892361111111111E-2</v>
       </c>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="35"/>
       <c r="AS18" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="32"/>
       <c r="AU18" s="35"/>
       <c r="AV18" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="32"/>
@@ -5779,43 +5551,43 @@
         <v>1.3321759259259261E-2</v>
       </c>
       <c r="BB18" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>9.1666666666666667E-3</v>
       </c>
       <c r="BC18" s="32"/>
       <c r="BD18" s="35"/>
       <c r="BE18" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF18" s="32"/>
       <c r="BG18" s="35"/>
       <c r="BH18" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI18" s="32"/>
       <c r="BJ18" s="35"/>
       <c r="BK18" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BL18" s="32"/>
       <c r="BM18" s="35"/>
       <c r="BN18" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO18" s="32"/>
       <c r="BP18" s="35"/>
       <c r="BQ18" s="34" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BR18" s="32"/>
-      <c r="BS18" s="35"/>
+      <c r="BS18" s="33"/>
       <c r="BT18" s="34" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BU18" s="32"/>
@@ -5824,20 +5596,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX18" s="32"/>
-      <c r="BY18" s="33"/>
+      <c r="BX18" s="86"/>
+      <c r="BY18" s="69"/>
       <c r="BZ18" s="34" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA18" s="32"/>
-      <c r="CB18" s="33"/>
+      <c r="CB18" s="35"/>
       <c r="CC18" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD18" s="86"/>
-      <c r="CE18" s="69"/>
+      <c r="CD18" s="32"/>
+      <c r="CE18" s="35"/>
       <c r="CF18" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -5866,52 +5638,40 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS18" s="32"/>
-      <c r="CT18" s="35"/>
-      <c r="CU18" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV18" s="32"/>
-      <c r="CW18" s="35"/>
-      <c r="CX18" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY18" s="32">
+      <c r="CS18" s="32">
         <v>3</v>
       </c>
-      <c r="CZ18" s="35">
+      <c r="CT18" s="35">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="DA18" s="34">
-        <f t="shared" si="39"/>
+      <c r="CU18" s="34">
+        <f t="shared" si="36"/>
         <v>6.9444444444444024E-5</v>
       </c>
-      <c r="DB18" s="37"/>
+      <c r="CV18" s="37"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L5</v>
       </c>
       <c r="F19" s="5">
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H19" s="6">
         <v>0.58194444444444449</v>
@@ -5934,23 +5694,23 @@
         <v>18</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O19" s="5">
         <v>4</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S19" s="5">
         <v>0.26</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="20"/>
@@ -5960,13 +5720,13 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF19" s="21"/>
@@ -5977,25 +5737,25 @@
       <c r="AK19" s="33"/>
       <c r="AL19" s="35"/>
       <c r="AM19" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="33"/>
       <c r="AO19" s="35"/>
       <c r="AP19" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AQ19" s="33"/>
       <c r="AR19" s="35"/>
       <c r="AS19" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="33"/>
       <c r="AU19" s="35"/>
       <c r="AV19" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="33"/>
@@ -6007,43 +5767,43 @@
       <c r="AZ19" s="33"/>
       <c r="BA19" s="35"/>
       <c r="BB19" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="BC19" s="33"/>
       <c r="BD19" s="35"/>
       <c r="BE19" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="33"/>
       <c r="BG19" s="35"/>
       <c r="BH19" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="33"/>
       <c r="BJ19" s="35"/>
       <c r="BK19" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BL19" s="33"/>
       <c r="BM19" s="35"/>
       <c r="BN19" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO19" s="33"/>
       <c r="BP19" s="35"/>
       <c r="BQ19" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="33"/>
-      <c r="BS19" s="35"/>
+      <c r="BS19" s="33"/>
       <c r="BT19" s="69" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="33"/>
@@ -6052,20 +5812,20 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX19" s="33"/>
-      <c r="BY19" s="33"/>
+      <c r="BX19" s="86"/>
+      <c r="BY19" s="69"/>
       <c r="BZ19" s="69" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA19" s="33"/>
-      <c r="CB19" s="33"/>
+      <c r="CB19" s="35"/>
       <c r="CC19" s="69" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD19" s="86"/>
-      <c r="CE19" s="69"/>
+      <c r="CD19" s="33"/>
+      <c r="CE19" s="35"/>
       <c r="CF19" s="69" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -6097,38 +5857,26 @@
       <c r="CS19" s="33"/>
       <c r="CT19" s="35"/>
       <c r="CU19" s="69" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="CV19" s="33"/>
-      <c r="CW19" s="35"/>
-      <c r="CX19" s="69" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY19" s="33"/>
-      <c r="CZ19" s="35"/>
-      <c r="DA19" s="69" t="str">
-        <f t="shared" si="39"/>
-        <v>NA</v>
-      </c>
-      <c r="DB19" s="33"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>D5</v>
       </c>
       <c r="F20" s="5">
@@ -6158,23 +5906,23 @@
         <v>20</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O20" s="5">
         <v>3</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S20" s="5">
         <v>0.26</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="20">
@@ -6190,7 +5938,7 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>6.4189814814814811E-2</v>
       </c>
       <c r="AC20" s="20">
@@ -6200,7 +5948,7 @@
         <v>1.5046296296296295E-2</v>
       </c>
       <c r="AE20" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.4687499999999998E-2</v>
       </c>
       <c r="AF20" s="21">
@@ -6219,25 +5967,25 @@
       <c r="AK20" s="33"/>
       <c r="AL20" s="35"/>
       <c r="AM20" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="33"/>
       <c r="AO20" s="35"/>
       <c r="AP20" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="35"/>
       <c r="AS20" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="33"/>
       <c r="AU20" s="35"/>
       <c r="AV20" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="33"/>
@@ -6253,43 +6001,43 @@
         <v>3.050925925925926E-2</v>
       </c>
       <c r="BB20" s="69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>2.6053240740740741E-2</v>
       </c>
       <c r="BC20" s="33"/>
       <c r="BD20" s="35"/>
       <c r="BE20" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="33"/>
       <c r="BG20" s="35"/>
       <c r="BH20" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="33"/>
       <c r="BJ20" s="35"/>
       <c r="BK20" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="33"/>
       <c r="BM20" s="35"/>
       <c r="BN20" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO20" s="33"/>
       <c r="BP20" s="35"/>
       <c r="BQ20" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="33"/>
       <c r="BS20" s="35"/>
       <c r="BT20" s="69" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="33"/>
@@ -6298,10 +6046,10 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX20" s="33"/>
-      <c r="BY20" s="35"/>
+      <c r="BX20" s="86"/>
+      <c r="BY20" s="69"/>
       <c r="BZ20" s="69" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA20" s="33"/>
@@ -6310,8 +6058,8 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD20" s="86"/>
-      <c r="CE20" s="69"/>
+      <c r="CD20" s="33"/>
+      <c r="CE20" s="35"/>
       <c r="CF20" s="69" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
@@ -6340,45 +6088,33 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS20" s="33"/>
-      <c r="CT20" s="35"/>
-      <c r="CU20" s="69" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
+      <c r="CS20" s="33">
+        <v>1</v>
+      </c>
+      <c r="CT20" s="35">
+        <v>3.3784722222222223E-2</v>
+      </c>
+      <c r="CU20" s="69">
+        <f t="shared" si="36"/>
+        <v>2.9328703703703704E-2</v>
       </c>
       <c r="CV20" s="33"/>
-      <c r="CW20" s="35"/>
-      <c r="CX20" s="69" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY20" s="33">
-        <v>1</v>
-      </c>
-      <c r="CZ20" s="35">
-        <v>3.3784722222222223E-2</v>
-      </c>
-      <c r="DA20" s="69">
-        <f t="shared" si="39"/>
-        <v>2.9328703703703704E-2</v>
-      </c>
-      <c r="DB20" s="33"/>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" s="5">
         <v>6</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>D6</v>
       </c>
       <c r="F21" s="5">
@@ -6408,23 +6144,23 @@
         <v>22</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O21" s="65">
         <v>3</v>
       </c>
       <c r="P21" s="65"/>
       <c r="Q21" s="65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S21" s="65">
         <v>0.28000000000000003</v>
       </c>
       <c r="T21" s="65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U21" s="65"/>
       <c r="V21" s="66">
@@ -6440,7 +6176,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.9618055555555554E-2</v>
       </c>
       <c r="AC21" s="91">
@@ -6450,11 +6186,11 @@
         <v>2.3148148148148146E-4</v>
       </c>
       <c r="AE21" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.5023148148148152E-2</v>
       </c>
       <c r="AF21" s="67">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG21" s="67">
         <v>75</v>
@@ -6469,25 +6205,25 @@
       <c r="AK21" s="68"/>
       <c r="AL21" s="68"/>
       <c r="AM21" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="68"/>
       <c r="AO21" s="68"/>
       <c r="AP21" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
       <c r="AS21" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="68"/>
       <c r="AU21" s="68"/>
       <c r="AV21" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="68"/>
@@ -6503,19 +6239,19 @@
         <v>5.4398148148148149E-3</v>
       </c>
       <c r="BB21" s="69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1.0763888888888889E-3</v>
       </c>
       <c r="BC21" s="68"/>
       <c r="BD21" s="68"/>
       <c r="BE21" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="68"/>
       <c r="BG21" s="68"/>
       <c r="BH21" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="68">
@@ -6525,25 +6261,25 @@
         <v>1.1743055555555555</v>
       </c>
       <c r="BK21" s="69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>1.1699421296296295</v>
       </c>
       <c r="BL21" s="68"/>
       <c r="BM21" s="68"/>
       <c r="BN21" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO21" s="68"/>
       <c r="BP21" s="68"/>
       <c r="BQ21" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="68"/>
       <c r="BS21" s="68"/>
       <c r="BT21" s="69" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BU21" s="68"/>
@@ -6552,11 +6288,15 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX21" s="68"/>
-      <c r="BY21" s="68"/>
-      <c r="BZ21" s="69" t="str">
-        <f t="shared" si="38"/>
-        <v>NA</v>
+      <c r="BX21" s="87">
+        <v>1</v>
+      </c>
+      <c r="BY21" s="92">
+        <v>2.2418981481481481E-2</v>
+      </c>
+      <c r="BZ21" s="69">
+        <f t="shared" si="14"/>
+        <v>1.8055555555555554E-2</v>
       </c>
       <c r="CA21" s="68"/>
       <c r="CB21" s="68"/>
@@ -6564,15 +6304,11 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="87">
-        <v>1</v>
-      </c>
-      <c r="CE21" s="92">
-        <v>2.2418981481481481E-2</v>
-      </c>
-      <c r="CF21" s="69">
+      <c r="CD21" s="68"/>
+      <c r="CE21" s="68"/>
+      <c r="CF21" s="69" t="str">
         <f t="shared" si="16"/>
-        <v>1.8055555555555554E-2</v>
+        <v>NA</v>
       </c>
       <c r="CG21" s="68"/>
       <c r="CH21" s="68"/>
@@ -6598,45 +6334,33 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS21" s="68"/>
-      <c r="CT21" s="68"/>
-      <c r="CU21" s="69" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
+      <c r="CS21" s="68">
+        <v>1</v>
+      </c>
+      <c r="CT21" s="93">
+        <v>1.4541666666666666</v>
+      </c>
+      <c r="CU21" s="69">
+        <f t="shared" si="36"/>
+        <v>1.4498032407407406</v>
       </c>
       <c r="CV21" s="68"/>
-      <c r="CW21" s="68"/>
-      <c r="CX21" s="69" t="str">
-        <f t="shared" si="22"/>
-        <v>NA</v>
-      </c>
-      <c r="CY21" s="68">
-        <v>1</v>
-      </c>
-      <c r="CZ21" s="93">
-        <v>1.4541666666666666</v>
-      </c>
-      <c r="DA21" s="69">
-        <f t="shared" si="39"/>
-        <v>1.4498032407407406</v>
-      </c>
-      <c r="DB21" s="68"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22" s="5">
         <v>4</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>L4</v>
       </c>
       <c r="F22" s="5">
@@ -6666,23 +6390,23 @@
         <v>30</v>
       </c>
       <c r="N22" s="65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O22" s="65">
         <v>2</v>
       </c>
       <c r="P22" s="65"/>
       <c r="Q22" s="65" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S22" s="65">
         <v>0.28000000000000003</v>
       </c>
       <c r="T22" s="65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U22" s="65"/>
       <c r="V22" s="66">
@@ -6696,7 +6420,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
       <c r="AB22" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.1111111111111107E-2</v>
       </c>
       <c r="AC22" s="91">
@@ -6706,11 +6430,11 @@
         <v>6.4004629629629628E-3</v>
       </c>
       <c r="AE22" s="20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.1064814814814811E-2</v>
       </c>
       <c r="AF22" s="67">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG22" s="67">
         <v>95</v>
@@ -6729,7 +6453,7 @@
         <v>3.8541666666666668E-3</v>
       </c>
       <c r="AM22" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>2.0833333333333381E-4</v>
       </c>
       <c r="AN22" s="68">
@@ -6739,19 +6463,19 @@
         <v>3.7384259259259263E-3</v>
       </c>
       <c r="AP22" s="69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>9.2592592592593333E-5</v>
       </c>
       <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
       <c r="AS22" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="68"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="68"/>
@@ -6767,19 +6491,19 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="BB22" s="69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1.3715277777777779E-2</v>
       </c>
       <c r="BC22" s="68"/>
       <c r="BD22" s="68"/>
       <c r="BE22" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="68"/>
       <c r="BG22" s="68"/>
       <c r="BH22" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="68">
@@ -6789,25 +6513,25 @@
         <v>2.732638888888889E-2</v>
       </c>
       <c r="BK22" s="69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>2.3680555555555555E-2</v>
       </c>
       <c r="BL22" s="68"/>
       <c r="BM22" s="68"/>
       <c r="BN22" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BO22" s="68"/>
       <c r="BP22" s="68"/>
       <c r="BQ22" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="68"/>
       <c r="BS22" s="68"/>
       <c r="BT22" s="69" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BU22" s="68"/>
@@ -6816,10 +6540,10 @@
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX22" s="68"/>
+      <c r="BX22" s="87"/>
       <c r="BY22" s="68"/>
       <c r="BZ22" s="69" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="CA22" s="68"/>
@@ -6828,7 +6552,7 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD22" s="87"/>
+      <c r="CD22" s="68"/>
       <c r="CE22" s="68"/>
       <c r="CF22" s="69" t="str">
         <f t="shared" si="16"/>
@@ -6852,39 +6576,27 @@
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP22" s="68"/>
-      <c r="CQ22" s="68"/>
-      <c r="CR22" s="69" t="str">
+      <c r="CP22" s="68">
+        <v>1</v>
+      </c>
+      <c r="CQ22" s="92">
+        <v>7.789351851851852E-3</v>
+      </c>
+      <c r="CR22" s="69">
         <f t="shared" si="20"/>
-        <v>NA</v>
-      </c>
-      <c r="CS22" s="68"/>
-      <c r="CT22" s="68"/>
-      <c r="CU22" s="69" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV22" s="68">
-        <v>1</v>
-      </c>
-      <c r="CW22" s="92">
-        <v>7.789351851851852E-3</v>
-      </c>
-      <c r="CX22" s="69">
-        <f t="shared" si="22"/>
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="CY22" s="68">
+      <c r="CS22" s="68">
         <v>2</v>
       </c>
-      <c r="CZ22" s="92">
+      <c r="CT22" s="92">
         <v>2.3541666666666666E-2</v>
       </c>
-      <c r="DA22" s="69">
-        <f t="shared" si="39"/>
+      <c r="CU22" s="69">
+        <f t="shared" si="36"/>
         <v>1.9895833333333331E-2</v>
       </c>
-      <c r="DB22" s="68"/>
+      <c r="CV22" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6905,47 +6617,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D2" s="63">
         <v>0.35000000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3">
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="63">
         <v>0.59236111111111112</v>
@@ -6953,13 +6665,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B4">
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="63">
         <v>0.59513888888888888</v>
@@ -7112,13 +6824,13 @@
         <v>11</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AH1" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AI1" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AJ1" s="36" t="s">
         <v>31</v>
@@ -7126,100 +6838,100 @@
     </row>
     <row r="2" spans="1:36" s="62" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>76</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>81</v>
-      </c>
       <c r="N2" s="47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P2" s="49"/>
       <c r="Q2" s="47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R2" s="47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S2" s="47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T2" s="51"/>
       <c r="U2" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="V2" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X2" s="53">
         <f>SUM(U2:W2)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Z2" s="53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AA2" s="53" t="e">
         <f>X2-Y2-Z2</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB2" s="54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AC2" s="54" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AD2" s="55"/>
       <c r="AE2" s="56" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AF2" s="57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG2" s="58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AH2" s="59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AI2" s="60" t="e">
         <f>IF(AG2=0,"NA",AH2-$Y2)</f>
@@ -7229,13 +6941,13 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -7250,7 +6962,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -7261,17 +6973,17 @@
         <v>32</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N3" s="5">
         <v>3</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -7304,13 +7016,13 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -7319,13 +7031,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G4" s="6">
         <v>0.62361111111111112</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I4" s="7">
         <v>-5.1189571000000003</v>
@@ -7340,17 +7052,17 @@
         <v>31</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N4" s="5">
         <v>6</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -7383,13 +7095,13 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -7412,20 +7124,20 @@
         <v>50</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N5" s="5">
         <v>3</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -7458,13 +7170,13 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -7490,22 +7202,22 @@
         <v>40</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N6" s="5">
         <v>3</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="20"/>
@@ -7535,13 +7247,13 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7564,25 +7276,25 @@
         <v>55</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N7" s="5">
         <v>3</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U7" s="19"/>
       <c r="V7" s="20"/>
@@ -7612,13 +7324,13 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -7641,25 +7353,25 @@
         <v>42</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N8" s="5">
         <v>3</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U8" s="19"/>
       <c r="V8" s="20"/>
@@ -7689,13 +7401,13 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -7721,17 +7433,17 @@
         <v>50</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N9" s="5">
         <v>2</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -7766,7 +7478,7 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -7792,14 +7504,14 @@
         <v>61</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N10" s="5">
         <v>3</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -7835,7 +7547,7 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7844,7 +7556,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G11" s="6">
         <v>0.5395833333333333</v>
@@ -7861,14 +7573,14 @@
         <v>55</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N11" s="5">
         <v>5</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -7904,7 +7616,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -7930,14 +7642,14 @@
         <v>68</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N12" s="5">
         <v>2</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -7973,7 +7685,7 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
@@ -7999,14 +7711,14 @@
         <v>59</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N13" s="5">
         <v>3</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -8042,7 +7754,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -8068,14 +7780,14 @@
         <v>98</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N14" s="5">
         <v>2</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -8407,7 +8119,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>29</v>
@@ -8416,12 +8128,12 @@
         <v>30</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="77">
         <v>-5.4793240000000001</v>
@@ -8433,7 +8145,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="76" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B3" s="77">
         <v>-5.4880659999999999</v>
@@ -8445,7 +8157,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B4" s="77">
         <v>-5.4889159999999997</v>
@@ -8454,12 +8166,12 @@
         <v>119.309448</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B5" s="77">
         <v>-5.468826</v>
@@ -8471,7 +8183,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B6" s="77">
         <v>-5.4682649999999997</v>
@@ -8483,7 +8195,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" s="77">
         <v>-5.4671349999999999</v>
@@ -8495,7 +8207,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B8" s="77">
         <v>-5.4901910000000003</v>
@@ -8507,7 +8219,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="76" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" s="77">
         <v>-5.491987</v>
@@ -8519,7 +8231,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B10" s="77">
         <v>-5.49282</v>
@@ -8531,7 +8243,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B11" s="77">
         <v>-5.4639509999999998</v>
@@ -8543,7 +8255,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B12" s="77">
         <v>-5.4620889999999997</v>
@@ -8555,7 +8267,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B13" s="77">
         <v>-5.463902</v>
@@ -8567,7 +8279,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" s="77">
         <v>-5.4810160000000003</v>
@@ -8579,7 +8291,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B15" s="77">
         <v>-5.4811319999999997</v>
@@ -8591,7 +8303,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B16" s="77">
         <v>-5.4793599999999998</v>
@@ -8603,7 +8315,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B17" s="77">
         <v>-5.4663769999999996</v>
@@ -8615,7 +8327,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B18" s="77">
         <v>-5.4682510000000004</v>
@@ -8627,7 +8339,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="79" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B19" s="80">
         <v>-5.4686510000000004</v>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2213C05F-5E89-4695-BE8B-0FD0EFC49094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33ADB9-A12A-4B4A-964A-7D7481637D1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="205">
   <si>
     <t>DATE</t>
   </si>
@@ -639,6 +639,15 @@
   </si>
   <si>
     <t>TIME_FISHJ</t>
+  </si>
+  <si>
+    <t>MAXN_SANDFISH</t>
+  </si>
+  <si>
+    <t>TIME_1STSANDFISH</t>
+  </si>
+  <si>
+    <t>T1_SANDFISH</t>
   </si>
 </sst>
 </file>
@@ -1286,13 +1295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:CV22"/>
+  <dimension ref="A1:CY22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS10" sqref="BS10"/>
+      <selection pane="bottomRight" activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1317,10 +1326,11 @@
     <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1610,19 +1620,28 @@
         <v>200</v>
       </c>
       <c r="CS1" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="CT1" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="CU1" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="CV1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="CT1" s="28" t="s">
+      <c r="CW1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" s="72" t="s">
+      <c r="CX1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="CV1" s="29" t="s">
+      <c r="CY1" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>93</v>
       </c>
@@ -1854,19 +1873,25 @@
         <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CS2" s="71">
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="84"/>
+      <c r="CU2" s="34" t="str">
+        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CV2" s="71">
         <v>3</v>
       </c>
-      <c r="CT2" s="84">
+      <c r="CW2" s="84">
         <v>4.1319444444444442E-3</v>
       </c>
-      <c r="CU2" s="34">
-        <f t="shared" ref="CU2:CU13" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
+      <c r="CX2" s="34">
+        <f t="shared" ref="CX2:CX13" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
         <v>3.2407407407407341E-4</v>
       </c>
-      <c r="CV2" s="37"/>
+      <c r="CY2" s="37"/>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>93</v>
       </c>
@@ -1880,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E22" si="22">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="23">C3&amp;""&amp;D3</f>
         <v>D3</v>
       </c>
       <c r="F3" s="5">
@@ -1948,7 +1973,7 @@
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="23">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="24">SUM(V3:AA3)</f>
         <v>7.8148148148148147E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2100,9 +2125,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="37"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="33"/>
+      <c r="CX3" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY3" s="37"/>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>93</v>
       </c>
@@ -2116,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L2</v>
       </c>
       <c r="F4" s="5">
@@ -2178,7 +2209,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.0902777777777778E-2</v>
       </c>
       <c r="AC4" s="20">
@@ -2336,19 +2367,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS4" s="32">
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV4" s="32">
         <v>6</v>
       </c>
-      <c r="CT4" s="35">
+      <c r="CW4" s="35">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="CU4" s="34">
-        <f t="shared" si="21"/>
+      <c r="CX4" s="34">
+        <f t="shared" si="22"/>
         <v>1.1574074074074091E-4</v>
       </c>
-      <c r="CV4" s="37"/>
+      <c r="CY4" s="37"/>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
@@ -2362,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L1</v>
       </c>
       <c r="F5" s="5">
@@ -2420,7 +2457,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC5" s="20"/>
@@ -2560,9 +2597,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="37"/>
+      <c r="CV5" s="32"/>
+      <c r="CW5" s="33"/>
+      <c r="CX5" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY5" s="37"/>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>93</v>
       </c>
@@ -2576,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>D1</v>
       </c>
       <c r="F6" s="5">
@@ -2634,7 +2677,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC6" s="20"/>
@@ -2774,9 +2817,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="37"/>
+      <c r="CV6" s="32"/>
+      <c r="CW6" s="33"/>
+      <c r="CX6" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY6" s="37"/>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>93</v>
       </c>
@@ -2790,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L3</v>
       </c>
       <c r="F7" s="5">
@@ -2848,7 +2897,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC7" s="20"/>
@@ -2988,9 +3037,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="37"/>
+      <c r="CV7" s="32"/>
+      <c r="CW7" s="33"/>
+      <c r="CX7" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY7" s="37"/>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>121</v>
       </c>
@@ -3004,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L3</v>
       </c>
       <c r="F8" s="5">
@@ -3066,7 +3121,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3020833333333336E-2</v>
       </c>
       <c r="AC8" s="20">
@@ -3216,19 +3271,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS8" s="32">
+      <c r="CS8" s="32"/>
+      <c r="CT8" s="83"/>
+      <c r="CU8" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV8" s="32">
         <v>5</v>
       </c>
-      <c r="CT8" s="83">
+      <c r="CW8" s="83">
         <v>0.25694444444444448</v>
       </c>
-      <c r="CU8" s="34">
-        <f t="shared" si="21"/>
+      <c r="CX8" s="34">
+        <f t="shared" si="22"/>
         <v>0.25300925925925927</v>
       </c>
-      <c r="CV8" s="37"/>
+      <c r="CY8" s="37"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
@@ -3242,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>D1</v>
       </c>
       <c r="F9" s="5">
@@ -3306,7 +3367,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.5902777777777778E-2</v>
       </c>
       <c r="AC9" s="20">
@@ -3458,19 +3519,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS9" s="32">
+      <c r="CS9" s="32"/>
+      <c r="CT9" s="69"/>
+      <c r="CU9" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV9" s="32">
         <v>2</v>
       </c>
-      <c r="CT9" s="69">
+      <c r="CW9" s="69">
         <v>2.193287037037037E-2</v>
       </c>
-      <c r="CU9" s="34">
-        <f t="shared" si="21"/>
+      <c r="CX9" s="34">
+        <f t="shared" si="22"/>
         <v>1.8148148148148149E-2</v>
       </c>
-      <c r="CV9" s="37"/>
+      <c r="CY9" s="37"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>121</v>
       </c>
@@ -3484,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L1</v>
       </c>
       <c r="F10" s="5">
@@ -3552,7 +3619,7 @@
       </c>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.2268518518518513E-2</v>
       </c>
       <c r="AC10" s="20">
@@ -3706,19 +3773,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS10" s="32">
+      <c r="CS10" s="32"/>
+      <c r="CT10" s="35"/>
+      <c r="CU10" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV10" s="32">
         <v>2</v>
       </c>
-      <c r="CT10" s="35">
+      <c r="CW10" s="35">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="CU10" s="34">
-        <f t="shared" si="21"/>
+      <c r="CX10" s="34">
+        <f t="shared" si="22"/>
         <v>2.1990740740740738E-3</v>
       </c>
-      <c r="CV10" s="37"/>
+      <c r="CY10" s="37"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
@@ -3732,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E2</v>
       </c>
       <c r="F11" s="5">
@@ -3792,7 +3865,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1307870370370365E-2</v>
       </c>
       <c r="AC11" s="20">
@@ -3970,19 +4043,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="32">
+      <c r="CS11" s="32"/>
+      <c r="CT11" s="35"/>
+      <c r="CU11" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV11" s="32">
         <v>1</v>
       </c>
-      <c r="CT11" s="35">
+      <c r="CW11" s="35">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="CU11" s="34">
-        <f t="shared" si="21"/>
+      <c r="CX11" s="34">
+        <f t="shared" si="22"/>
         <v>6.8287037037037058E-4</v>
       </c>
-      <c r="CV11" s="37"/>
+      <c r="CY11" s="37"/>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -3996,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E3</v>
       </c>
       <c r="F12" s="5">
@@ -4058,7 +4137,7 @@
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.9548611111111106E-2</v>
       </c>
       <c r="AC12" s="20">
@@ -4204,19 +4283,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS12" s="32">
+      <c r="CS12" s="32"/>
+      <c r="CT12" s="83"/>
+      <c r="CU12" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV12" s="32">
         <v>5</v>
       </c>
-      <c r="CT12" s="83">
+      <c r="CW12" s="83">
         <v>1.2997685185185183E-2</v>
       </c>
-      <c r="CU12" s="34">
-        <f t="shared" si="21"/>
+      <c r="CX12" s="34">
+        <f t="shared" si="22"/>
         <v>9.2939814814814795E-3</v>
       </c>
-      <c r="CV12" s="37"/>
+      <c r="CY12" s="37"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>121</v>
       </c>
@@ -4230,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E1</v>
       </c>
       <c r="F13" s="5">
@@ -4290,7 +4375,7 @@
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.5509259259259258E-2</v>
       </c>
       <c r="AC13" s="20">
@@ -4462,9 +4547,15 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV13" s="37"/>
+      <c r="CV13" s="32"/>
+      <c r="CW13" s="33"/>
+      <c r="CX13" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY13" s="37"/>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>133</v>
       </c>
@@ -4478,7 +4569,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E4</v>
       </c>
       <c r="F14" s="5">
@@ -4542,7 +4633,7 @@
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.1759259259259257E-2</v>
       </c>
       <c r="AC14" s="20">
@@ -4552,7 +4643,7 @@
         <v>1.5127314814814816E-2</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="24">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE22" si="25">AB14-AC14-AD14</f>
         <v>4.2905092592592592E-2</v>
       </c>
       <c r="AF14" s="21">
@@ -4571,25 +4662,25 @@
       <c r="AK14" s="32"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="34" t="str">
-        <f t="shared" ref="AM14:AM22" si="25">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="26">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="34" t="str">
-        <f t="shared" ref="AP14:AP22" si="26">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="27">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="33"/>
       <c r="AS14" s="34" t="str">
-        <f t="shared" ref="AS14:AS22" si="27">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="28">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="33"/>
       <c r="AU14" s="33"/>
       <c r="AV14" s="34" t="str">
-        <f t="shared" ref="AV14:AV22" si="28">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="29">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="32"/>
@@ -4601,19 +4692,19 @@
       <c r="AZ14" s="32"/>
       <c r="BA14" s="35"/>
       <c r="BB14" s="34" t="str">
-        <f t="shared" ref="BB14:BB22" si="29">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB22" si="30">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="32"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="34" t="str">
-        <f t="shared" ref="BE14:BE22" si="30">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="31">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="32"/>
       <c r="BG14" s="35"/>
       <c r="BH14" s="34" t="str">
-        <f t="shared" ref="BH14:BH22" si="31">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="32">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="32">
@@ -4623,19 +4714,19 @@
         <v>1.8148148148148146E-2</v>
       </c>
       <c r="BK14" s="34">
-        <f t="shared" ref="BK14:BK22" si="32">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="33">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>1.4421296296296295E-2</v>
       </c>
       <c r="BL14" s="33"/>
       <c r="BM14" s="33"/>
       <c r="BN14" s="34" t="str">
-        <f t="shared" ref="BN14:BN22" si="33">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="34">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="32"/>
       <c r="BP14" s="33"/>
       <c r="BQ14" s="34" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="34">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="35">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="32">
@@ -4645,7 +4736,7 @@
         <v>1.653935185185185E-2</v>
       </c>
       <c r="BT14" s="34">
-        <f t="shared" ref="BT14:BT22" si="35">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="36">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>1.2812499999999999E-2</v>
       </c>
       <c r="BU14" s="32"/>
@@ -4699,12 +4790,18 @@
       <c r="CS14" s="32"/>
       <c r="CT14" s="33"/>
       <c r="CU14" s="34" t="str">
-        <f t="shared" ref="CU14:CU22" si="36">IF(CS14=0,"NA",CT14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV14" s="37"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV14" s="32"/>
+      <c r="CW14" s="33"/>
+      <c r="CX14" s="34" t="str">
+        <f t="shared" ref="CX14:CX22" si="37">IF(CV14=0,"NA",CW14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="CY14" s="37"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>133</v>
       </c>
@@ -4718,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E6</v>
       </c>
       <c r="F15" s="5">
@@ -4780,7 +4877,7 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0416666666666665E-2</v>
       </c>
       <c r="AC15" s="20">
@@ -4788,7 +4885,7 @@
       </c>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4537037037037035E-2</v>
       </c>
       <c r="AF15" s="21">
@@ -4811,25 +4908,25 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="AM15" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.4537037037037046E-3</v>
       </c>
       <c r="AN15" s="32"/>
       <c r="AO15" s="33"/>
       <c r="AP15" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="33"/>
       <c r="AS15" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AT15" s="33"/>
       <c r="AU15" s="33"/>
       <c r="AV15" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="32"/>
@@ -4841,37 +4938,37 @@
       <c r="AZ15" s="32"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="32"/>
       <c r="BD15" s="33"/>
       <c r="BE15" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="32"/>
       <c r="BG15" s="35"/>
       <c r="BH15" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="32"/>
       <c r="BJ15" s="33"/>
       <c r="BK15" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BL15" s="32"/>
       <c r="BM15" s="33"/>
       <c r="BN15" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO15" s="32"/>
       <c r="BP15" s="33"/>
       <c r="BQ15" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="32">
@@ -4881,7 +4978,7 @@
         <v>7.9976851851851858E-3</v>
       </c>
       <c r="BT15" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.1180555555555562E-3</v>
       </c>
       <c r="BU15" s="32">
@@ -4947,12 +5044,18 @@
       <c r="CS15" s="32"/>
       <c r="CT15" s="33"/>
       <c r="CU15" s="34" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="CV15" s="37"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV15" s="32"/>
+      <c r="CW15" s="33"/>
+      <c r="CX15" s="34" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="CY15" s="37"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>133</v>
       </c>
@@ -4966,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E5</v>
       </c>
       <c r="F16" s="5">
@@ -5030,7 +5133,7 @@
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7905092592592589E-2</v>
       </c>
       <c r="AC16" s="20">
@@ -5040,7 +5143,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.1932870370370363E-2</v>
       </c>
       <c r="AF16" s="21">
@@ -5059,13 +5162,13 @@
       <c r="AK16" s="32"/>
       <c r="AL16" s="35"/>
       <c r="AM16" s="34" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="32"/>
       <c r="AO16" s="35"/>
       <c r="AP16" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="32">
@@ -5075,13 +5178,13 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="AS16" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.5972222222222223E-2</v>
       </c>
       <c r="AT16" s="32"/>
       <c r="AU16" s="35"/>
       <c r="AV16" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="32"/>
@@ -5093,19 +5196,19 @@
       <c r="AZ16" s="32"/>
       <c r="BA16" s="35"/>
       <c r="BB16" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="32"/>
       <c r="BD16" s="35"/>
       <c r="BE16" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="32"/>
       <c r="BG16" s="35"/>
       <c r="BH16" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="43">
@@ -5115,19 +5218,19 @@
         <v>5.7407407407407416E-3</v>
       </c>
       <c r="BK16" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.1574074074074082E-3</v>
       </c>
       <c r="BL16" s="32"/>
       <c r="BM16" s="33"/>
       <c r="BN16" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO16" s="32"/>
       <c r="BP16" s="33"/>
       <c r="BQ16" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="32">
@@ -5137,7 +5240,7 @@
         <v>3.1041666666666665E-2</v>
       </c>
       <c r="BT16" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.6458333333333334E-2</v>
       </c>
       <c r="BU16" s="32"/>
@@ -5191,12 +5294,18 @@
       <c r="CS16" s="32"/>
       <c r="CT16" s="35"/>
       <c r="CU16" s="34" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="CV16" s="37"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV16" s="32"/>
+      <c r="CW16" s="35"/>
+      <c r="CX16" s="34" t="str">
+        <f t="shared" si="37"/>
+        <v>NA</v>
+      </c>
+      <c r="CY16" s="37"/>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>133</v>
       </c>
@@ -5210,7 +5319,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L6</v>
       </c>
       <c r="F17" s="5">
@@ -5259,49 +5368,73 @@
         <v>141</v>
       </c>
       <c r="U17" s="8"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
+      <c r="V17" s="19">
+        <v>2.9224537037037038E-2</v>
+      </c>
+      <c r="W17" s="20">
+        <v>2.854166666666667E-2</v>
+      </c>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
+        <f t="shared" si="24"/>
+        <v>5.7766203703703708E-2</v>
+      </c>
+      <c r="AC17" s="20">
+        <v>7.2916666666666659E-3</v>
+      </c>
+      <c r="AD17" s="20">
+        <v>7.9861111111111122E-3</v>
+      </c>
       <c r="AE17" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
+        <f t="shared" si="25"/>
+        <v>4.2488425925925929E-2</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="21">
+        <v>90</v>
+      </c>
       <c r="AH17" s="22"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="31"/>
+      <c r="AI17" s="30">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="31">
+        <v>4</v>
+      </c>
       <c r="AK17" s="32"/>
       <c r="AL17" s="35"/>
       <c r="AM17" s="34" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="34" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="35"/>
-      <c r="AS17" s="34" t="str">
+      <c r="AN17" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="35">
+        <v>4.2083333333333334E-2</v>
+      </c>
+      <c r="AP17" s="34">
         <f t="shared" si="27"/>
-        <v>NA</v>
+        <v>3.4791666666666665E-2</v>
+      </c>
+      <c r="AQ17" s="32">
+        <v>10</v>
+      </c>
+      <c r="AR17" s="35">
+        <v>2.5196759259259256E-2</v>
+      </c>
+      <c r="AS17" s="34">
+        <f t="shared" si="28"/>
+        <v>1.7905092592592591E-2</v>
       </c>
       <c r="AT17" s="32"/>
       <c r="AU17" s="35"/>
       <c r="AV17" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="32"/>
@@ -5310,46 +5443,50 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="32"/>
-      <c r="BA17" s="35"/>
-      <c r="BB17" s="34" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
+      <c r="AZ17" s="32">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="35">
+        <v>3.3854166666666664E-2</v>
+      </c>
+      <c r="BB17" s="34">
+        <f t="shared" si="30"/>
+        <v>2.6562499999999999E-2</v>
       </c>
       <c r="BC17" s="32"/>
       <c r="BD17" s="35"/>
       <c r="BE17" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF17" s="32"/>
       <c r="BG17" s="35"/>
       <c r="BH17" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="35"/>
       <c r="BK17" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BL17" s="43"/>
       <c r="BM17" s="35"/>
       <c r="BN17" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO17" s="43"/>
       <c r="BP17" s="35"/>
       <c r="BQ17" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR17" s="32"/>
       <c r="BS17" s="33"/>
       <c r="BT17" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BU17" s="32"/>
@@ -5403,12 +5540,22 @@
       <c r="CS17" s="32"/>
       <c r="CT17" s="35"/>
       <c r="CU17" s="34" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="CV17" s="37"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV17" s="32">
+        <v>2</v>
+      </c>
+      <c r="CW17" s="35">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="CX17" s="34">
+        <f t="shared" si="37"/>
+        <v>0.79479166666666667</v>
+      </c>
+      <c r="CY17" s="37"/>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>133</v>
       </c>
@@ -5422,7 +5569,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>D4</v>
       </c>
       <c r="F18" s="5">
@@ -5484,7 +5631,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.6296296296296289E-2</v>
       </c>
       <c r="AC18" s="20">
@@ -5494,7 +5641,7 @@
         <v>9.2361111111111116E-3</v>
       </c>
       <c r="AE18" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.2905092592592585E-2</v>
       </c>
       <c r="AF18" s="21">
@@ -5513,7 +5660,7 @@
       <c r="AK18" s="32"/>
       <c r="AL18" s="35"/>
       <c r="AM18" s="34" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AN18" s="32">
@@ -5523,19 +5670,19 @@
         <v>2.3078703703703702E-2</v>
       </c>
       <c r="AP18" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.892361111111111E-2</v>
       </c>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="35"/>
       <c r="AS18" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="32"/>
       <c r="AU18" s="35"/>
       <c r="AV18" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="32"/>
@@ -5551,43 +5698,43 @@
         <v>1.3321759259259261E-2</v>
       </c>
       <c r="BB18" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9.1666666666666667E-3</v>
       </c>
       <c r="BC18" s="32"/>
       <c r="BD18" s="35"/>
       <c r="BE18" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF18" s="32"/>
       <c r="BG18" s="35"/>
       <c r="BH18" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI18" s="32"/>
       <c r="BJ18" s="35"/>
       <c r="BK18" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BL18" s="32"/>
       <c r="BM18" s="35"/>
       <c r="BN18" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO18" s="32"/>
       <c r="BP18" s="35"/>
       <c r="BQ18" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR18" s="32"/>
       <c r="BS18" s="33"/>
       <c r="BT18" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BU18" s="32"/>
@@ -5638,19 +5785,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS18" s="32">
+      <c r="CS18" s="32"/>
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV18" s="32">
         <v>3</v>
       </c>
-      <c r="CT18" s="35">
+      <c r="CW18" s="35">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="CU18" s="34">
-        <f t="shared" si="36"/>
+      <c r="CX18" s="34">
+        <f t="shared" si="37"/>
         <v>6.9444444444444024E-5</v>
       </c>
-      <c r="CV18" s="37"/>
+      <c r="CY18" s="37"/>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>133</v>
       </c>
@@ -5664,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L5</v>
       </c>
       <c r="F19" s="5">
@@ -5713,49 +5866,69 @@
         <v>141</v>
       </c>
       <c r="U19" s="5"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
+      <c r="V19" s="20">
+        <v>2.1944444444444447E-2</v>
+      </c>
+      <c r="W19" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="X19" s="20">
+        <v>1.5960648148148151E-2</v>
+      </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="20"/>
+        <f t="shared" si="24"/>
+        <v>5.2766203703703704E-2</v>
+      </c>
+      <c r="AC19" s="20">
+        <v>1.6898148148148148E-2</v>
+      </c>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
+        <f t="shared" si="25"/>
+        <v>3.5868055555555556E-2</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>100</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>60</v>
+      </c>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
+      <c r="AI19" s="33">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="33">
+        <v>4</v>
+      </c>
       <c r="AK19" s="33"/>
       <c r="AL19" s="35"/>
       <c r="AM19" s="69" t="str">
-        <f t="shared" si="25"/>
-        <v>NA</v>
-      </c>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="69" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
+      </c>
+      <c r="AN19" s="33">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="AP19" s="69">
+        <f t="shared" si="27"/>
+        <v>1.1831018518518519</v>
       </c>
       <c r="AQ19" s="33"/>
       <c r="AR19" s="35"/>
       <c r="AS19" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="33"/>
       <c r="AU19" s="35"/>
       <c r="AV19" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="33"/>
@@ -5764,46 +5937,50 @@
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="35"/>
-      <c r="BB19" s="69" t="str">
-        <f t="shared" si="29"/>
-        <v>NA</v>
+      <c r="AZ19" s="33">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="35">
+        <v>2.2754629629629628E-2</v>
+      </c>
+      <c r="BB19" s="69">
+        <f t="shared" si="30"/>
+        <v>5.8564814814814799E-3</v>
       </c>
       <c r="BC19" s="33"/>
       <c r="BD19" s="35"/>
       <c r="BE19" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="33"/>
       <c r="BG19" s="35"/>
       <c r="BH19" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="33"/>
       <c r="BJ19" s="35"/>
       <c r="BK19" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BL19" s="33"/>
       <c r="BM19" s="35"/>
       <c r="BN19" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO19" s="33"/>
       <c r="BP19" s="35"/>
       <c r="BQ19" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="33"/>
       <c r="BS19" s="33"/>
       <c r="BT19" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="33"/>
@@ -5857,12 +6034,22 @@
       <c r="CS19" s="33"/>
       <c r="CT19" s="35"/>
       <c r="CU19" s="69" t="str">
-        <f t="shared" si="36"/>
-        <v>NA</v>
-      </c>
-      <c r="CV19" s="33"/>
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV19" s="33">
+        <v>2</v>
+      </c>
+      <c r="CW19" s="35">
+        <v>1.0895833333333333</v>
+      </c>
+      <c r="CX19" s="69">
+        <f t="shared" si="37"/>
+        <v>1.0726851851851853</v>
+      </c>
+      <c r="CY19" s="33"/>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>133</v>
       </c>
@@ -5876,7 +6063,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>D5</v>
       </c>
       <c r="F20" s="5">
@@ -5938,7 +6125,7 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.4189814814814811E-2</v>
       </c>
       <c r="AC20" s="20">
@@ -5948,7 +6135,7 @@
         <v>1.5046296296296295E-2</v>
       </c>
       <c r="AE20" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4687499999999998E-2</v>
       </c>
       <c r="AF20" s="21">
@@ -5967,25 +6154,25 @@
       <c r="AK20" s="33"/>
       <c r="AL20" s="35"/>
       <c r="AM20" s="69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="33"/>
       <c r="AO20" s="35"/>
       <c r="AP20" s="69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="35"/>
       <c r="AS20" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="33"/>
       <c r="AU20" s="35"/>
       <c r="AV20" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="33"/>
@@ -6001,43 +6188,43 @@
         <v>3.050925925925926E-2</v>
       </c>
       <c r="BB20" s="69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.6053240740740741E-2</v>
       </c>
       <c r="BC20" s="33"/>
       <c r="BD20" s="35"/>
       <c r="BE20" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="33"/>
       <c r="BG20" s="35"/>
       <c r="BH20" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="33"/>
       <c r="BJ20" s="35"/>
       <c r="BK20" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="33"/>
       <c r="BM20" s="35"/>
       <c r="BN20" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO20" s="33"/>
       <c r="BP20" s="35"/>
       <c r="BQ20" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="33"/>
       <c r="BS20" s="35"/>
       <c r="BT20" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="33"/>
@@ -6088,19 +6275,25 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS20" s="33">
+      <c r="CS20" s="33"/>
+      <c r="CT20" s="35"/>
+      <c r="CU20" s="69" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV20" s="33">
         <v>1</v>
       </c>
-      <c r="CT20" s="35">
+      <c r="CW20" s="35">
         <v>3.3784722222222223E-2</v>
       </c>
-      <c r="CU20" s="69">
-        <f t="shared" si="36"/>
+      <c r="CX20" s="69">
+        <f t="shared" si="37"/>
         <v>2.9328703703703704E-2</v>
       </c>
-      <c r="CV20" s="33"/>
+      <c r="CY20" s="33"/>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>133</v>
       </c>
@@ -6114,7 +6307,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>D6</v>
       </c>
       <c r="F21" s="5">
@@ -6176,7 +6369,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.9618055555555554E-2</v>
       </c>
       <c r="AC21" s="91">
@@ -6186,7 +6379,7 @@
         <v>2.3148148148148146E-4</v>
       </c>
       <c r="AE21" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5023148148148152E-2</v>
       </c>
       <c r="AF21" s="67">
@@ -6205,25 +6398,25 @@
       <c r="AK21" s="68"/>
       <c r="AL21" s="68"/>
       <c r="AM21" s="69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="68"/>
       <c r="AO21" s="68"/>
       <c r="AP21" s="69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
       <c r="AS21" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="68"/>
       <c r="AU21" s="68"/>
       <c r="AV21" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="68"/>
@@ -6239,19 +6432,19 @@
         <v>5.4398148148148149E-3</v>
       </c>
       <c r="BB21" s="69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.0763888888888889E-3</v>
       </c>
       <c r="BC21" s="68"/>
       <c r="BD21" s="68"/>
       <c r="BE21" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="68"/>
       <c r="BG21" s="68"/>
       <c r="BH21" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="68">
@@ -6261,25 +6454,25 @@
         <v>1.1743055555555555</v>
       </c>
       <c r="BK21" s="69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.1699421296296295</v>
       </c>
       <c r="BL21" s="68"/>
       <c r="BM21" s="68"/>
       <c r="BN21" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO21" s="68"/>
       <c r="BP21" s="68"/>
       <c r="BQ21" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="68"/>
       <c r="BS21" s="68"/>
       <c r="BT21" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BU21" s="68"/>
@@ -6338,15 +6531,25 @@
         <v>1</v>
       </c>
       <c r="CT21" s="93">
+        <v>1.2305555555555556</v>
+      </c>
+      <c r="CU21" s="69">
+        <f t="shared" si="21"/>
+        <v>1.2261921296296296</v>
+      </c>
+      <c r="CV21" s="68">
+        <v>1</v>
+      </c>
+      <c r="CW21" s="93">
         <v>1.4541666666666666</v>
       </c>
-      <c r="CU21" s="69">
-        <f t="shared" si="36"/>
+      <c r="CX21" s="69">
+        <f t="shared" si="37"/>
         <v>1.4498032407407406</v>
       </c>
-      <c r="CV21" s="68"/>
+      <c r="CY21" s="68"/>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>133</v>
       </c>
@@ -6360,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>L4</v>
       </c>
       <c r="F22" s="5">
@@ -6420,7 +6623,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
       <c r="AB22" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1111111111111107E-2</v>
       </c>
       <c r="AC22" s="91">
@@ -6430,7 +6633,7 @@
         <v>6.4004629629629628E-3</v>
       </c>
       <c r="AE22" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.1064814814814811E-2</v>
       </c>
       <c r="AF22" s="67">
@@ -6453,7 +6656,7 @@
         <v>3.8541666666666668E-3</v>
       </c>
       <c r="AM22" s="69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.0833333333333381E-4</v>
       </c>
       <c r="AN22" s="68">
@@ -6463,19 +6666,19 @@
         <v>3.7384259259259263E-3</v>
       </c>
       <c r="AP22" s="69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.2592592592593333E-5</v>
       </c>
       <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
       <c r="AS22" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="68"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="68"/>
@@ -6491,19 +6694,19 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="BB22" s="69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.3715277777777779E-2</v>
       </c>
       <c r="BC22" s="68"/>
       <c r="BD22" s="68"/>
       <c r="BE22" s="69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="68"/>
       <c r="BG22" s="68"/>
       <c r="BH22" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="68">
@@ -6513,25 +6716,25 @@
         <v>2.732638888888889E-2</v>
       </c>
       <c r="BK22" s="69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.3680555555555555E-2</v>
       </c>
       <c r="BL22" s="68"/>
       <c r="BM22" s="68"/>
       <c r="BN22" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BO22" s="68"/>
       <c r="BP22" s="68"/>
       <c r="BQ22" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="68"/>
       <c r="BS22" s="68"/>
       <c r="BT22" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BU22" s="68"/>
@@ -6586,17 +6789,23 @@
         <f t="shared" si="20"/>
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="CS22" s="68">
+      <c r="CS22" s="68"/>
+      <c r="CT22" s="92"/>
+      <c r="CU22" s="69" t="str">
+        <f t="shared" si="21"/>
+        <v>NA</v>
+      </c>
+      <c r="CV22" s="68">
         <v>2</v>
       </c>
-      <c r="CT22" s="92">
+      <c r="CW22" s="92">
         <v>2.3541666666666666E-2</v>
       </c>
-      <c r="CU22" s="69">
-        <f t="shared" si="36"/>
+      <c r="CX22" s="69">
+        <f t="shared" si="37"/>
         <v>1.9895833333333331E-2</v>
       </c>
-      <c r="CV22" s="68"/>
+      <c r="CY22" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33ADB9-A12A-4B4A-964A-7D7481637D1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05DCB0F-2782-4193-AD86-B6673D7E663C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="208">
   <si>
     <t>DATE</t>
   </si>
@@ -648,6 +648,15 @@
   </si>
   <si>
     <t>T1_SANDFISH</t>
+  </si>
+  <si>
+    <t>T1_FISHO</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHO</t>
+  </si>
+  <si>
+    <t>MAXN_FISHO</t>
   </si>
 </sst>
 </file>
@@ -1295,13 +1304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:CY22"/>
+  <dimension ref="A1:DB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW9" sqref="AW9"/>
+      <selection pane="bottomRight" activeCell="CF11" sqref="CF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,13 +1333,14 @@
     <col min="76" max="76" width="8.7265625" style="88"/>
     <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,73 +1585,82 @@
         <v>196</v>
       </c>
       <c r="CD1" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE1" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="CF1" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG1" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="CE1" s="28" t="s">
+      <c r="CH1" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="CF1" s="72" t="s">
+      <c r="CI1" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="CG1" s="27" t="s">
+      <c r="CJ1" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="CH1" s="28" t="s">
+      <c r="CK1" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="CI1" s="72" t="s">
+      <c r="CL1" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="CJ1" s="27" t="s">
+      <c r="CM1" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="CK1" s="28" t="s">
+      <c r="CN1" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="CL1" s="72" t="s">
+      <c r="CO1" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="CM1" s="27" t="s">
+      <c r="CP1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="CN1" s="28" t="s">
+      <c r="CQ1" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="CO1" s="72" t="s">
+      <c r="CR1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="CP1" s="27" t="s">
+      <c r="CS1" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="CQ1" s="28" t="s">
+      <c r="CT1" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="CR1" s="72" t="s">
+      <c r="CU1" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="CS1" s="27" t="s">
+      <c r="CV1" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="CT1" s="28" t="s">
+      <c r="CW1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="CU1" s="72" t="s">
+      <c r="CX1" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="CV1" s="27" t="s">
+      <c r="CY1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="CW1" s="28" t="s">
+      <c r="CZ1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="CX1" s="72" t="s">
+      <c r="DA1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="CY1" s="29" t="s">
+      <c r="DB1" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>93</v>
       </c>
@@ -1879,19 +1898,25 @@
         <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
         <v>NA</v>
       </c>
-      <c r="CV2" s="71">
+      <c r="CV2" s="71"/>
+      <c r="CW2" s="84"/>
+      <c r="CX2" s="34" t="str">
+        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CY2" s="71">
         <v>3</v>
       </c>
-      <c r="CW2" s="84">
+      <c r="CZ2" s="84">
         <v>4.1319444444444442E-3</v>
       </c>
-      <c r="CX2" s="34">
-        <f t="shared" ref="CX2:CX13" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
+      <c r="DA2" s="34">
+        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
         <v>3.2407407407407341E-4</v>
       </c>
-      <c r="CY2" s="37"/>
+      <c r="DB2" s="37"/>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>93</v>
       </c>
@@ -1905,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E22" si="23">C3&amp;""&amp;D3</f>
+        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
         <v>D3</v>
       </c>
       <c r="F3" s="5">
@@ -1973,7 +1998,7 @@
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="24">SUM(V3:AA3)</f>
+        <f t="shared" ref="AB3:AB22" si="25">SUM(V3:AA3)</f>
         <v>7.8148148148148147E-2</v>
       </c>
       <c r="AC3" s="20">
@@ -2131,9 +2156,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY3" s="37"/>
+      <c r="CY3" s="32"/>
+      <c r="CZ3" s="33"/>
+      <c r="DA3" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB3" s="37"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>93</v>
       </c>
@@ -2147,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L2</v>
       </c>
       <c r="F4" s="5">
@@ -2209,7 +2240,7 @@
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.0902777777777778E-2</v>
       </c>
       <c r="AC4" s="20">
@@ -2373,19 +2404,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV4" s="32">
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY4" s="32">
         <v>6</v>
       </c>
-      <c r="CW4" s="35">
+      <c r="CZ4" s="35">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="CX4" s="34">
-        <f t="shared" si="22"/>
+      <c r="DA4" s="34">
+        <f t="shared" si="23"/>
         <v>1.1574074074074091E-4</v>
       </c>
-      <c r="CY4" s="37"/>
+      <c r="DB4" s="37"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
@@ -2399,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L1</v>
       </c>
       <c r="F5" s="5">
@@ -2457,7 +2494,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC5" s="20"/>
@@ -2603,9 +2640,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY5" s="37"/>
+      <c r="CY5" s="32"/>
+      <c r="CZ5" s="33"/>
+      <c r="DA5" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB5" s="37"/>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>93</v>
       </c>
@@ -2619,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D1</v>
       </c>
       <c r="F6" s="5">
@@ -2677,7 +2720,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC6" s="20"/>
@@ -2823,9 +2866,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY6" s="37"/>
+      <c r="CY6" s="32"/>
+      <c r="CZ6" s="33"/>
+      <c r="DA6" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB6" s="37"/>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>93</v>
       </c>
@@ -2839,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L3</v>
       </c>
       <c r="F7" s="5">
@@ -2897,7 +2946,7 @@
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC7" s="20"/>
@@ -3043,9 +3092,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY7" s="37"/>
+      <c r="CY7" s="32"/>
+      <c r="CZ7" s="33"/>
+      <c r="DA7" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB7" s="37"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>121</v>
       </c>
@@ -3059,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L3</v>
       </c>
       <c r="F8" s="5">
@@ -3121,7 +3176,7 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3020833333333336E-2</v>
       </c>
       <c r="AC8" s="20">
@@ -3266,7 +3321,7 @@
         <v>NA</v>
       </c>
       <c r="CP8" s="32"/>
-      <c r="CQ8" s="83"/>
+      <c r="CQ8" s="33"/>
       <c r="CR8" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -3277,19 +3332,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="32">
+      <c r="CV8" s="32"/>
+      <c r="CW8" s="83"/>
+      <c r="CX8" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY8" s="32">
         <v>5</v>
       </c>
-      <c r="CW8" s="83">
+      <c r="CZ8" s="83">
         <v>0.25694444444444448</v>
       </c>
-      <c r="CX8" s="34">
-        <f t="shared" si="22"/>
+      <c r="DA8" s="34">
+        <f t="shared" si="23"/>
         <v>0.25300925925925927</v>
       </c>
-      <c r="CY8" s="37"/>
+      <c r="DB8" s="37"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
@@ -3303,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D1</v>
       </c>
       <c r="F9" s="5">
@@ -3367,7 +3428,7 @@
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5902777777777778E-2</v>
       </c>
       <c r="AC9" s="20">
@@ -3514,7 +3575,7 @@
         <v>NA</v>
       </c>
       <c r="CP9" s="32"/>
-      <c r="CQ9" s="69"/>
+      <c r="CQ9" s="33"/>
       <c r="CR9" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
@@ -3525,19 +3586,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV9" s="32">
+      <c r="CV9" s="32"/>
+      <c r="CW9" s="69"/>
+      <c r="CX9" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY9" s="32">
         <v>2</v>
       </c>
-      <c r="CW9" s="69">
+      <c r="CZ9" s="69">
         <v>2.193287037037037E-2</v>
       </c>
-      <c r="CX9" s="34">
-        <f t="shared" si="22"/>
+      <c r="DA9" s="34">
+        <f t="shared" si="23"/>
         <v>1.8148148148148149E-2</v>
       </c>
-      <c r="CY9" s="37"/>
+      <c r="DB9" s="37"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>121</v>
       </c>
@@ -3551,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L1</v>
       </c>
       <c r="F10" s="5">
@@ -3619,7 +3686,7 @@
       </c>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.2268518518518513E-2</v>
       </c>
       <c r="AC10" s="20">
@@ -3779,19 +3846,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="32">
+      <c r="CV10" s="32"/>
+      <c r="CW10" s="35"/>
+      <c r="CX10" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY10" s="32">
         <v>2</v>
       </c>
-      <c r="CW10" s="35">
+      <c r="CZ10" s="35">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="CX10" s="34">
-        <f t="shared" si="22"/>
+      <c r="DA10" s="34">
+        <f t="shared" si="23"/>
         <v>2.1990740740740738E-3</v>
       </c>
-      <c r="CY10" s="37"/>
+      <c r="DB10" s="37"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>121</v>
       </c>
@@ -3805,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E2</v>
       </c>
       <c r="F11" s="5">
@@ -3865,7 +3938,7 @@
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1307870370370365E-2</v>
       </c>
       <c r="AC11" s="20">
@@ -3994,7 +4067,7 @@
         <v>NA</v>
       </c>
       <c r="BX11" s="86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY11" s="69">
         <v>2.929398148148148E-2</v>
@@ -4009,27 +4082,31 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD11" s="32"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="34" t="str">
+      <c r="CD11" s="32">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="35">
+        <v>4.5173611111111116E-2</v>
+      </c>
+      <c r="CF11" s="34">
         <f t="shared" si="16"/>
-        <v>NA</v>
-      </c>
-      <c r="CG11" s="32">
+        <v>4.1631944444444451E-2</v>
+      </c>
+      <c r="CG11" s="32"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="34" t="str">
+        <f t="shared" si="17"/>
+        <v>NA</v>
+      </c>
+      <c r="CJ11" s="32">
         <v>1</v>
       </c>
-      <c r="CH11" s="35">
+      <c r="CK11" s="35">
         <v>4.9178240740740738E-2</v>
       </c>
-      <c r="CI11" s="34">
-        <f t="shared" si="17"/>
+      <c r="CL11" s="34">
+        <f t="shared" si="18"/>
         <v>4.5636574074074072E-2</v>
-      </c>
-      <c r="CJ11" s="32"/>
-      <c r="CK11" s="35"/>
-      <c r="CL11" s="34" t="str">
-        <f t="shared" si="18"/>
-        <v>NA</v>
       </c>
       <c r="CM11" s="32"/>
       <c r="CN11" s="35"/>
@@ -4049,19 +4126,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV11" s="32">
+      <c r="CV11" s="32"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY11" s="32">
         <v>1</v>
       </c>
-      <c r="CW11" s="35">
+      <c r="CZ11" s="35">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="CX11" s="34">
-        <f t="shared" si="22"/>
+      <c r="DA11" s="34">
+        <f t="shared" si="23"/>
         <v>6.8287037037037058E-4</v>
       </c>
-      <c r="CY11" s="37"/>
+      <c r="DB11" s="37"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -4075,7 +4158,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E3</v>
       </c>
       <c r="F12" s="5">
@@ -4137,7 +4220,7 @@
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.9548611111111106E-2</v>
       </c>
       <c r="AC12" s="20">
@@ -4289,19 +4372,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV12" s="32">
+      <c r="CV12" s="32"/>
+      <c r="CW12" s="83"/>
+      <c r="CX12" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY12" s="32">
         <v>5</v>
       </c>
-      <c r="CW12" s="83">
+      <c r="CZ12" s="83">
         <v>1.2997685185185183E-2</v>
       </c>
-      <c r="CX12" s="34">
-        <f t="shared" si="22"/>
+      <c r="DA12" s="34">
+        <f t="shared" si="23"/>
         <v>9.2939814814814795E-3</v>
       </c>
-      <c r="CY12" s="37"/>
+      <c r="DB12" s="37"/>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>121</v>
       </c>
@@ -4315,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E1</v>
       </c>
       <c r="F13" s="5">
@@ -4375,7 +4464,7 @@
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.5509259259259258E-2</v>
       </c>
       <c r="AC13" s="20">
@@ -4515,31 +4604,31 @@
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ13" s="32">
+      <c r="CJ13" s="32"/>
+      <c r="CK13" s="33"/>
+      <c r="CL13" s="34" t="str">
+        <f t="shared" si="18"/>
+        <v>NA</v>
+      </c>
+      <c r="CM13" s="32">
         <v>1</v>
       </c>
-      <c r="CK13" s="35">
+      <c r="CN13" s="35">
         <v>2.326388888888889E-2</v>
-      </c>
-      <c r="CL13" s="34">
-        <f t="shared" si="18"/>
-        <v>1.8854166666666668E-2</v>
-      </c>
-      <c r="CM13" s="32">
-        <v>2</v>
-      </c>
-      <c r="CN13" s="35">
-        <v>3.3321759259259259E-2</v>
       </c>
       <c r="CO13" s="34">
         <f t="shared" si="19"/>
+        <v>1.8854166666666668E-2</v>
+      </c>
+      <c r="CP13" s="32">
+        <v>2</v>
+      </c>
+      <c r="CQ13" s="35">
+        <v>3.3321759259259259E-2</v>
+      </c>
+      <c r="CR13" s="34">
+        <f t="shared" si="20"/>
         <v>2.8912037037037038E-2</v>
-      </c>
-      <c r="CP13" s="32"/>
-      <c r="CQ13" s="33"/>
-      <c r="CR13" s="34" t="str">
-        <f t="shared" si="20"/>
-        <v>NA</v>
       </c>
       <c r="CS13" s="32"/>
       <c r="CT13" s="33"/>
@@ -4553,9 +4642,15 @@
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY13" s="37"/>
+      <c r="CY13" s="32"/>
+      <c r="CZ13" s="33"/>
+      <c r="DA13" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>NA</v>
+      </c>
+      <c r="DB13" s="37"/>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>133</v>
       </c>
@@ -4569,7 +4664,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E4</v>
       </c>
       <c r="F14" s="5">
@@ -4633,7 +4728,7 @@
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.1759259259259257E-2</v>
       </c>
       <c r="AC14" s="20">
@@ -4643,7 +4738,7 @@
         <v>1.5127314814814816E-2</v>
       </c>
       <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="25">AB14-AC14-AD14</f>
+        <f t="shared" ref="AE14:AE22" si="26">AB14-AC14-AD14</f>
         <v>4.2905092592592592E-2</v>
       </c>
       <c r="AF14" s="21">
@@ -4662,25 +4757,25 @@
       <c r="AK14" s="32"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="34" t="str">
-        <f t="shared" ref="AM14:AM22" si="26">IF(AK14=0,"NA",AL14-$AC14)</f>
+        <f t="shared" ref="AM14:AM22" si="27">IF(AK14=0,"NA",AL14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="34" t="str">
-        <f t="shared" ref="AP14:AP22" si="27">IF(AN14=0,"NA",AO14-$AC14)</f>
+        <f t="shared" ref="AP14:AP22" si="28">IF(AN14=0,"NA",AO14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="33"/>
       <c r="AS14" s="34" t="str">
-        <f t="shared" ref="AS14:AS22" si="28">IF(AQ14=0,"NA",AR14-$AC14)</f>
+        <f t="shared" ref="AS14:AS22" si="29">IF(AQ14=0,"NA",AR14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AT14" s="33"/>
       <c r="AU14" s="33"/>
       <c r="AV14" s="34" t="str">
-        <f t="shared" ref="AV14:AV22" si="29">IF(AT14=0,"NA",AU14-$AC14)</f>
+        <f t="shared" ref="AV14:AV22" si="30">IF(AT14=0,"NA",AU14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="AW14" s="32"/>
@@ -4692,19 +4787,19 @@
       <c r="AZ14" s="32"/>
       <c r="BA14" s="35"/>
       <c r="BB14" s="34" t="str">
-        <f t="shared" ref="BB14:BB22" si="30">IF(AZ14=0,"NA",BA14-$AC14)</f>
+        <f t="shared" ref="BB14:BB22" si="31">IF(AZ14=0,"NA",BA14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BC14" s="32"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="34" t="str">
-        <f t="shared" ref="BE14:BE22" si="31">IF(BC14=0,"NA",BD14-$AC14)</f>
+        <f t="shared" ref="BE14:BE22" si="32">IF(BC14=0,"NA",BD14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BF14" s="32"/>
       <c r="BG14" s="35"/>
       <c r="BH14" s="34" t="str">
-        <f t="shared" ref="BH14:BH22" si="32">IF(BF14=0,"NA",BG14-$AC14)</f>
+        <f t="shared" ref="BH14:BH22" si="33">IF(BF14=0,"NA",BG14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BI14" s="32">
@@ -4714,19 +4809,19 @@
         <v>1.8148148148148146E-2</v>
       </c>
       <c r="BK14" s="34">
-        <f t="shared" ref="BK14:BK22" si="33">IF(BI14=0,"NA",BJ14-$AC14)</f>
+        <f t="shared" ref="BK14:BK22" si="34">IF(BI14=0,"NA",BJ14-$AC14)</f>
         <v>1.4421296296296295E-2</v>
       </c>
       <c r="BL14" s="33"/>
       <c r="BM14" s="33"/>
       <c r="BN14" s="34" t="str">
-        <f t="shared" ref="BN14:BN22" si="34">IF(BL14=0,"NA",BM14-$AC14)</f>
+        <f t="shared" ref="BN14:BN22" si="35">IF(BL14=0,"NA",BM14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BO14" s="32"/>
       <c r="BP14" s="33"/>
       <c r="BQ14" s="34" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="35">IF(BO14=0,"NA",BP14-$AC14)</f>
+        <f t="shared" ref="BQ14:BQ22" si="36">IF(BO14=0,"NA",BP14-$AC14)</f>
         <v>NA</v>
       </c>
       <c r="BR14" s="32">
@@ -4736,7 +4831,7 @@
         <v>1.653935185185185E-2</v>
       </c>
       <c r="BT14" s="34">
-        <f t="shared" ref="BT14:BT22" si="36">IF(BR14=0,"NA",BS14-$AC14)</f>
+        <f t="shared" ref="BT14:BT22" si="37">IF(BR14=0,"NA",BS14-$AC14)</f>
         <v>1.2812499999999999E-2</v>
       </c>
       <c r="BU14" s="32"/>
@@ -4796,12 +4891,18 @@
       <c r="CV14" s="32"/>
       <c r="CW14" s="33"/>
       <c r="CX14" s="34" t="str">
-        <f t="shared" ref="CX14:CX22" si="37">IF(CV14=0,"NA",CW14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CY14" s="37"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY14" s="32"/>
+      <c r="CZ14" s="33"/>
+      <c r="DA14" s="34" t="str">
+        <f t="shared" ref="DA14:DA22" si="38">IF(CY14=0,"NA",CZ14-$AC14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DB14" s="37"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>133</v>
       </c>
@@ -4815,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E6</v>
       </c>
       <c r="F15" s="5">
@@ -4877,7 +4978,7 @@
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0416666666666665E-2</v>
       </c>
       <c r="AC15" s="20">
@@ -4885,7 +4986,7 @@
       </c>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.4537037037037035E-2</v>
       </c>
       <c r="AF15" s="21">
@@ -4908,25 +5009,25 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="AM15" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.4537037037037046E-3</v>
       </c>
       <c r="AN15" s="32"/>
       <c r="AO15" s="33"/>
       <c r="AP15" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="33"/>
       <c r="AS15" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT15" s="33"/>
       <c r="AU15" s="33"/>
       <c r="AV15" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW15" s="32"/>
@@ -4938,37 +5039,37 @@
       <c r="AZ15" s="32"/>
       <c r="BA15" s="33"/>
       <c r="BB15" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BC15" s="32"/>
       <c r="BD15" s="33"/>
       <c r="BE15" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF15" s="32"/>
       <c r="BG15" s="35"/>
       <c r="BH15" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI15" s="32"/>
       <c r="BJ15" s="33"/>
       <c r="BK15" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL15" s="32"/>
       <c r="BM15" s="33"/>
       <c r="BN15" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO15" s="32"/>
       <c r="BP15" s="33"/>
       <c r="BQ15" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR15" s="32">
@@ -4978,7 +5079,7 @@
         <v>7.9976851851851858E-3</v>
       </c>
       <c r="BT15" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.1180555555555562E-3</v>
       </c>
       <c r="BU15" s="32">
@@ -5007,21 +5108,21 @@
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD15" s="32">
+      <c r="CD15" s="32"/>
+      <c r="CE15" s="83"/>
+      <c r="CF15" s="34" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="CG15" s="32">
         <v>1</v>
       </c>
-      <c r="CE15" s="83">
+      <c r="CH15" s="83">
         <v>1.0289351851851852E-2</v>
       </c>
-      <c r="CF15" s="34">
-        <f t="shared" si="16"/>
+      <c r="CI15" s="34">
+        <f t="shared" si="17"/>
         <v>4.409722222222222E-3</v>
-      </c>
-      <c r="CG15" s="32"/>
-      <c r="CH15" s="33"/>
-      <c r="CI15" s="34" t="str">
-        <f t="shared" si="17"/>
-        <v>NA</v>
       </c>
       <c r="CJ15" s="32"/>
       <c r="CK15" s="33"/>
@@ -5050,12 +5151,18 @@
       <c r="CV15" s="32"/>
       <c r="CW15" s="33"/>
       <c r="CX15" s="34" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CY15" s="37"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY15" s="32"/>
+      <c r="CZ15" s="33"/>
+      <c r="DA15" s="34" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="DB15" s="37"/>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>133</v>
       </c>
@@ -5069,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>E5</v>
       </c>
       <c r="F16" s="5">
@@ -5133,7 +5240,7 @@
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.7905092592592589E-2</v>
       </c>
       <c r="AC16" s="20">
@@ -5143,7 +5250,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.1932870370370363E-2</v>
       </c>
       <c r="AF16" s="21">
@@ -5162,13 +5269,13 @@
       <c r="AK16" s="32"/>
       <c r="AL16" s="35"/>
       <c r="AM16" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN16" s="32"/>
       <c r="AO16" s="35"/>
       <c r="AP16" s="34" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ16" s="32">
@@ -5178,13 +5285,13 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="AS16" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.5972222222222223E-2</v>
       </c>
       <c r="AT16" s="32"/>
       <c r="AU16" s="35"/>
       <c r="AV16" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW16" s="32"/>
@@ -5196,19 +5303,19 @@
       <c r="AZ16" s="32"/>
       <c r="BA16" s="35"/>
       <c r="BB16" s="34" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>NA</v>
       </c>
       <c r="BC16" s="32"/>
       <c r="BD16" s="35"/>
       <c r="BE16" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF16" s="32"/>
       <c r="BG16" s="35"/>
       <c r="BH16" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI16" s="43">
@@ -5218,19 +5325,19 @@
         <v>5.7407407407407416E-3</v>
       </c>
       <c r="BK16" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.1574074074074082E-3</v>
       </c>
       <c r="BL16" s="32"/>
       <c r="BM16" s="33"/>
       <c r="BN16" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO16" s="32"/>
       <c r="BP16" s="33"/>
       <c r="BQ16" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR16" s="32">
@@ -5240,7 +5347,7 @@
         <v>3.1041666666666665E-2</v>
       </c>
       <c r="BT16" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.6458333333333334E-2</v>
       </c>
       <c r="BU16" s="32"/>
@@ -5300,12 +5407,18 @@
       <c r="CV16" s="32"/>
       <c r="CW16" s="35"/>
       <c r="CX16" s="34" t="str">
-        <f t="shared" si="37"/>
-        <v>NA</v>
-      </c>
-      <c r="CY16" s="37"/>
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY16" s="32"/>
+      <c r="CZ16" s="35"/>
+      <c r="DA16" s="34" t="str">
+        <f t="shared" si="38"/>
+        <v>NA</v>
+      </c>
+      <c r="DB16" s="37"/>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>133</v>
       </c>
@@ -5319,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L6</v>
       </c>
       <c r="F17" s="5">
@@ -5379,7 +5492,7 @@
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.7766203703703708E-2</v>
       </c>
       <c r="AC17" s="20">
@@ -5389,7 +5502,7 @@
         <v>7.9861111111111122E-3</v>
       </c>
       <c r="AE17" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.2488425925925929E-2</v>
       </c>
       <c r="AF17" s="21">
@@ -5408,7 +5521,7 @@
       <c r="AK17" s="32"/>
       <c r="AL17" s="35"/>
       <c r="AM17" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN17" s="32">
@@ -5418,7 +5531,7 @@
         <v>4.2083333333333334E-2</v>
       </c>
       <c r="AP17" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.4791666666666665E-2</v>
       </c>
       <c r="AQ17" s="32">
@@ -5428,13 +5541,13 @@
         <v>2.5196759259259256E-2</v>
       </c>
       <c r="AS17" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.7905092592592591E-2</v>
       </c>
       <c r="AT17" s="32"/>
       <c r="AU17" s="35"/>
       <c r="AV17" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW17" s="32"/>
@@ -5450,43 +5563,43 @@
         <v>3.3854166666666664E-2</v>
       </c>
       <c r="BB17" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.6562499999999999E-2</v>
       </c>
       <c r="BC17" s="32"/>
       <c r="BD17" s="35"/>
       <c r="BE17" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF17" s="32"/>
       <c r="BG17" s="35"/>
       <c r="BH17" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="35"/>
       <c r="BK17" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL17" s="43"/>
       <c r="BM17" s="35"/>
       <c r="BN17" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO17" s="43"/>
       <c r="BP17" s="35"/>
       <c r="BQ17" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR17" s="32"/>
       <c r="BS17" s="33"/>
       <c r="BT17" s="34" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU17" s="32"/>
@@ -5543,19 +5656,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV17" s="32">
+      <c r="CV17" s="32"/>
+      <c r="CW17" s="35"/>
+      <c r="CX17" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY17" s="32">
         <v>2</v>
       </c>
-      <c r="CW17" s="35">
+      <c r="CZ17" s="35">
         <v>0.80208333333333337</v>
       </c>
-      <c r="CX17" s="34">
-        <f t="shared" si="37"/>
+      <c r="DA17" s="34">
+        <f t="shared" si="38"/>
         <v>0.79479166666666667</v>
       </c>
-      <c r="CY17" s="37"/>
+      <c r="DB17" s="37"/>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>133</v>
       </c>
@@ -5569,7 +5688,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D4</v>
       </c>
       <c r="F18" s="5">
@@ -5631,7 +5750,7 @@
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.6296296296296289E-2</v>
       </c>
       <c r="AC18" s="20">
@@ -5641,7 +5760,7 @@
         <v>9.2361111111111116E-3</v>
       </c>
       <c r="AE18" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.2905092592592585E-2</v>
       </c>
       <c r="AF18" s="21">
@@ -5660,7 +5779,7 @@
       <c r="AK18" s="32"/>
       <c r="AL18" s="35"/>
       <c r="AM18" s="34" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN18" s="32">
@@ -5670,19 +5789,19 @@
         <v>2.3078703703703702E-2</v>
       </c>
       <c r="AP18" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.892361111111111E-2</v>
       </c>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="35"/>
       <c r="AS18" s="34" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT18" s="32"/>
       <c r="AU18" s="35"/>
       <c r="AV18" s="34" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW18" s="32"/>
@@ -5698,43 +5817,43 @@
         <v>1.3321759259259261E-2</v>
       </c>
       <c r="BB18" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9.1666666666666667E-3</v>
       </c>
       <c r="BC18" s="32"/>
       <c r="BD18" s="35"/>
       <c r="BE18" s="34" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF18" s="32"/>
       <c r="BG18" s="35"/>
       <c r="BH18" s="34" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI18" s="32"/>
       <c r="BJ18" s="35"/>
       <c r="BK18" s="34" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL18" s="32"/>
       <c r="BM18" s="35"/>
       <c r="BN18" s="34" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO18" s="32"/>
       <c r="BP18" s="35"/>
       <c r="BQ18" s="34" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR18" s="32"/>
       <c r="BS18" s="33"/>
       <c r="BT18" s="34" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU18" s="32"/>
@@ -5791,19 +5910,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV18" s="32">
+      <c r="CV18" s="32"/>
+      <c r="CW18" s="35"/>
+      <c r="CX18" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY18" s="32">
         <v>3</v>
       </c>
-      <c r="CW18" s="35">
+      <c r="CZ18" s="35">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="CX18" s="34">
-        <f t="shared" si="37"/>
+      <c r="DA18" s="34">
+        <f t="shared" si="38"/>
         <v>6.9444444444444024E-5</v>
       </c>
-      <c r="CY18" s="37"/>
+      <c r="DB18" s="37"/>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>133</v>
       </c>
@@ -5817,7 +5942,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L5</v>
       </c>
       <c r="F19" s="5">
@@ -5879,7 +6004,7 @@
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.2766203703703704E-2</v>
       </c>
       <c r="AC19" s="20">
@@ -5887,7 +6012,7 @@
       </c>
       <c r="AD19" s="20"/>
       <c r="AE19" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.5868055555555556E-2</v>
       </c>
       <c r="AF19" s="21">
@@ -5906,7 +6031,7 @@
       <c r="AK19" s="33"/>
       <c r="AL19" s="35"/>
       <c r="AM19" s="69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN19" s="33">
@@ -5916,19 +6041,19 @@
         <v>1.2</v>
       </c>
       <c r="AP19" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.1831018518518519</v>
       </c>
       <c r="AQ19" s="33"/>
       <c r="AR19" s="35"/>
       <c r="AS19" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT19" s="33"/>
       <c r="AU19" s="35"/>
       <c r="AV19" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW19" s="33"/>
@@ -5944,43 +6069,43 @@
         <v>2.2754629629629628E-2</v>
       </c>
       <c r="BB19" s="69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.8564814814814799E-3</v>
       </c>
       <c r="BC19" s="33"/>
       <c r="BD19" s="35"/>
       <c r="BE19" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF19" s="33"/>
       <c r="BG19" s="35"/>
       <c r="BH19" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI19" s="33"/>
       <c r="BJ19" s="35"/>
       <c r="BK19" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL19" s="33"/>
       <c r="BM19" s="35"/>
       <c r="BN19" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO19" s="33"/>
       <c r="BP19" s="35"/>
       <c r="BQ19" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR19" s="33"/>
       <c r="BS19" s="33"/>
       <c r="BT19" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU19" s="33"/>
@@ -6037,19 +6162,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="33">
+      <c r="CV19" s="33"/>
+      <c r="CW19" s="35"/>
+      <c r="CX19" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY19" s="33">
         <v>2</v>
       </c>
-      <c r="CW19" s="35">
+      <c r="CZ19" s="35">
         <v>1.0895833333333333</v>
       </c>
-      <c r="CX19" s="69">
-        <f t="shared" si="37"/>
+      <c r="DA19" s="69">
+        <f t="shared" si="38"/>
         <v>1.0726851851851853</v>
       </c>
-      <c r="CY19" s="33"/>
+      <c r="DB19" s="33"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>133</v>
       </c>
@@ -6063,7 +6194,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D5</v>
       </c>
       <c r="F20" s="5">
@@ -6125,7 +6256,7 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.4189814814814811E-2</v>
       </c>
       <c r="AC20" s="20">
@@ -6135,7 +6266,7 @@
         <v>1.5046296296296295E-2</v>
       </c>
       <c r="AE20" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.4687499999999998E-2</v>
       </c>
       <c r="AF20" s="21">
@@ -6154,25 +6285,25 @@
       <c r="AK20" s="33"/>
       <c r="AL20" s="35"/>
       <c r="AM20" s="69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN20" s="33"/>
       <c r="AO20" s="35"/>
       <c r="AP20" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="35"/>
       <c r="AS20" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT20" s="33"/>
       <c r="AU20" s="35"/>
       <c r="AV20" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW20" s="33"/>
@@ -6188,43 +6319,43 @@
         <v>3.050925925925926E-2</v>
       </c>
       <c r="BB20" s="69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.6053240740740741E-2</v>
       </c>
       <c r="BC20" s="33"/>
       <c r="BD20" s="35"/>
       <c r="BE20" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF20" s="33"/>
       <c r="BG20" s="35"/>
       <c r="BH20" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI20" s="33"/>
       <c r="BJ20" s="35"/>
       <c r="BK20" s="69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>NA</v>
       </c>
       <c r="BL20" s="33"/>
       <c r="BM20" s="35"/>
       <c r="BN20" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO20" s="33"/>
       <c r="BP20" s="35"/>
       <c r="BQ20" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR20" s="33"/>
       <c r="BS20" s="35"/>
       <c r="BT20" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU20" s="33"/>
@@ -6281,19 +6412,25 @@
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV20" s="33">
+      <c r="CV20" s="33"/>
+      <c r="CW20" s="35"/>
+      <c r="CX20" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY20" s="33">
         <v>1</v>
       </c>
-      <c r="CW20" s="35">
+      <c r="CZ20" s="35">
         <v>3.3784722222222223E-2</v>
       </c>
-      <c r="CX20" s="69">
-        <f t="shared" si="37"/>
+      <c r="DA20" s="69">
+        <f t="shared" si="38"/>
         <v>2.9328703703703704E-2</v>
       </c>
-      <c r="CY20" s="33"/>
+      <c r="DB20" s="33"/>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>133</v>
       </c>
@@ -6307,7 +6444,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D6</v>
       </c>
       <c r="F21" s="5">
@@ -6369,7 +6506,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.9618055555555554E-2</v>
       </c>
       <c r="AC21" s="91">
@@ -6379,7 +6516,7 @@
         <v>2.3148148148148146E-4</v>
       </c>
       <c r="AE21" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5023148148148152E-2</v>
       </c>
       <c r="AF21" s="67">
@@ -6398,25 +6535,25 @@
       <c r="AK21" s="68"/>
       <c r="AL21" s="68"/>
       <c r="AM21" s="69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>NA</v>
       </c>
       <c r="AN21" s="68"/>
       <c r="AO21" s="68"/>
       <c r="AP21" s="69" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>NA</v>
       </c>
       <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
       <c r="AS21" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT21" s="68"/>
       <c r="AU21" s="68"/>
       <c r="AV21" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW21" s="68"/>
@@ -6432,19 +6569,19 @@
         <v>5.4398148148148149E-3</v>
       </c>
       <c r="BB21" s="69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.0763888888888889E-3</v>
       </c>
       <c r="BC21" s="68"/>
       <c r="BD21" s="68"/>
       <c r="BE21" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF21" s="68"/>
       <c r="BG21" s="68"/>
       <c r="BH21" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI21" s="68">
@@ -6454,25 +6591,25 @@
         <v>1.1743055555555555</v>
       </c>
       <c r="BK21" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.1699421296296295</v>
       </c>
       <c r="BL21" s="68"/>
       <c r="BM21" s="68"/>
       <c r="BN21" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO21" s="68"/>
       <c r="BP21" s="68"/>
       <c r="BQ21" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR21" s="68"/>
       <c r="BS21" s="68"/>
       <c r="BT21" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU21" s="68"/>
@@ -6527,29 +6664,35 @@
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS21" s="68">
-        <v>1</v>
-      </c>
-      <c r="CT21" s="93">
-        <v>1.2305555555555556</v>
-      </c>
-      <c r="CU21" s="69">
+      <c r="CS21" s="68"/>
+      <c r="CT21" s="68"/>
+      <c r="CU21" s="69" t="str">
         <f t="shared" si="21"/>
-        <v>1.2261921296296296</v>
+        <v>NA</v>
       </c>
       <c r="CV21" s="68">
         <v>1</v>
       </c>
       <c r="CW21" s="93">
+        <v>1.2305555555555556</v>
+      </c>
+      <c r="CX21" s="69">
+        <f t="shared" si="22"/>
+        <v>1.2261921296296296</v>
+      </c>
+      <c r="CY21" s="68">
+        <v>1</v>
+      </c>
+      <c r="CZ21" s="93">
         <v>1.4541666666666666</v>
       </c>
-      <c r="CX21" s="69">
-        <f t="shared" si="37"/>
+      <c r="DA21" s="69">
+        <f t="shared" si="38"/>
         <v>1.4498032407407406</v>
       </c>
-      <c r="CY21" s="68"/>
+      <c r="DB21" s="68"/>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>133</v>
       </c>
@@ -6563,7 +6706,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L4</v>
       </c>
       <c r="F22" s="5">
@@ -6623,7 +6766,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
       <c r="AB22" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1111111111111107E-2</v>
       </c>
       <c r="AC22" s="91">
@@ -6633,7 +6776,7 @@
         <v>6.4004629629629628E-3</v>
       </c>
       <c r="AE22" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.1064814814814811E-2</v>
       </c>
       <c r="AF22" s="67">
@@ -6656,7 +6799,7 @@
         <v>3.8541666666666668E-3</v>
       </c>
       <c r="AM22" s="69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.0833333333333381E-4</v>
       </c>
       <c r="AN22" s="68">
@@ -6666,19 +6809,19 @@
         <v>3.7384259259259263E-3</v>
       </c>
       <c r="AP22" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.2592592592593333E-5</v>
       </c>
       <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
       <c r="AS22" s="69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>NA</v>
       </c>
       <c r="AT22" s="68"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>NA</v>
       </c>
       <c r="AW22" s="68"/>
@@ -6694,19 +6837,19 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="BB22" s="69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.3715277777777779E-2</v>
       </c>
       <c r="BC22" s="68"/>
       <c r="BD22" s="68"/>
       <c r="BE22" s="69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>NA</v>
       </c>
       <c r="BF22" s="68"/>
       <c r="BG22" s="68"/>
       <c r="BH22" s="69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>NA</v>
       </c>
       <c r="BI22" s="68">
@@ -6716,25 +6859,25 @@
         <v>2.732638888888889E-2</v>
       </c>
       <c r="BK22" s="69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.3680555555555555E-2</v>
       </c>
       <c r="BL22" s="68"/>
       <c r="BM22" s="68"/>
       <c r="BN22" s="69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>NA</v>
       </c>
       <c r="BO22" s="68"/>
       <c r="BP22" s="68"/>
       <c r="BQ22" s="69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>NA</v>
       </c>
       <c r="BR22" s="68"/>
       <c r="BS22" s="68"/>
       <c r="BT22" s="69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>NA</v>
       </c>
       <c r="BU22" s="68"/>
@@ -6779,33 +6922,39 @@
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP22" s="68">
+      <c r="CP22" s="68"/>
+      <c r="CQ22" s="68"/>
+      <c r="CR22" s="69" t="str">
+        <f t="shared" si="20"/>
+        <v>NA</v>
+      </c>
+      <c r="CS22" s="68">
         <v>1</v>
       </c>
-      <c r="CQ22" s="92">
+      <c r="CT22" s="92">
         <v>7.789351851851852E-3</v>
       </c>
-      <c r="CR22" s="69">
-        <f t="shared" si="20"/>
+      <c r="CU22" s="69">
+        <f t="shared" si="21"/>
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="CS22" s="68"/>
-      <c r="CT22" s="92"/>
-      <c r="CU22" s="69" t="str">
-        <f t="shared" si="21"/>
-        <v>NA</v>
-      </c>
-      <c r="CV22" s="68">
+      <c r="CV22" s="68"/>
+      <c r="CW22" s="92"/>
+      <c r="CX22" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>NA</v>
+      </c>
+      <c r="CY22" s="68">
         <v>2</v>
       </c>
-      <c r="CW22" s="92">
+      <c r="CZ22" s="92">
         <v>2.3541666666666666E-2</v>
       </c>
-      <c r="CX22" s="69">
-        <f t="shared" si="37"/>
+      <c r="DA22" s="69">
+        <f t="shared" si="38"/>
         <v>1.9895833333333331E-2</v>
       </c>
-      <c r="CY22" s="68"/>
+      <c r="DB22" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05DCB0F-2782-4193-AD86-B6673D7E663C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A49E3-3EA1-40D8-88D0-6E7B2E6B1AC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1306,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
   <dimension ref="A1:DB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6967,8 +6967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E619138-F039-4841-928C-9D919C758651}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>89</v>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5A49E3-3EA1-40D8-88D0-6E7B2E6B1AC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1774D3D7-9FC6-4C9F-B032-695613EB7FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MetaData" sheetId="3" r:id="rId3"/>
     <sheet name="LATLON" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="207">
   <si>
     <t>DATE</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>27_03_2024_1440_C5_D1_LRMD2</t>
   </si>
   <si>
     <t>B14</t>
@@ -1307,10 +1304,10 @@
   <dimension ref="A1:DB22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CF11" sqref="CF11"/>
+      <selection pane="bottomRight" activeCell="CD13" sqref="CD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1354,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1414,13 +1411,13 @@
         <v>15</v>
       </c>
       <c r="Y1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="AB1" s="16" t="s">
         <v>4</v>
@@ -1486,13 +1483,13 @@
         <v>54</v>
       </c>
       <c r="AW1" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX1" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="AX1" s="28" t="s">
+      <c r="AY1" s="29" t="s">
         <v>186</v>
-      </c>
-      <c r="AY1" s="29" t="s">
-        <v>187</v>
       </c>
       <c r="AZ1" s="27" t="s">
         <v>36</v>
@@ -1549,103 +1546,103 @@
         <v>64</v>
       </c>
       <c r="BR1" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="BS1" s="28" t="s">
+      <c r="BT1" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="BT1" s="29" t="s">
+      <c r="BU1" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="BU1" s="27" t="s">
+      <c r="BV1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="BV1" s="28" t="s">
+      <c r="BW1" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="BW1" s="29" t="s">
+      <c r="BX1" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ1" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB1" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="CC1" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD1" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE1" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF1" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG1" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="BX1" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="BY1" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ1" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="CA1" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="CB1" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="CC1" s="72" t="s">
-        <v>196</v>
-      </c>
-      <c r="CD1" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="CE1" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="CF1" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="CG1" s="27" t="s">
+      <c r="CH1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="CH1" s="28" t="s">
+      <c r="CI1" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="CI1" s="72" t="s">
-        <v>181</v>
-      </c>
       <c r="CJ1" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="CK1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="CK1" s="28" t="s">
+      <c r="CL1" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="CL1" s="72" t="s">
+      <c r="CM1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="CM1" s="27" t="s">
+      <c r="CN1" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="CN1" s="28" t="s">
+      <c r="CO1" s="72" t="s">
         <v>192</v>
-      </c>
-      <c r="CO1" s="72" t="s">
-        <v>193</v>
       </c>
       <c r="CP1" s="27" t="s">
         <v>65</v>
       </c>
       <c r="CQ1" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CR1" s="72" t="s">
         <v>66</v>
       </c>
       <c r="CS1" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT1" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" s="28" t="s">
+      <c r="CU1" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" s="72" t="s">
-        <v>200</v>
-      </c>
       <c r="CV1" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="CW1" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="CW1" s="28" t="s">
+      <c r="CX1" s="72" t="s">
         <v>203</v>
-      </c>
-      <c r="CX1" s="72" t="s">
-        <v>204</v>
       </c>
       <c r="CY1" s="27" t="s">
         <v>12</v>
@@ -1704,14 +1701,14 @@
         <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O2" s="5">
         <v>3</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>97</v>
@@ -1958,14 +1955,14 @@
         <v>31</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O3" s="5">
         <v>6</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>97</v>
@@ -1977,7 +1974,7 @@
         <v>95</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V3" s="19">
         <v>1.7569444444444447E-2</v>
@@ -2208,14 +2205,14 @@
         <v>96</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O4" s="5">
         <v>3</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>97</v>
@@ -2466,14 +2463,14 @@
         <v>40</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O5" s="5">
         <v>3</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>97</v>
@@ -2485,7 +2482,7 @@
         <v>95</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V5" s="19"/>
       <c r="W5" s="20"/>
@@ -2692,14 +2689,14 @@
         <v>96</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O6" s="5">
         <v>3</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>97</v>
@@ -2711,7 +2708,7 @@
         <v>95</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V6" s="19"/>
       <c r="W6" s="20"/>
@@ -2918,14 +2915,14 @@
         <v>96</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O7" s="5">
         <v>3</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>97</v>
@@ -2937,7 +2934,7 @@
         <v>95</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V7" s="19"/>
       <c r="W7" s="20"/>
@@ -3102,7 +3099,7 @@
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>94</v>
@@ -3144,26 +3141,26 @@
         <v>50</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O8" s="5">
         <v>2</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S8" s="5">
         <v>0.19</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V8" s="19">
         <v>3.2546296296296295E-2</v>
@@ -3352,7 +3349,7 @@
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>94</v>
@@ -3394,26 +3391,26 @@
         <v>61</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O9" s="5">
         <v>3</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S9" s="5">
         <v>0.19</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V9" s="19">
         <v>1.982638888888889E-2</v>
@@ -3606,7 +3603,7 @@
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>94</v>
@@ -3648,26 +3645,26 @@
         <v>55</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="5">
         <v>5</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S10" s="5">
         <v>0.19</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V10" s="19">
         <v>8.7962962962962962E-4</v>
@@ -3866,13 +3863,13 @@
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
@@ -3908,23 +3905,23 @@
         <v>68</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O11" s="5">
         <v>2</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S11" s="5">
         <v>0.19</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="19">
@@ -4146,13 +4143,13 @@
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -4188,23 +4185,23 @@
         <v>59</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O12" s="5">
         <v>3</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S12" s="5">
         <v>0.22</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="19">
@@ -4392,13 +4389,13 @@
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -4434,23 +4431,23 @@
         <v>98</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O13" s="5">
         <v>2</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S13" s="5">
         <v>0.22</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="19">
@@ -4652,13 +4649,13 @@
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="5">
         <v>4</v>
@@ -4694,17 +4691,17 @@
         <v>39</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O14" s="5">
         <v>4</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="S14" s="5">
         <v>0.18</v>
@@ -4904,13 +4901,13 @@
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5">
         <v>6</v>
@@ -4946,17 +4943,17 @@
         <v>61</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O15" s="5">
         <v>3</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S15" s="5">
         <v>0.15</v>
@@ -5164,13 +5161,13 @@
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
@@ -5206,17 +5203,17 @@
         <v>63</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O16" s="5">
         <v>4</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S16" s="5">
         <v>0.15</v>
@@ -5420,10 +5417,10 @@
     </row>
     <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
@@ -5462,23 +5459,23 @@
         <v>30</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O17" s="5">
         <v>2</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S17" s="5">
         <v>0.24</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="19">
@@ -5676,10 +5673,10 @@
     </row>
     <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>95</v>
@@ -5718,23 +5715,23 @@
         <v>30</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O18" s="5">
         <v>3</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S18" s="5">
         <v>0.26</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="19">
@@ -5930,10 +5927,10 @@
     </row>
     <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>99</v>
@@ -5972,23 +5969,23 @@
         <v>18</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O19" s="5">
         <v>4</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S19" s="5">
         <v>0.26</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="20">
@@ -6182,10 +6179,10 @@
     </row>
     <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>95</v>
@@ -6224,23 +6221,23 @@
         <v>20</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O20" s="5">
         <v>3</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S20" s="5">
         <v>0.26</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="20">
@@ -6432,10 +6429,10 @@
     </row>
     <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>95</v>
@@ -6474,23 +6471,23 @@
         <v>22</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" s="65">
         <v>3</v>
       </c>
       <c r="P21" s="65"/>
       <c r="Q21" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S21" s="65">
         <v>0.28000000000000003</v>
       </c>
       <c r="T21" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U21" s="65"/>
       <c r="V21" s="66">
@@ -6694,10 +6691,10 @@
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>99</v>
@@ -6736,23 +6733,23 @@
         <v>30</v>
       </c>
       <c r="N22" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O22" s="65">
         <v>2</v>
       </c>
       <c r="P22" s="65"/>
       <c r="Q22" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S22" s="65">
         <v>0.28000000000000003</v>
       </c>
       <c r="T22" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U22" s="65"/>
       <c r="V22" s="66">
@@ -6967,7 +6964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E619138-F039-4841-928C-9D919C758651}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6975,47 +6972,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="63">
         <v>0.35000000000000003</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="63">
         <v>0.59236111111111112</v>
@@ -7023,13 +7020,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="63">
         <v>0.59513888888888888</v>
@@ -7044,9 +7041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C275047-2B6F-478B-B578-4E8B665EBECB}">
   <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7298,67 +7295,33 @@
       <c r="AJ2" s="61"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="5">
-        <v>34</v>
-      </c>
-      <c r="L3" s="5">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3</v>
-      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="8"/>
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
-      <c r="X3" s="20">
-        <f t="shared" ref="X3:X20" si="0">SUM(U3:W3)</f>
-        <v>0</v>
-      </c>
+      <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
-      <c r="AA3" s="20">
-        <f t="shared" ref="AA3:AA20" si="1">X3-Y3-Z3</f>
-        <v>0</v>
-      </c>
+      <c r="AA3" s="20"/>
       <c r="AB3" s="21"/>
       <c r="AC3" s="21"/>
       <c r="AD3" s="22"/>
@@ -7366,78 +7329,37 @@
       <c r="AF3" s="31"/>
       <c r="AG3" s="32"/>
       <c r="AH3" s="35"/>
-      <c r="AI3" s="34" t="str">
-        <f t="shared" ref="AI3:AI20" si="2">IF(AG3=0,"NA",AH3-$Y3)</f>
-        <v>NA</v>
-      </c>
+      <c r="AI3" s="34"/>
       <c r="AJ3" s="37"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.62361111111111112</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="7">
-        <v>-5.1189571000000003</v>
-      </c>
-      <c r="J4" s="7">
-        <v>119.309404</v>
-      </c>
-      <c r="K4" s="5">
-        <v>43</v>
-      </c>
-      <c r="L4" s="5">
-        <v>31</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="5">
-        <v>6</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="8"/>
       <c r="U4" s="19"/>
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
-      <c r="X4" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
-      <c r="AA4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA4" s="20"/>
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
       <c r="AD4" s="22"/>
@@ -7445,74 +7367,37 @@
       <c r="AF4" s="31"/>
       <c r="AG4" s="32"/>
       <c r="AH4" s="35"/>
-      <c r="AI4" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI4" s="34"/>
       <c r="AJ4" s="37"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.63958333333333328</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.71666666666666667</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="5">
-        <v>50</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3</v>
-      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="8"/>
       <c r="U5" s="19"/>
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
-      <c r="X5" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
-      <c r="AA5" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA5" s="20"/>
       <c r="AB5" s="21"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="22"/>
@@ -7520,76 +7405,37 @@
       <c r="AF5" s="31"/>
       <c r="AG5" s="32"/>
       <c r="AH5" s="35"/>
-      <c r="AI5" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI5" s="34"/>
       <c r="AJ5" s="37"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.64722222222222225</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.71666666666666667</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="5">
-        <v>49</v>
-      </c>
-      <c r="L6" s="5">
-        <v>40</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="5">
-        <v>3</v>
-      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="T6" s="8"/>
       <c r="U6" s="19"/>
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
-      <c r="X6" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
-      <c r="AA6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA6" s="20"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="22"/>
@@ -7597,76 +7443,37 @@
       <c r="AF6" s="31"/>
       <c r="AG6" s="32"/>
       <c r="AH6" s="35"/>
-      <c r="AI6" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI6" s="34"/>
       <c r="AJ6" s="37"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.65138888888888891</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.71388888888888891</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="5">
-        <v>55</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="5">
-        <v>3</v>
-      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="T7" s="8"/>
       <c r="U7" s="19"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
-      <c r="X7" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
-      <c r="AA7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA7" s="20"/>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="22"/>
@@ -7674,76 +7481,37 @@
       <c r="AF7" s="31"/>
       <c r="AG7" s="32"/>
       <c r="AH7" s="35"/>
-      <c r="AI7" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI7" s="34"/>
       <c r="AJ7" s="37"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.65833333333333333</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.7090277777777777</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="5">
-        <v>42</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="5">
-        <v>3</v>
-      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="T8" s="8"/>
       <c r="U8" s="19"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
-      <c r="X8" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
-      <c r="AA8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA8" s="20"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
       <c r="AD8" s="22"/>
@@ -7751,74 +7519,37 @@
       <c r="AF8" s="31"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="35"/>
-      <c r="AI8" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI8" s="34"/>
       <c r="AJ8" s="37"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.53194444444444444</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="5">
-        <v>45</v>
-      </c>
-      <c r="L9" s="5">
-        <v>50</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N9" s="5">
-        <v>2</v>
-      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="8"/>
       <c r="U9" s="19"/>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
-      <c r="X9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
-      <c r="AA9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA9" s="20"/>
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="22"/>
@@ -7826,51 +7557,26 @@
       <c r="AF9" s="31"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="35"/>
-      <c r="AI9" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI9" s="34"/>
       <c r="AJ9" s="37"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.58750000000000002</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="5">
-        <v>60</v>
-      </c>
-      <c r="L10" s="5">
-        <v>61</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="5">
-        <v>3</v>
-      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="P10" s="6"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -7878,16 +7584,10 @@
       <c r="U10" s="19"/>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
-      <c r="X10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
-      <c r="AA10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA10" s="20"/>
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="22"/>
@@ -7895,51 +7595,26 @@
       <c r="AF10" s="31"/>
       <c r="AG10" s="32"/>
       <c r="AH10" s="35"/>
-      <c r="AI10" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI10" s="34"/>
       <c r="AJ10" s="37"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.59097222222222223</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="5">
-        <v>53</v>
-      </c>
-      <c r="L11" s="5">
-        <v>55</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="5">
-        <v>5</v>
-      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="P11" s="6"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -7947,16 +7622,10 @@
       <c r="U11" s="19"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
-      <c r="X11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
-      <c r="AA11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA11" s="20"/>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
@@ -7964,51 +7633,26 @@
       <c r="AF11" s="31"/>
       <c r="AG11" s="32"/>
       <c r="AH11" s="35"/>
-      <c r="AI11" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI11" s="34"/>
       <c r="AJ11" s="37"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.60277777777777775</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="5">
-        <v>67</v>
-      </c>
-      <c r="L12" s="5">
-        <v>68</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="5">
-        <v>2</v>
-      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="P12" s="6"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -8016,16 +7660,10 @@
       <c r="U12" s="19"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
-      <c r="X12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
-      <c r="AA12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA12" s="20"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="22"/>
@@ -8033,51 +7671,26 @@
       <c r="AF12" s="31"/>
       <c r="AG12" s="32"/>
       <c r="AH12" s="35"/>
-      <c r="AI12" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI12" s="34"/>
       <c r="AJ12" s="37"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.55763888888888891</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.6069444444444444</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="5">
-        <v>50</v>
-      </c>
-      <c r="L13" s="5">
-        <v>59</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="5">
-        <v>3</v>
-      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="P13" s="6"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -8085,16 +7698,10 @@
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
-      <c r="X13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
-      <c r="AA13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="22"/>
@@ -8102,51 +7709,26 @@
       <c r="AF13" s="31"/>
       <c r="AG13" s="32"/>
       <c r="AH13" s="35"/>
-      <c r="AI13" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI13" s="34"/>
       <c r="AJ13" s="37"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.61875000000000002</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="5">
-        <v>95</v>
-      </c>
-      <c r="L14" s="5">
-        <v>98</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N14" s="5">
-        <v>2</v>
-      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="P14" s="6"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -8154,16 +7736,10 @@
       <c r="U14" s="19"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
-      <c r="X14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
-      <c r="AA14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA14" s="20"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="22"/>
@@ -8171,10 +7747,7 @@
       <c r="AF14" s="31"/>
       <c r="AG14" s="32"/>
       <c r="AH14" s="33"/>
-      <c r="AI14" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
+      <c r="AI14" s="34"/>
       <c r="AJ14" s="37"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
@@ -8202,13 +7775,13 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X3:X20" si="0">SUM(U15:W15)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AA3:AA20" si="1">X15-Y15-Z15</f>
         <v>0</v>
       </c>
       <c r="AB15" s="21"/>
@@ -8219,7 +7792,7 @@
       <c r="AG15" s="32"/>
       <c r="AH15" s="33"/>
       <c r="AI15" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AI3:AI20" si="2">IF(AG15=0,"NA",AH15-$Y15)</f>
         <v>NA</v>
       </c>
       <c r="AJ15" s="37"/>
@@ -8477,7 +8050,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>29</v>
@@ -8486,12 +8059,12 @@
         <v>30</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="77">
         <v>-5.4793240000000001</v>
@@ -8503,7 +8076,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="77">
         <v>-5.4880659999999999</v>
@@ -8515,7 +8088,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="77">
         <v>-5.4889159999999997</v>
@@ -8529,7 +8102,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="77">
         <v>-5.468826</v>
@@ -8541,7 +8114,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="77">
         <v>-5.4682649999999997</v>
@@ -8553,7 +8126,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="77">
         <v>-5.4671349999999999</v>
@@ -8565,7 +8138,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="77">
         <v>-5.4901910000000003</v>
@@ -8577,7 +8150,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="77">
         <v>-5.491987</v>
@@ -8589,7 +8162,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="77">
         <v>-5.49282</v>
@@ -8601,7 +8174,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="77">
         <v>-5.4639509999999998</v>
@@ -8613,7 +8186,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="77">
         <v>-5.4620889999999997</v>
@@ -8625,7 +8198,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="77">
         <v>-5.463902</v>
@@ -8637,7 +8210,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="77">
         <v>-5.4810160000000003</v>
@@ -8649,7 +8222,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="77">
         <v>-5.4811319999999997</v>
@@ -8661,7 +8234,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="77">
         <v>-5.4793599999999998</v>
@@ -8673,7 +8246,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="77">
         <v>-5.4663769999999996</v>
@@ -8685,7 +8258,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="77">
         <v>-5.4682510000000004</v>
@@ -8697,7 +8270,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="80">
         <v>-5.4686510000000004</v>

--- a/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
+++ b/URUVS/Datasheets/URUV/03.2024/March_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\URUV\03.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1774D3D7-9FC6-4C9F-B032-695613EB7FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B01C3BA-A485-4E3B-A221-D8A5F73F500F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MetaData" sheetId="3" r:id="rId3"/>
     <sheet name="LATLON" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="209">
   <si>
     <t>DATE</t>
   </si>
@@ -647,13 +647,19 @@
     <t>T1_SANDFISH</t>
   </si>
   <si>
-    <t>T1_FISHO</t>
-  </si>
-  <si>
-    <t>TIME_1STFISHO</t>
-  </si>
-  <si>
-    <t>MAXN_FISHO</t>
+    <t>MAXN_FISHCHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>TIME_1STCHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>T1_FISHCHEETAGIRLZ</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>MARCH</t>
   </si>
 </sst>
 </file>
@@ -1301,686 +1307,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:DB22"/>
+  <dimension ref="A1:DC22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CD13" sqref="CD13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="7" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="8" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
-    <col min="29" max="35" width="8.7265625" customWidth="1"/>
-    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.7265625" style="88"/>
-    <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="9" max="22" width="8.7265625" customWidth="1"/>
+    <col min="23" max="29" width="8.7265625" style="1" customWidth="1"/>
+    <col min="30" max="36" width="8.7265625" customWidth="1"/>
+    <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.7265625" style="88"/>
+    <col min="79" max="79" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="Y1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AK1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AQ1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AR1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="28" t="s">
+      <c r="AS1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AT1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AU1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="28" t="s">
+      <c r="AV1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AW1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="27" t="s">
+      <c r="AX1" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="AX1" s="28" t="s">
+      <c r="AY1" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="AY1" s="29" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="BA1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="28" t="s">
+      <c r="BB1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="29" t="s">
+      <c r="BC1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BD1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="28" t="s">
+      <c r="BE1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BF1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="27" t="s">
+      <c r="BG1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="28" t="s">
+      <c r="BH1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="29" t="s">
+      <c r="BI1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="27" t="s">
+      <c r="BJ1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" s="28" t="s">
+      <c r="BK1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="29" t="s">
+      <c r="BL1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="27" t="s">
+      <c r="BM1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="28" t="s">
+      <c r="BN1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BO1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="27" t="s">
+      <c r="BP1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="28" t="s">
+      <c r="BQ1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="29" t="s">
+      <c r="BR1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="27" t="s">
+      <c r="BS1" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="BS1" s="28" t="s">
+      <c r="BT1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="BT1" s="29" t="s">
+      <c r="BU1" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="BU1" s="27" t="s">
+      <c r="BV1" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="BV1" s="28" t="s">
+      <c r="BW1" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="BW1" s="29" t="s">
+      <c r="BX1" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="BX1" s="85" t="s">
+      <c r="BY1" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="BY1" s="28" t="s">
+      <c r="BZ1" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="BZ1" s="29" t="s">
+      <c r="CA1" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="CA1" s="27" t="s">
+      <c r="CB1" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="CB1" s="28" t="s">
+      <c r="CC1" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="CC1" s="72" t="s">
+      <c r="CD1" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="CD1" s="27" t="s">
+      <c r="CE1" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF1" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="CG1" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="CE1" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="CF1" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="CG1" s="27" t="s">
+      <c r="CH1" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="CH1" s="28" t="s">
+      <c r="CI1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="CI1" s="72" t="s">
+      <c r="CJ1" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="CJ1" s="27" t="s">
+      <c r="CK1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="CK1" s="28" t="s">
+      <c r="CL1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="CL1" s="72" t="s">
+      <c r="CM1" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="CM1" s="27" t="s">
+      <c r="CN1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" s="28" t="s">
+      <c r="CO1" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" s="72" t="s">
+      <c r="CP1" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="CP1" s="27" t="s">
+      <c r="CQ1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="CQ1" s="28" t="s">
+      <c r="CR1" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="CR1" s="72" t="s">
+      <c r="CS1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="CS1" s="27" t="s">
+      <c r="CT1" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="CT1" s="28" t="s">
+      <c r="CU1" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="CU1" s="72" t="s">
+      <c r="CV1" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="CV1" s="27" t="s">
+      <c r="CW1" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" s="28" t="s">
+      <c r="CX1" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" s="72" t="s">
+      <c r="CY1" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" s="27" t="s">
+      <c r="CZ1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="CZ1" s="28" t="s">
+      <c r="DA1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="DA1" s="72" t="s">
+      <c r="DB1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="DB1" s="29" t="s">
+      <c r="DC1" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="str">
-        <f>C2&amp;""&amp;D2</f>
+      <c r="F2" s="5" t="str">
+        <f>D2&amp;""&amp;E2</f>
         <v>D2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>0.61111111111111105</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,2)</f>
+      <c r="K2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4880659999999999</v>
       </c>
-      <c r="K2" s="7">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,3)</f>
+      <c r="L2" s="7">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,3)</f>
         <v>119.31312699999999</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>34</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>3</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="5">
+      <c r="T2" s="5">
         <v>0.23</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="19">
+      <c r="V2" s="8"/>
+      <c r="W2" s="19">
         <v>2.0543981481481479E-2</v>
       </c>
-      <c r="W2" s="20">
+      <c r="X2" s="20">
         <v>1.7870370370370373E-2</v>
       </c>
-      <c r="X2" s="20">
+      <c r="Y2" s="20">
         <v>5.2314814814814819E-3</v>
       </c>
-      <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
-      <c r="AB2" s="20">
-        <f>SUM(V2:AA2)</f>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <f>SUM(W2:AB2)</f>
         <v>4.3645833333333335E-2</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AD2" s="20">
         <v>3.8078703703703707E-3</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20">
-        <f t="shared" ref="AE2:AE13" si="0">AB2-AC2-AD2</f>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20">
+        <f t="shared" ref="AF2:AF13" si="0">AC2-AD2-AE2</f>
         <v>3.9837962962962964E-2</v>
       </c>
-      <c r="AF2" s="21">
+      <c r="AG2" s="21">
         <v>90</v>
       </c>
-      <c r="AG2" s="21">
+      <c r="AH2" s="21">
         <v>85</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="30">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="30">
         <v>5</v>
       </c>
-      <c r="AJ2" s="31">
+      <c r="AK2" s="31">
         <v>4</v>
       </c>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="69" t="str">
-        <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN2" s="32">
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="69" t="str">
+        <f t="shared" ref="AN2:AN13" si="1">IF(AL2=0,"NA",AM2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO2" s="32">
         <v>1</v>
       </c>
-      <c r="AO2" s="69">
+      <c r="AP2" s="69">
         <v>1.7106481481481483E-2</v>
       </c>
-      <c r="AP2" s="34">
-        <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
+      <c r="AQ2" s="34">
+        <f t="shared" ref="AQ2:AQ13" si="2">IF(AO2=0,"NA",AP2-$AD2)</f>
         <v>1.3298611111111112E-2</v>
       </c>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="34" t="str">
-        <f t="shared" ref="AS2:AS13" si="3">IF(AQ2=0,"NA",AR2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="34" t="str">
-        <f t="shared" ref="AV2:AV13" si="4">IF(AT2=0,"NA",AU2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="34" t="str">
-        <f t="shared" ref="AY2:AY22" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="34" t="str">
-        <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="34" t="str">
-        <f t="shared" ref="BE2:BE13" si="7">IF(BC2=0,"NA",BD2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="34" t="str">
-        <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="34" t="str">
-        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="34" t="str">
-        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="34" t="str">
-        <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR2" s="71">
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="34" t="str">
+        <f t="shared" ref="AT2:AT13" si="3">IF(AR2=0,"NA",AS2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="34" t="str">
+        <f t="shared" ref="AW2:AW13" si="4">IF(AU2=0,"NA",AV2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="34" t="str">
+        <f t="shared" ref="AZ2:AZ22" si="5">IF(AX2=0,"NA",AY2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="34" t="str">
+        <f t="shared" ref="BC2:BC13" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="34" t="str">
+        <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="34" t="str">
+        <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="34" t="str">
+        <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="34" t="str">
+        <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="34" t="str">
+        <f t="shared" ref="BR2:BR13" si="11">IF(BP2=0,"NA",BQ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS2" s="71">
         <v>1</v>
       </c>
-      <c r="BS2" s="89">
+      <c r="BT2" s="89">
         <v>1.2037037037037035E-2</v>
       </c>
-      <c r="BT2" s="34">
-        <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
+      <c r="BU2" s="34">
+        <f t="shared" ref="BU2:BU13" si="12">IF(BS2=0,"NA",BT2-$AD2)</f>
         <v>8.2291666666666641E-3</v>
       </c>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="70"/>
-      <c r="BW2" s="34" t="str">
-        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="86"/>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="34" t="str">
-        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA2" s="71">
+      <c r="BV2" s="71"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="34" t="str">
+        <f t="shared" ref="BX2:BX22" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BY2" s="86"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="34" t="str">
+        <f t="shared" ref="CA2:CA22" si="14">IF(BY2=0,"NA",BZ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CB2" s="71">
         <v>1</v>
       </c>
-      <c r="CB2" s="84">
+      <c r="CC2" s="84">
         <v>1.8553240740740742E-2</v>
       </c>
-      <c r="CC2" s="34">
-        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
+      <c r="CD2" s="34">
+        <f t="shared" ref="CD2:CD22" si="15">IF(CB2=0,"NA",CC2-$AD2)</f>
         <v>1.474537037037037E-2</v>
       </c>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="84"/>
-      <c r="CF2" s="34" t="str">
-        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CG2" s="71"/>
-      <c r="CH2" s="84"/>
-      <c r="CI2" s="34" t="str">
-        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CJ2" s="71"/>
-      <c r="CK2" s="84"/>
-      <c r="CL2" s="34" t="str">
-        <f t="shared" ref="CL2:CL22" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CM2" s="71"/>
-      <c r="CN2" s="84"/>
-      <c r="CO2" s="34" t="str">
-        <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CP2" s="71"/>
-      <c r="CQ2" s="84"/>
-      <c r="CR2" s="34" t="str">
-        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="84"/>
-      <c r="CU2" s="34" t="str">
-        <f t="shared" ref="CU2:CU22" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV2" s="71"/>
-      <c r="CW2" s="84"/>
-      <c r="CX2" s="34" t="str">
-        <f t="shared" ref="CX2:CX22" si="22">IF(CV2=0,"NA",CW2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CY2" s="71">
+      <c r="CE2" s="71"/>
+      <c r="CF2" s="84"/>
+      <c r="CG2" s="34" t="str">
+        <f t="shared" ref="CG2:CG22" si="16">IF(CE2=0,"NA",CF2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CH2" s="71"/>
+      <c r="CI2" s="84"/>
+      <c r="CJ2" s="34" t="str">
+        <f t="shared" ref="CJ2:CJ22" si="17">IF(CH2=0,"NA",CI2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CK2" s="71"/>
+      <c r="CL2" s="84"/>
+      <c r="CM2" s="34" t="str">
+        <f t="shared" ref="CM2:CM22" si="18">IF(CK2=0,"NA",CL2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CN2" s="71"/>
+      <c r="CO2" s="84"/>
+      <c r="CP2" s="34" t="str">
+        <f t="shared" ref="CP2:CP22" si="19">IF(CN2=0,"NA",CO2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CQ2" s="71"/>
+      <c r="CR2" s="84"/>
+      <c r="CS2" s="34" t="str">
+        <f t="shared" ref="CS2:CS22" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CT2" s="71"/>
+      <c r="CU2" s="84"/>
+      <c r="CV2" s="34" t="str">
+        <f t="shared" ref="CV2:CV22" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CW2" s="71"/>
+      <c r="CX2" s="84"/>
+      <c r="CY2" s="34" t="str">
+        <f t="shared" ref="CY2:CY22" si="22">IF(CW2=0,"NA",CX2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CZ2" s="71">
         <v>3</v>
       </c>
-      <c r="CZ2" s="84">
+      <c r="DA2" s="84">
         <v>4.1319444444444442E-3</v>
       </c>
-      <c r="DA2" s="34">
-        <f t="shared" ref="DA2:DA13" si="23">IF(CY2=0,"NA",CZ2-$AC2)</f>
+      <c r="DB2" s="34">
+        <f t="shared" ref="DB2:DB13" si="23">IF(CZ2=0,"NA",DA2-$AD2)</f>
         <v>3.2407407407407341E-4</v>
       </c>
-      <c r="DB2" s="37"/>
+      <c r="DC2" s="37"/>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E22" si="24">C3&amp;""&amp;D3</f>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F22" si="24">D3&amp;""&amp;E3</f>
         <v>D3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>0.62361111111111112</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>-5.1189571000000003</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>119.309404</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>43</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>6</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>0.22</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="19">
+      <c r="W3" s="19">
         <v>1.7569444444444447E-2</v>
-      </c>
-      <c r="W3" s="20">
-        <v>1.486111111111111E-2</v>
       </c>
       <c r="X3" s="20">
         <v>1.486111111111111E-2</v>
@@ -1992,4966 +2003,5026 @@
         <v>1.486111111111111E-2</v>
       </c>
       <c r="AA3" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="AB3" s="20">
         <v>1.1342592592592591E-3</v>
       </c>
-      <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="25">SUM(V3:AA3)</f>
+      <c r="AC3" s="20">
+        <f t="shared" ref="AC3:AC22" si="25">SUM(W3:AB3)</f>
         <v>7.8148148148148147E-2</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AD3" s="20">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AE3" s="20">
         <v>2.5208333333333333E-2</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AF3" s="20">
         <f t="shared" si="0"/>
         <v>4.2523148148148143E-2</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AG3" s="21">
         <v>80</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AH3" s="21">
         <v>90</v>
       </c>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="30">
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="30">
         <v>0</v>
       </c>
-      <c r="AJ3" s="31">
+      <c r="AK3" s="31">
         <v>0</v>
       </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="69" t="str">
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="69" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="34" t="str">
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="34" t="str">
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="34" t="str">
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="34" t="str">
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="34" t="str">
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="34" t="str">
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="33"/>
+      <c r="BF3" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="34" t="str">
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="34" t="str">
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="33"/>
+      <c r="BL3" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="34" t="str">
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="33"/>
+      <c r="BO3" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="34" t="str">
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="33"/>
-      <c r="BT3" s="34" t="str">
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="33"/>
+      <c r="BU3" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU3" s="32"/>
-      <c r="BV3" s="33"/>
-      <c r="BW3" s="34" t="str">
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="33"/>
+      <c r="BX3" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="86"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="34" t="str">
+      <c r="BY3" s="86"/>
+      <c r="BZ3" s="69"/>
+      <c r="CA3" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="34" t="str">
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD3" s="32"/>
-      <c r="CE3" s="33"/>
-      <c r="CF3" s="34" t="str">
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="33"/>
+      <c r="CG3" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG3" s="32"/>
-      <c r="CH3" s="33"/>
-      <c r="CI3" s="34" t="str">
+      <c r="CH3" s="32"/>
+      <c r="CI3" s="33"/>
+      <c r="CJ3" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ3" s="32"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="34" t="str">
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="33"/>
+      <c r="CM3" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM3" s="32"/>
-      <c r="CN3" s="33"/>
-      <c r="CO3" s="34" t="str">
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="33"/>
+      <c r="CP3" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP3" s="32"/>
-      <c r="CQ3" s="33"/>
-      <c r="CR3" s="34" t="str">
+      <c r="CQ3" s="32"/>
+      <c r="CR3" s="33"/>
+      <c r="CS3" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="33"/>
-      <c r="CU3" s="34" t="str">
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="33"/>
+      <c r="CV3" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="32"/>
-      <c r="CW3" s="33"/>
-      <c r="CX3" s="34" t="str">
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="33"/>
+      <c r="CY3" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY3" s="32"/>
-      <c r="CZ3" s="33"/>
-      <c r="DA3" s="34" t="str">
+      <c r="CZ3" s="32"/>
+      <c r="DA3" s="33"/>
+      <c r="DB3" s="34" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB3" s="37"/>
+      <c r="DC3" s="37"/>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="F4" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>11</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>0.63958333333333328</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.71666666666666667</v>
       </c>
-      <c r="J4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,2)</f>
+      <c r="K4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4811319999999997</v>
       </c>
-      <c r="K4" s="7">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,3)</f>
+      <c r="L4" s="7">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,3)</f>
         <v>119.31211</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>50</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>3</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>0.2</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="19">
+      <c r="V4" s="8"/>
+      <c r="W4" s="19">
         <v>2.2291666666666668E-2</v>
       </c>
-      <c r="W4" s="20">
+      <c r="X4" s="20">
         <v>2.9525462962962962E-2</v>
       </c>
-      <c r="X4" s="20">
+      <c r="Y4" s="20">
         <v>9.0856481481481483E-3</v>
       </c>
-      <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="20">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20">
         <f t="shared" si="25"/>
         <v>6.0902777777777778E-2</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AD4" s="20">
         <v>3.6574074074074074E-3</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AE4" s="20">
         <v>1.6724537037037034E-2</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AF4" s="20">
         <f t="shared" si="0"/>
         <v>4.0520833333333339E-2</v>
       </c>
-      <c r="AF4" s="21">
-        <v>80</v>
-      </c>
       <c r="AG4" s="21">
         <v>80</v>
       </c>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="30">
+      <c r="AH4" s="21">
+        <v>80</v>
+      </c>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="30">
         <v>6</v>
       </c>
-      <c r="AJ4" s="31">
+      <c r="AK4" s="31">
         <v>5</v>
       </c>
-      <c r="AK4" s="32">
+      <c r="AL4" s="32">
         <v>1</v>
       </c>
-      <c r="AL4" s="35">
+      <c r="AM4" s="35">
         <v>3.4236111111111113E-2</v>
       </c>
-      <c r="AM4" s="69">
+      <c r="AN4" s="69">
         <f t="shared" si="1"/>
         <v>3.0578703703703705E-2</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="34" t="str">
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="34" t="str">
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="34" t="str">
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="34" t="str">
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="34" t="str">
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="34" t="str">
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF4" s="32">
+      <c r="BG4" s="32">
         <v>1</v>
       </c>
-      <c r="BG4" s="35">
+      <c r="BH4" s="35">
         <v>1.6284722222222221E-2</v>
       </c>
-      <c r="BH4" s="34">
+      <c r="BI4" s="34">
         <f t="shared" si="8"/>
         <v>1.2627314814814813E-2</v>
       </c>
-      <c r="BI4" s="32">
+      <c r="BJ4" s="32">
         <v>1</v>
       </c>
-      <c r="BJ4" s="35">
+      <c r="BK4" s="35">
         <v>2.4062500000000001E-2</v>
       </c>
-      <c r="BK4" s="34">
+      <c r="BL4" s="34">
         <f t="shared" si="9"/>
         <v>2.0405092592592593E-2</v>
       </c>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="34" t="str">
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="33"/>
-      <c r="BQ4" s="34" t="str">
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="33"/>
-      <c r="BT4" s="34" t="str">
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="33"/>
+      <c r="BU4" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="34" t="str">
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="86"/>
-      <c r="BY4" s="69"/>
-      <c r="BZ4" s="34" t="str">
+      <c r="BY4" s="86"/>
+      <c r="BZ4" s="69"/>
+      <c r="CA4" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="34" t="str">
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="34" t="str">
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="34" t="str">
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="35"/>
+      <c r="CJ4" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ4" s="32"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="34" t="str">
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="34" t="str">
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="34" t="str">
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="34" t="str">
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="35"/>
+      <c r="CV4" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="34" t="str">
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY4" s="32">
+      <c r="CZ4" s="32">
         <v>6</v>
       </c>
-      <c r="CZ4" s="35">
+      <c r="DA4" s="35">
         <v>3.7731481481481483E-3</v>
       </c>
-      <c r="DA4" s="34">
+      <c r="DB4" s="34">
         <f t="shared" si="23"/>
         <v>1.1574074074074091E-4</v>
       </c>
-      <c r="DB4" s="37"/>
+      <c r="DC4" s="37"/>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="F5" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>0.64722222222222225</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.71666666666666667</v>
       </c>
-      <c r="J5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,2)</f>
+      <c r="K5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4810160000000003</v>
       </c>
-      <c r="K5" s="7">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,3)</f>
+      <c r="L5" s="7">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,3)</f>
         <v>119.31128099999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>49</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>40</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>3</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>0.2</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="V5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="20">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
-      <c r="AE5" s="20">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="69" t="str">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="69" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34" t="str">
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="34" t="str">
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="34" t="str">
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="34" t="str">
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="34" t="str">
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="34" t="str">
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="34" t="str">
+      <c r="BG5" s="32"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="34" t="str">
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="34" t="str">
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="34" t="str">
+      <c r="BP5" s="32"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="34" t="str">
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="34" t="str">
+      <c r="BV5" s="32"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="86"/>
-      <c r="BY5" s="69"/>
-      <c r="BZ5" s="34" t="str">
+      <c r="BY5" s="86"/>
+      <c r="BZ5" s="69"/>
+      <c r="CA5" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="34" t="str">
+      <c r="CB5" s="32"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="33"/>
-      <c r="CF5" s="34" t="str">
+      <c r="CE5" s="32"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="34" t="str">
+      <c r="CH5" s="32"/>
+      <c r="CI5" s="33"/>
+      <c r="CJ5" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ5" s="32"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="34" t="str">
+      <c r="CK5" s="32"/>
+      <c r="CL5" s="33"/>
+      <c r="CM5" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM5" s="32"/>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="34" t="str">
+      <c r="CN5" s="32"/>
+      <c r="CO5" s="33"/>
+      <c r="CP5" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="33"/>
-      <c r="CR5" s="34" t="str">
+      <c r="CQ5" s="32"/>
+      <c r="CR5" s="33"/>
+      <c r="CS5" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS5" s="32"/>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="34" t="str">
+      <c r="CT5" s="32"/>
+      <c r="CU5" s="33"/>
+      <c r="CV5" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="32"/>
-      <c r="CW5" s="33"/>
-      <c r="CX5" s="34" t="str">
+      <c r="CW5" s="32"/>
+      <c r="CX5" s="33"/>
+      <c r="CY5" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY5" s="32"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="34" t="str">
+      <c r="CZ5" s="32"/>
+      <c r="DA5" s="33"/>
+      <c r="DB5" s="34" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB5" s="37"/>
+      <c r="DC5" s="37"/>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="F6" s="5" t="str">
         <f t="shared" si="24"/>
         <v>D1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>12</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>0.65138888888888891</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.71388888888888891</v>
       </c>
-      <c r="J6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,2)</f>
+      <c r="K6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793240000000001</v>
       </c>
-      <c r="K6" s="7">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,3)</f>
+      <c r="L6" s="7">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,3)</f>
         <v>119.31157399999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>55</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>3</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>0.2</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
+      <c r="W6" s="19"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="20">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="20"/>
       <c r="AD6" s="20"/>
-      <c r="AE6" s="20">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="69" t="str">
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="69" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="34" t="str">
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="34" t="str">
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="33"/>
+      <c r="AT6" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="34" t="str">
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="33"/>
+      <c r="AW6" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="34" t="str">
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="33"/>
+      <c r="AZ6" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="33"/>
-      <c r="BB6" s="34" t="str">
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="33"/>
+      <c r="BC6" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="34" t="str">
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="34" t="str">
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="34" t="str">
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL6" s="32"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="34" t="str">
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="33"/>
+      <c r="BO6" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="33"/>
-      <c r="BQ6" s="34" t="str">
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="33"/>
+      <c r="BR6" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="33"/>
-      <c r="BT6" s="34" t="str">
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="33"/>
+      <c r="BU6" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="33"/>
-      <c r="BW6" s="34" t="str">
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="33"/>
+      <c r="BX6" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX6" s="86"/>
-      <c r="BY6" s="69"/>
-      <c r="BZ6" s="34" t="str">
+      <c r="BY6" s="86"/>
+      <c r="BZ6" s="69"/>
+      <c r="CA6" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA6" s="32"/>
-      <c r="CB6" s="33"/>
-      <c r="CC6" s="34" t="str">
+      <c r="CB6" s="32"/>
+      <c r="CC6" s="33"/>
+      <c r="CD6" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="32"/>
-      <c r="CE6" s="33"/>
-      <c r="CF6" s="34" t="str">
+      <c r="CE6" s="32"/>
+      <c r="CF6" s="33"/>
+      <c r="CG6" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="33"/>
-      <c r="CI6" s="34" t="str">
+      <c r="CH6" s="32"/>
+      <c r="CI6" s="33"/>
+      <c r="CJ6" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ6" s="32"/>
-      <c r="CK6" s="33"/>
-      <c r="CL6" s="34" t="str">
+      <c r="CK6" s="32"/>
+      <c r="CL6" s="33"/>
+      <c r="CM6" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM6" s="32"/>
-      <c r="CN6" s="33"/>
-      <c r="CO6" s="34" t="str">
+      <c r="CN6" s="32"/>
+      <c r="CO6" s="33"/>
+      <c r="CP6" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP6" s="32"/>
-      <c r="CQ6" s="33"/>
-      <c r="CR6" s="34" t="str">
+      <c r="CQ6" s="32"/>
+      <c r="CR6" s="33"/>
+      <c r="CS6" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS6" s="32"/>
-      <c r="CT6" s="33"/>
-      <c r="CU6" s="34" t="str">
+      <c r="CT6" s="32"/>
+      <c r="CU6" s="33"/>
+      <c r="CV6" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="32"/>
-      <c r="CW6" s="33"/>
-      <c r="CX6" s="34" t="str">
+      <c r="CW6" s="32"/>
+      <c r="CX6" s="33"/>
+      <c r="CY6" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY6" s="32"/>
-      <c r="CZ6" s="33"/>
-      <c r="DA6" s="34" t="str">
+      <c r="CZ6" s="32"/>
+      <c r="DA6" s="33"/>
+      <c r="DB6" s="34" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB6" s="37"/>
+      <c r="DC6" s="37"/>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="F7" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>14</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>0.65833333333333333</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.7090277777777777</v>
       </c>
-      <c r="J7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,2)</f>
+      <c r="K7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793599999999998</v>
       </c>
-      <c r="K7" s="7">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,3)</f>
+      <c r="L7" s="7">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,3)</f>
         <v>119.312033</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>42</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>0.17</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="20">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
-      <c r="AE7" s="20">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="69" t="str">
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="69" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="34" t="str">
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="34" t="str">
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="34" t="str">
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="34" t="str">
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="34" t="str">
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="34" t="str">
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="34" t="str">
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="34" t="str">
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL7" s="32"/>
-      <c r="BM7" s="33"/>
-      <c r="BN7" s="34" t="str">
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="34" t="str">
+      <c r="BP7" s="32"/>
+      <c r="BQ7" s="33"/>
+      <c r="BR7" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="33"/>
-      <c r="BT7" s="34" t="str">
+      <c r="BS7" s="32"/>
+      <c r="BT7" s="33"/>
+      <c r="BU7" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="34" t="str">
+      <c r="BV7" s="32"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="86"/>
-      <c r="BY7" s="69"/>
-      <c r="BZ7" s="34" t="str">
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="69"/>
+      <c r="CA7" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="33"/>
-      <c r="CC7" s="34" t="str">
+      <c r="CB7" s="32"/>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD7" s="32"/>
-      <c r="CE7" s="33"/>
-      <c r="CF7" s="34" t="str">
+      <c r="CE7" s="32"/>
+      <c r="CF7" s="33"/>
+      <c r="CG7" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG7" s="32"/>
-      <c r="CH7" s="33"/>
-      <c r="CI7" s="34" t="str">
+      <c r="CH7" s="32"/>
+      <c r="CI7" s="33"/>
+      <c r="CJ7" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ7" s="32"/>
-      <c r="CK7" s="33"/>
-      <c r="CL7" s="34" t="str">
+      <c r="CK7" s="32"/>
+      <c r="CL7" s="33"/>
+      <c r="CM7" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM7" s="32"/>
-      <c r="CN7" s="33"/>
-      <c r="CO7" s="34" t="str">
+      <c r="CN7" s="32"/>
+      <c r="CO7" s="33"/>
+      <c r="CP7" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP7" s="32"/>
-      <c r="CQ7" s="33"/>
-      <c r="CR7" s="34" t="str">
+      <c r="CQ7" s="32"/>
+      <c r="CR7" s="33"/>
+      <c r="CS7" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS7" s="32"/>
-      <c r="CT7" s="33"/>
-      <c r="CU7" s="34" t="str">
+      <c r="CT7" s="32"/>
+      <c r="CU7" s="33"/>
+      <c r="CV7" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="32"/>
-      <c r="CW7" s="33"/>
-      <c r="CX7" s="34" t="str">
+      <c r="CW7" s="32"/>
+      <c r="CX7" s="33"/>
+      <c r="CY7" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY7" s="32"/>
-      <c r="CZ7" s="33"/>
-      <c r="DA7" s="34" t="str">
+      <c r="CZ7" s="32"/>
+      <c r="DA7" s="33"/>
+      <c r="DB7" s="34" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB7" s="37"/>
+      <c r="DC7" s="37"/>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="F8" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L3</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
         <v>0.53194444444444444</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,2)</f>
+      <c r="K8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793599999999998</v>
       </c>
-      <c r="K8" s="7">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,3)</f>
+      <c r="L8" s="7">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,3)</f>
         <v>119.312033</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>45</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>50</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>2</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>0.19</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
         <v>3.2546296296296295E-2</v>
       </c>
-      <c r="W8" s="20">
+      <c r="X8" s="20">
         <v>2.0474537037037038E-2</v>
       </c>
-      <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="20">
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20">
         <f t="shared" si="25"/>
         <v>5.3020833333333336E-2</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AD8" s="20">
         <v>3.9351851851851857E-3</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AE8" s="20">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="AF8" s="20">
         <f t="shared" si="0"/>
         <v>4.2141203703703708E-2</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AG8" s="21">
         <v>100</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AH8" s="21">
         <v>85</v>
       </c>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="30">
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="30">
         <v>3</v>
       </c>
-      <c r="AJ8" s="31">
+      <c r="AK8" s="31">
         <v>2</v>
       </c>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="69" t="str">
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="69" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN8" s="32">
+      <c r="AO8" s="32">
         <v>3</v>
       </c>
-      <c r="AO8" s="83">
+      <c r="AP8" s="83">
         <v>0.28819444444444448</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AQ8" s="34">
         <f t="shared" si="2"/>
         <v>0.28425925925925927</v>
       </c>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="34" t="str">
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="34" t="str">
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="34" t="str">
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ8" s="32"/>
-      <c r="BA8" s="33"/>
-      <c r="BB8" s="34" t="str">
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="33"/>
+      <c r="BC8" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC8" s="32"/>
-      <c r="BD8" s="33"/>
-      <c r="BE8" s="34" t="str">
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF8" s="32"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="34" t="str">
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI8" s="32"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="34" t="str">
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL8" s="32"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="34" t="str">
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO8" s="32"/>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="34" t="str">
+      <c r="BP8" s="32"/>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR8" s="32"/>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="34" t="str">
+      <c r="BS8" s="32"/>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU8" s="32"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="34" t="str">
+      <c r="BV8" s="32"/>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="86"/>
-      <c r="BY8" s="69"/>
-      <c r="BZ8" s="34" t="str">
+      <c r="BY8" s="86"/>
+      <c r="BZ8" s="69"/>
+      <c r="CA8" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA8" s="32"/>
-      <c r="CB8" s="33"/>
-      <c r="CC8" s="34" t="str">
+      <c r="CB8" s="32"/>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD8" s="32"/>
-      <c r="CE8" s="33"/>
-      <c r="CF8" s="34" t="str">
+      <c r="CE8" s="32"/>
+      <c r="CF8" s="33"/>
+      <c r="CG8" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG8" s="32"/>
-      <c r="CH8" s="33"/>
-      <c r="CI8" s="34" t="str">
+      <c r="CH8" s="32"/>
+      <c r="CI8" s="33"/>
+      <c r="CJ8" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ8" s="32"/>
-      <c r="CK8" s="33"/>
-      <c r="CL8" s="34" t="str">
+      <c r="CK8" s="32"/>
+      <c r="CL8" s="33"/>
+      <c r="CM8" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM8" s="32"/>
-      <c r="CN8" s="33"/>
-      <c r="CO8" s="34" t="str">
+      <c r="CN8" s="32"/>
+      <c r="CO8" s="33"/>
+      <c r="CP8" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP8" s="32"/>
-      <c r="CQ8" s="33"/>
-      <c r="CR8" s="34" t="str">
+      <c r="CQ8" s="32"/>
+      <c r="CR8" s="33"/>
+      <c r="CS8" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS8" s="32"/>
-      <c r="CT8" s="83"/>
-      <c r="CU8" s="34" t="str">
+      <c r="CT8" s="32"/>
+      <c r="CU8" s="83"/>
+      <c r="CV8" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="32"/>
-      <c r="CW8" s="83"/>
-      <c r="CX8" s="34" t="str">
+      <c r="CW8" s="32"/>
+      <c r="CX8" s="83"/>
+      <c r="CY8" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY8" s="32">
+      <c r="CZ8" s="32">
         <v>5</v>
       </c>
-      <c r="CZ8" s="83">
+      <c r="DA8" s="83">
         <v>0.25694444444444448</v>
       </c>
-      <c r="DA8" s="34">
+      <c r="DB8" s="34">
         <f t="shared" si="23"/>
         <v>0.25300925925925927</v>
       </c>
-      <c r="DB8" s="37"/>
+      <c r="DC8" s="37"/>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="F9" s="5" t="str">
         <f t="shared" si="24"/>
         <v>D1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>12</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>0.53402777777777777</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.58750000000000002</v>
       </c>
-      <c r="J9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,2)</f>
+      <c r="K9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4793240000000001</v>
       </c>
-      <c r="K9" s="7">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,3)</f>
+      <c r="L9" s="7">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,3)</f>
         <v>119.31157399999999</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>60</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>61</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>3</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>0.19</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="V9" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V9" s="19">
+      <c r="W9" s="19">
         <v>1.982638888888889E-2</v>
       </c>
-      <c r="W9" s="20">
+      <c r="X9" s="20">
         <v>2.3483796296296298E-2</v>
       </c>
-      <c r="X9" s="20">
+      <c r="Y9" s="20">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="20">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20">
         <f t="shared" si="25"/>
         <v>4.5902777777777778E-2</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AD9" s="20">
         <v>3.7847222222222223E-3</v>
       </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
         <f t="shared" si="0"/>
         <v>4.2118055555555554E-2</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AG9" s="21">
         <v>100</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AH9" s="21">
         <v>85</v>
       </c>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="30">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="30">
         <v>3</v>
       </c>
-      <c r="AJ9" s="31">
+      <c r="AK9" s="31">
         <v>3</v>
       </c>
-      <c r="AK9" s="32">
+      <c r="AL9" s="32">
         <v>3</v>
       </c>
-      <c r="AL9" s="35">
+      <c r="AM9" s="35">
         <v>2.5358796296296296E-2</v>
       </c>
-      <c r="AM9" s="69">
+      <c r="AN9" s="69">
         <f t="shared" si="1"/>
         <v>2.1574074074074072E-2</v>
       </c>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="34" t="str">
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="34" t="str">
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="34" t="str">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="34" t="str">
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="34" t="str">
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="34" t="str">
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="34" t="str">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI9" s="32">
+      <c r="BJ9" s="32">
         <v>1</v>
       </c>
-      <c r="BJ9" s="35">
+      <c r="BK9" s="35">
         <v>4.5856481481481477E-2</v>
       </c>
-      <c r="BK9" s="34">
+      <c r="BL9" s="34">
         <f t="shared" si="9"/>
         <v>4.2071759259259253E-2</v>
       </c>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="34" t="str">
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="33"/>
+      <c r="BO9" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="34" t="str">
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR9" s="32"/>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="34" t="str">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="33"/>
-      <c r="BW9" s="34" t="str">
+      <c r="BV9" s="32"/>
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="86"/>
-      <c r="BY9" s="69"/>
-      <c r="BZ9" s="34" t="str">
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="69"/>
+      <c r="CA9" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="34" t="str">
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="32"/>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="34" t="str">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="33"/>
-      <c r="CI9" s="34" t="str">
+      <c r="CH9" s="32"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="33"/>
-      <c r="CL9" s="34" t="str">
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="33"/>
+      <c r="CM9" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM9" s="32"/>
-      <c r="CN9" s="33"/>
-      <c r="CO9" s="34" t="str">
+      <c r="CN9" s="32"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP9" s="32"/>
-      <c r="CQ9" s="33"/>
-      <c r="CR9" s="34" t="str">
+      <c r="CQ9" s="32"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS9" s="32"/>
-      <c r="CT9" s="69"/>
-      <c r="CU9" s="34" t="str">
+      <c r="CT9" s="32"/>
+      <c r="CU9" s="69"/>
+      <c r="CV9" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV9" s="32"/>
-      <c r="CW9" s="69"/>
-      <c r="CX9" s="34" t="str">
+      <c r="CW9" s="32"/>
+      <c r="CX9" s="69"/>
+      <c r="CY9" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY9" s="32">
+      <c r="CZ9" s="32">
         <v>2</v>
       </c>
-      <c r="CZ9" s="69">
+      <c r="DA9" s="69">
         <v>2.193287037037037E-2</v>
       </c>
-      <c r="DA9" s="34">
+      <c r="DB9" s="34">
         <f t="shared" si="23"/>
         <v>1.8148148148148149E-2</v>
       </c>
-      <c r="DB9" s="37"/>
+      <c r="DC9" s="37"/>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="F10" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>0.5395833333333333</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.59097222222222223</v>
       </c>
-      <c r="J10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,2)</f>
+      <c r="K10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4810160000000003</v>
       </c>
-      <c r="K10" s="7">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,3)</f>
+      <c r="L10" s="7">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,3)</f>
         <v>119.31128099999999</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>53</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>55</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>5</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>0.19</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="V10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="V10" s="19">
+      <c r="W10" s="19">
         <v>8.7962962962962962E-4</v>
       </c>
-      <c r="W10" s="20">
+      <c r="X10" s="20">
         <v>1.6655092592592593E-2</v>
-      </c>
-      <c r="X10" s="20">
-        <v>1.486111111111111E-2</v>
       </c>
       <c r="Y10" s="20">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="Z10" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="AA10" s="20">
         <v>5.0115740740740737E-3</v>
       </c>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20">
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20">
         <f t="shared" si="25"/>
         <v>5.2268518518518513E-2</v>
       </c>
-      <c r="AC10" s="20">
+      <c r="AD10" s="20">
         <v>4.6412037037037038E-3</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AE10" s="20">
         <v>5.0115740740740737E-3</v>
       </c>
-      <c r="AE10" s="20">
+      <c r="AF10" s="20">
         <f t="shared" si="0"/>
         <v>4.2615740740740739E-2</v>
       </c>
-      <c r="AF10" s="21">
+      <c r="AG10" s="21">
         <v>100</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="AH10" s="21">
         <v>40</v>
       </c>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="30">
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="30">
         <v>4</v>
       </c>
-      <c r="AJ10" s="31">
+      <c r="AK10" s="31">
         <v>3</v>
       </c>
-      <c r="AK10" s="32">
+      <c r="AL10" s="32">
         <v>1</v>
       </c>
-      <c r="AL10" s="35">
+      <c r="AM10" s="35">
         <v>1.8634259259259257E-2</v>
       </c>
-      <c r="AM10" s="69">
+      <c r="AN10" s="69">
         <f t="shared" si="1"/>
         <v>1.3993055555555554E-2</v>
       </c>
-      <c r="AN10" s="32">
+      <c r="AO10" s="32">
         <v>3</v>
       </c>
-      <c r="AO10" s="35">
+      <c r="AP10" s="35">
         <v>1.7615740740740741E-2</v>
       </c>
-      <c r="AP10" s="34">
+      <c r="AQ10" s="34">
         <f t="shared" si="2"/>
         <v>1.2974537037037038E-2</v>
       </c>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="34" t="str">
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="34" t="str">
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="34" t="str">
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ10" s="32"/>
-      <c r="BA10" s="33"/>
-      <c r="BB10" s="34" t="str">
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="33"/>
+      <c r="BC10" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC10" s="32"/>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="34" t="str">
+      <c r="BD10" s="32"/>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF10" s="32"/>
-      <c r="BG10" s="33"/>
-      <c r="BH10" s="34" t="str">
+      <c r="BG10" s="32"/>
+      <c r="BH10" s="33"/>
+      <c r="BI10" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI10" s="32"/>
-      <c r="BJ10" s="33"/>
-      <c r="BK10" s="34" t="str">
+      <c r="BJ10" s="32"/>
+      <c r="BK10" s="33"/>
+      <c r="BL10" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL10" s="32"/>
-      <c r="BM10" s="33"/>
-      <c r="BN10" s="34" t="str">
+      <c r="BM10" s="32"/>
+      <c r="BN10" s="33"/>
+      <c r="BO10" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO10" s="32"/>
-      <c r="BP10" s="33"/>
-      <c r="BQ10" s="34" t="str">
+      <c r="BP10" s="32"/>
+      <c r="BQ10" s="33"/>
+      <c r="BR10" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR10" s="32"/>
-      <c r="BS10" s="33"/>
-      <c r="BT10" s="34" t="str">
+      <c r="BS10" s="32"/>
+      <c r="BT10" s="33"/>
+      <c r="BU10" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU10" s="32"/>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="34" t="str">
+      <c r="BV10" s="32"/>
+      <c r="BW10" s="33"/>
+      <c r="BX10" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="86"/>
-      <c r="BY10" s="69"/>
-      <c r="BZ10" s="34" t="str">
+      <c r="BY10" s="86"/>
+      <c r="BZ10" s="69"/>
+      <c r="CA10" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA10" s="32"/>
-      <c r="CB10" s="35"/>
-      <c r="CC10" s="34" t="str">
+      <c r="CB10" s="32"/>
+      <c r="CC10" s="35"/>
+      <c r="CD10" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD10" s="32"/>
-      <c r="CE10" s="35"/>
-      <c r="CF10" s="34" t="str">
+      <c r="CE10" s="32"/>
+      <c r="CF10" s="35"/>
+      <c r="CG10" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG10" s="32"/>
-      <c r="CH10" s="35"/>
-      <c r="CI10" s="34" t="str">
+      <c r="CH10" s="32"/>
+      <c r="CI10" s="35"/>
+      <c r="CJ10" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ10" s="32"/>
-      <c r="CK10" s="35"/>
-      <c r="CL10" s="34" t="str">
+      <c r="CK10" s="32"/>
+      <c r="CL10" s="35"/>
+      <c r="CM10" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM10" s="32"/>
-      <c r="CN10" s="35"/>
-      <c r="CO10" s="34" t="str">
+      <c r="CN10" s="32"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP10" s="32"/>
-      <c r="CQ10" s="35"/>
-      <c r="CR10" s="34" t="str">
+      <c r="CQ10" s="32"/>
+      <c r="CR10" s="35"/>
+      <c r="CS10" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS10" s="32"/>
-      <c r="CT10" s="35"/>
-      <c r="CU10" s="34" t="str">
+      <c r="CT10" s="32"/>
+      <c r="CU10" s="35"/>
+      <c r="CV10" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="32"/>
-      <c r="CW10" s="35"/>
-      <c r="CX10" s="34" t="str">
+      <c r="CW10" s="32"/>
+      <c r="CX10" s="35"/>
+      <c r="CY10" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY10" s="32">
+      <c r="CZ10" s="32">
         <v>2</v>
       </c>
-      <c r="CZ10" s="35">
+      <c r="DA10" s="35">
         <v>6.8402777777777776E-3</v>
       </c>
-      <c r="DA10" s="34">
+      <c r="DB10" s="34">
         <f t="shared" si="23"/>
         <v>2.1990740740740738E-3</v>
       </c>
-      <c r="DB10" s="37"/>
+      <c r="DC10" s="37"/>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="F11" s="5" t="str">
         <f t="shared" si="24"/>
         <v>E2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>4</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>0.55069444444444449</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.60277777777777775</v>
       </c>
-      <c r="J11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,2)</f>
+      <c r="K11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,2)</f>
         <v>-5.491987</v>
       </c>
-      <c r="K11" s="7">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,3)</f>
+      <c r="L11" s="7">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,3)</f>
         <v>119.312573</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>67</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>68</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>2</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>0.19</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="19">
+      <c r="V11" s="8"/>
+      <c r="W11" s="19">
         <v>2.5937500000000002E-2</v>
       </c>
-      <c r="W11" s="20">
+      <c r="X11" s="20">
         <v>2.5370370370370366E-2</v>
       </c>
-      <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="20">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20">
         <f t="shared" si="25"/>
         <v>5.1307870370370365E-2</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AD11" s="20">
         <v>3.5416666666666665E-3</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AE11" s="20">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AF11" s="20">
         <f t="shared" si="0"/>
         <v>4.7256944444444442E-2</v>
       </c>
-      <c r="AF11" s="21">
+      <c r="AG11" s="21">
         <v>90</v>
       </c>
-      <c r="AG11" s="21">
+      <c r="AH11" s="21">
         <v>80</v>
       </c>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="30">
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="30">
         <v>12</v>
       </c>
-      <c r="AJ11" s="31">
+      <c r="AK11" s="31">
         <v>10</v>
       </c>
-      <c r="AK11" s="32">
+      <c r="AL11" s="32">
         <v>1</v>
       </c>
-      <c r="AL11" s="35">
+      <c r="AM11" s="35">
         <v>2.3645833333333335E-2</v>
       </c>
-      <c r="AM11" s="69">
+      <c r="AN11" s="69">
         <f t="shared" si="1"/>
         <v>2.0104166666666669E-2</v>
       </c>
-      <c r="AN11" s="32">
+      <c r="AO11" s="32">
         <v>2</v>
       </c>
-      <c r="AO11" s="35">
+      <c r="AP11" s="35">
         <v>7.7083333333333335E-3</v>
       </c>
-      <c r="AP11" s="34">
+      <c r="AQ11" s="34">
         <f t="shared" si="2"/>
         <v>4.1666666666666675E-3</v>
       </c>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="34" t="str">
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="34" t="str">
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW11" s="32">
+      <c r="AX11" s="32">
         <v>14</v>
       </c>
-      <c r="AX11" s="35">
+      <c r="AY11" s="35">
         <v>4.2939814814814811E-3</v>
       </c>
-      <c r="AY11" s="34">
+      <c r="AZ11" s="34">
         <f t="shared" si="5"/>
         <v>7.523148148148146E-4</v>
       </c>
-      <c r="AZ11" s="32">
+      <c r="BA11" s="32">
         <v>1</v>
       </c>
-      <c r="BA11" s="35">
+      <c r="BB11" s="35">
         <v>2.2812499999999999E-2</v>
       </c>
-      <c r="BB11" s="34">
+      <c r="BC11" s="34">
         <f t="shared" si="6"/>
         <v>1.9270833333333334E-2</v>
       </c>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="34" t="str">
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF11" s="32">
+      <c r="BG11" s="32">
         <v>1</v>
       </c>
-      <c r="BG11" s="35">
+      <c r="BH11" s="35">
         <v>2.3645833333333335E-2</v>
       </c>
-      <c r="BH11" s="34">
+      <c r="BI11" s="34">
         <f t="shared" si="8"/>
         <v>2.0104166666666669E-2</v>
       </c>
-      <c r="BI11" s="32"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="34" t="str">
+      <c r="BJ11" s="32"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL11" s="32">
+      <c r="BM11" s="32">
         <v>1</v>
       </c>
-      <c r="BM11" s="35">
+      <c r="BN11" s="35">
         <v>2.6226851851851852E-2</v>
       </c>
-      <c r="BN11" s="34">
+      <c r="BO11" s="34">
         <f t="shared" si="10"/>
         <v>2.2685185185185187E-2</v>
       </c>
-      <c r="BO11" s="32"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="34" t="str">
+      <c r="BP11" s="32"/>
+      <c r="BQ11" s="33"/>
+      <c r="BR11" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="32"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="34" t="str">
+      <c r="BS11" s="32"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU11" s="32"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="34" t="str">
+      <c r="BV11" s="32"/>
+      <c r="BW11" s="33"/>
+      <c r="BX11" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="86">
+      <c r="BY11" s="86">
         <v>1</v>
       </c>
-      <c r="BY11" s="69">
+      <c r="BZ11" s="69">
         <v>2.929398148148148E-2</v>
       </c>
-      <c r="BZ11" s="34">
+      <c r="CA11" s="34">
         <f t="shared" si="14"/>
         <v>2.5752314814814815E-2</v>
       </c>
-      <c r="CA11" s="32"/>
-      <c r="CB11" s="35"/>
-      <c r="CC11" s="34" t="str">
+      <c r="CB11" s="32"/>
+      <c r="CC11" s="35"/>
+      <c r="CD11" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD11" s="32">
+      <c r="CE11" s="32">
         <v>1</v>
       </c>
-      <c r="CE11" s="35">
+      <c r="CF11" s="35">
         <v>4.5173611111111116E-2</v>
       </c>
-      <c r="CF11" s="34">
+      <c r="CG11" s="34">
         <f t="shared" si="16"/>
         <v>4.1631944444444451E-2</v>
       </c>
-      <c r="CG11" s="32"/>
-      <c r="CH11" s="35"/>
-      <c r="CI11" s="34" t="str">
+      <c r="CH11" s="32"/>
+      <c r="CI11" s="35"/>
+      <c r="CJ11" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ11" s="32">
+      <c r="CK11" s="32">
         <v>1</v>
       </c>
-      <c r="CK11" s="35">
+      <c r="CL11" s="35">
         <v>4.9178240740740738E-2</v>
       </c>
-      <c r="CL11" s="34">
+      <c r="CM11" s="34">
         <f t="shared" si="18"/>
         <v>4.5636574074074072E-2</v>
       </c>
-      <c r="CM11" s="32"/>
-      <c r="CN11" s="35"/>
-      <c r="CO11" s="34" t="str">
+      <c r="CN11" s="32"/>
+      <c r="CO11" s="35"/>
+      <c r="CP11" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP11" s="32"/>
-      <c r="CQ11" s="35"/>
-      <c r="CR11" s="34" t="str">
+      <c r="CQ11" s="32"/>
+      <c r="CR11" s="35"/>
+      <c r="CS11" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="32"/>
-      <c r="CT11" s="35"/>
-      <c r="CU11" s="34" t="str">
+      <c r="CT11" s="32"/>
+      <c r="CU11" s="35"/>
+      <c r="CV11" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV11" s="32"/>
-      <c r="CW11" s="35"/>
-      <c r="CX11" s="34" t="str">
+      <c r="CW11" s="32"/>
+      <c r="CX11" s="35"/>
+      <c r="CY11" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY11" s="32">
+      <c r="CZ11" s="32">
         <v>1</v>
       </c>
-      <c r="CZ11" s="35">
+      <c r="DA11" s="35">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="DA11" s="34">
+      <c r="DB11" s="34">
         <f t="shared" si="23"/>
         <v>6.8287037037037058E-4</v>
       </c>
-      <c r="DB11" s="37"/>
+      <c r="DC11" s="37"/>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="F12" s="5" t="str">
         <f t="shared" si="24"/>
         <v>E3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>14</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>0.55763888888888891</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>0.6069444444444444</v>
       </c>
-      <c r="J12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,2)</f>
+      <c r="K12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,2)</f>
         <v>-5.49282</v>
       </c>
-      <c r="K12" s="7">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,3)</f>
+      <c r="L12" s="7">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,3)</f>
         <v>119.31198000000001</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>50</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>59</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>3</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>0.22</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="19">
+      <c r="V12" s="8"/>
+      <c r="W12" s="19">
         <v>1.9583333333333331E-2</v>
       </c>
-      <c r="W12" s="20">
+      <c r="X12" s="20">
         <v>2.4189814814814817E-2</v>
       </c>
-      <c r="X12" s="20">
+      <c r="Y12" s="20">
         <v>5.7754629629629623E-3</v>
       </c>
-      <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
         <f t="shared" si="25"/>
         <v>4.9548611111111106E-2</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AD12" s="20">
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AE12" s="20">
         <v>5.7754629629629623E-3</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AF12" s="20">
         <f t="shared" si="0"/>
         <v>4.0069444444444442E-2</v>
       </c>
-      <c r="AF12" s="21">
+      <c r="AG12" s="21">
         <v>100</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="AH12" s="21">
         <v>30</v>
       </c>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="30">
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="30">
         <v>2</v>
       </c>
-      <c r="AJ12" s="31">
+      <c r="AK12" s="31">
         <v>1</v>
       </c>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="69" t="str">
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="69" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="34" t="str">
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="34" t="str">
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="34" t="str">
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW12" s="32"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="34" t="str">
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ12" s="32"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="34" t="str">
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC12" s="32"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="34" t="str">
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF12" s="32"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="34" t="str">
+      <c r="BG12" s="32"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="34" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="32"/>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="34" t="str">
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL12" s="32"/>
-      <c r="BM12" s="33"/>
-      <c r="BN12" s="34" t="str">
+      <c r="BM12" s="32"/>
+      <c r="BN12" s="33"/>
+      <c r="BO12" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO12" s="32"/>
-      <c r="BP12" s="33"/>
-      <c r="BQ12" s="34" t="str">
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="33"/>
+      <c r="BR12" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR12" s="32"/>
-      <c r="BS12" s="33"/>
-      <c r="BT12" s="34" t="str">
+      <c r="BS12" s="32"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="34" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU12" s="32"/>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="34" t="str">
+      <c r="BV12" s="32"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="86"/>
-      <c r="BY12" s="69"/>
-      <c r="BZ12" s="34" t="str">
+      <c r="BY12" s="86"/>
+      <c r="BZ12" s="69"/>
+      <c r="CA12" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA12" s="32"/>
-      <c r="CB12" s="83"/>
-      <c r="CC12" s="34" t="str">
+      <c r="CB12" s="32"/>
+      <c r="CC12" s="83"/>
+      <c r="CD12" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD12" s="32"/>
-      <c r="CE12" s="83"/>
-      <c r="CF12" s="34" t="str">
+      <c r="CE12" s="32"/>
+      <c r="CF12" s="83"/>
+      <c r="CG12" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG12" s="32"/>
-      <c r="CH12" s="83"/>
-      <c r="CI12" s="34" t="str">
+      <c r="CH12" s="32"/>
+      <c r="CI12" s="83"/>
+      <c r="CJ12" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ12" s="32"/>
-      <c r="CK12" s="83"/>
-      <c r="CL12" s="34" t="str">
+      <c r="CK12" s="32"/>
+      <c r="CL12" s="83"/>
+      <c r="CM12" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM12" s="32"/>
-      <c r="CN12" s="83"/>
-      <c r="CO12" s="34" t="str">
+      <c r="CN12" s="32"/>
+      <c r="CO12" s="83"/>
+      <c r="CP12" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP12" s="32"/>
-      <c r="CQ12" s="83"/>
-      <c r="CR12" s="34" t="str">
+      <c r="CQ12" s="32"/>
+      <c r="CR12" s="83"/>
+      <c r="CS12" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS12" s="32"/>
-      <c r="CT12" s="83"/>
-      <c r="CU12" s="34" t="str">
+      <c r="CT12" s="32"/>
+      <c r="CU12" s="83"/>
+      <c r="CV12" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV12" s="32"/>
-      <c r="CW12" s="83"/>
-      <c r="CX12" s="34" t="str">
+      <c r="CW12" s="32"/>
+      <c r="CX12" s="83"/>
+      <c r="CY12" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY12" s="32">
+      <c r="CZ12" s="32">
         <v>5</v>
       </c>
-      <c r="CZ12" s="83">
+      <c r="DA12" s="83">
         <v>1.2997685185185183E-2</v>
       </c>
-      <c r="DA12" s="34">
+      <c r="DB12" s="34">
         <f t="shared" si="23"/>
         <v>9.2939814814814795E-3</v>
       </c>
-      <c r="DB12" s="37"/>
+      <c r="DC12" s="37"/>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="F13" s="5" t="str">
         <f t="shared" si="24"/>
         <v>E1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>6</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>11</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>0.56527777777777777</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.61875000000000002</v>
       </c>
-      <c r="J13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,2)</f>
+      <c r="K13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4901910000000003</v>
       </c>
-      <c r="K13" s="7">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,3)</f>
+      <c r="L13" s="7">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,3)</f>
         <v>119.311859</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>95</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>98</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>2</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>0.22</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="19">
+      <c r="V13" s="8"/>
+      <c r="W13" s="19">
         <v>2.9270833333333333E-2</v>
       </c>
-      <c r="W13" s="20">
+      <c r="X13" s="20">
         <v>2.6238425925925925E-2</v>
       </c>
-      <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="20">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20">
         <f t="shared" si="25"/>
         <v>5.5509259259259258E-2</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AD13" s="20">
         <v>4.409722222222222E-3</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AE13" s="20">
         <v>9.432870370370371E-3</v>
       </c>
-      <c r="AE13" s="20">
+      <c r="AF13" s="20">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AF13" s="21">
+      <c r="AG13" s="21">
         <v>100</v>
       </c>
-      <c r="AG13" s="21">
+      <c r="AH13" s="21">
         <v>30</v>
       </c>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="30">
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="30">
         <v>6</v>
       </c>
-      <c r="AJ13" s="31">
+      <c r="AK13" s="31">
         <v>5</v>
       </c>
-      <c r="AK13" s="32">
+      <c r="AL13" s="32">
         <v>2</v>
       </c>
-      <c r="AL13" s="35">
+      <c r="AM13" s="35">
         <v>2.6550925925925926E-2</v>
       </c>
-      <c r="AM13" s="69">
+      <c r="AN13" s="69">
         <f t="shared" si="1"/>
         <v>2.2141203703703705E-2</v>
       </c>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="34" t="str">
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="34" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="34" t="str">
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="34" t="str">
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="34" t="str">
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ13" s="32"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="34" t="str">
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="34" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="34" t="str">
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="34" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF13" s="32">
+      <c r="BG13" s="32">
         <v>1</v>
       </c>
-      <c r="BG13" s="35">
+      <c r="BH13" s="35">
         <v>1.8518518518518521E-2</v>
       </c>
-      <c r="BH13" s="34">
+      <c r="BI13" s="34">
         <f t="shared" si="8"/>
         <v>1.41087962962963E-2</v>
       </c>
-      <c r="BI13" s="32"/>
-      <c r="BJ13" s="33"/>
-      <c r="BK13" s="34" t="str">
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="34" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL13" s="32"/>
-      <c r="BM13" s="33"/>
-      <c r="BN13" s="34" t="str">
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="34" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO13" s="32"/>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="34" t="str">
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="34" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="32">
+      <c r="BS13" s="32">
         <v>1</v>
       </c>
-      <c r="BS13" s="35">
+      <c r="BT13" s="35">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="BT13" s="34">
+      <c r="BU13" s="34">
         <f t="shared" si="12"/>
         <v>2.5347222222222221E-3</v>
       </c>
-      <c r="BU13" s="32"/>
-      <c r="BV13" s="33"/>
-      <c r="BW13" s="34" t="str">
+      <c r="BV13" s="32"/>
+      <c r="BW13" s="33"/>
+      <c r="BX13" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="86"/>
-      <c r="BY13" s="69"/>
-      <c r="BZ13" s="34" t="str">
+      <c r="BY13" s="86"/>
+      <c r="BZ13" s="69"/>
+      <c r="CA13" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA13" s="32"/>
-      <c r="CB13" s="33"/>
-      <c r="CC13" s="34" t="str">
+      <c r="CB13" s="32"/>
+      <c r="CC13" s="33"/>
+      <c r="CD13" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD13" s="32"/>
-      <c r="CE13" s="33"/>
-      <c r="CF13" s="34" t="str">
+      <c r="CE13" s="32"/>
+      <c r="CF13" s="33"/>
+      <c r="CG13" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG13" s="32"/>
-      <c r="CH13" s="33"/>
-      <c r="CI13" s="34" t="str">
+      <c r="CH13" s="32"/>
+      <c r="CI13" s="33"/>
+      <c r="CJ13" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ13" s="32"/>
-      <c r="CK13" s="33"/>
-      <c r="CL13" s="34" t="str">
+      <c r="CK13" s="32"/>
+      <c r="CL13" s="33"/>
+      <c r="CM13" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM13" s="32">
+      <c r="CN13" s="32">
         <v>1</v>
       </c>
-      <c r="CN13" s="35">
+      <c r="CO13" s="35">
         <v>2.326388888888889E-2</v>
       </c>
-      <c r="CO13" s="34">
+      <c r="CP13" s="34">
         <f t="shared" si="19"/>
         <v>1.8854166666666668E-2</v>
       </c>
-      <c r="CP13" s="32">
+      <c r="CQ13" s="32">
         <v>2</v>
       </c>
-      <c r="CQ13" s="35">
+      <c r="CR13" s="35">
         <v>3.3321759259259259E-2</v>
       </c>
-      <c r="CR13" s="34">
+      <c r="CS13" s="34">
         <f t="shared" si="20"/>
         <v>2.8912037037037038E-2</v>
       </c>
-      <c r="CS13" s="32"/>
-      <c r="CT13" s="33"/>
-      <c r="CU13" s="34" t="str">
+      <c r="CT13" s="32"/>
+      <c r="CU13" s="33"/>
+      <c r="CV13" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV13" s="32"/>
-      <c r="CW13" s="33"/>
-      <c r="CX13" s="34" t="str">
+      <c r="CW13" s="32"/>
+      <c r="CX13" s="33"/>
+      <c r="CY13" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY13" s="32"/>
-      <c r="CZ13" s="33"/>
-      <c r="DA13" s="34" t="str">
+      <c r="CZ13" s="32"/>
+      <c r="DA13" s="33"/>
+      <c r="DB13" s="34" t="str">
         <f t="shared" si="23"/>
         <v>NA</v>
       </c>
-      <c r="DB13" s="37"/>
+      <c r="DC13" s="37"/>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="F14" s="5" t="str">
         <f t="shared" si="24"/>
         <v>E4</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
       <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
         <v>0.31944444444444448</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.39444444444444443</v>
       </c>
-      <c r="J14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,2)</f>
+      <c r="K14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4639509999999998</v>
       </c>
-      <c r="K14" s="7">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,3)</f>
+      <c r="L14" s="7">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,3)</f>
         <v>119.287291</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>68</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>39</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>4</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>0.18</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="19">
-        <v>1.7858796296296296E-2</v>
-      </c>
-      <c r="W14" s="20">
+      <c r="V14" s="8"/>
+      <c r="W14" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="X14" s="20">
         <v>1.7858796296296296E-2</v>
       </c>
       <c r="Y14" s="20">
+        <v>1.7858796296296296E-2</v>
+      </c>
+      <c r="Z14" s="20">
         <v>8.1828703703703699E-3</v>
       </c>
-      <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
         <f t="shared" si="25"/>
         <v>6.1759259259259257E-2</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AD14" s="20">
         <v>3.7268518518518514E-3</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AE14" s="20">
         <v>1.5127314814814816E-2</v>
       </c>
-      <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="26">AB14-AC14-AD14</f>
+      <c r="AF14" s="20">
+        <f t="shared" ref="AF14:AF22" si="26">AC14-AD14-AE14</f>
         <v>4.2905092592592592E-2</v>
       </c>
-      <c r="AF14" s="21">
+      <c r="AG14" s="21">
         <v>100</v>
       </c>
-      <c r="AG14" s="21">
+      <c r="AH14" s="21">
         <v>80</v>
       </c>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="30">
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="30">
         <v>5</v>
       </c>
-      <c r="AJ14" s="31">
+      <c r="AK14" s="31">
         <v>2</v>
       </c>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="34" t="str">
-        <f t="shared" ref="AM14:AM22" si="27">IF(AK14=0,"NA",AL14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="34" t="str">
-        <f t="shared" ref="AP14:AP22" si="28">IF(AN14=0,"NA",AO14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="34" t="str">
-        <f t="shared" ref="AS14:AS22" si="29">IF(AQ14=0,"NA",AR14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT14" s="33"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="34" t="str">
+        <f t="shared" ref="AN14:AN22" si="27">IF(AL14=0,"NA",AM14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="34" t="str">
+        <f t="shared" ref="AQ14:AQ22" si="28">IF(AO14=0,"NA",AP14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="33"/>
+      <c r="AT14" s="34" t="str">
+        <f t="shared" ref="AT14:AT22" si="29">IF(AR14=0,"NA",AS14-$AD14)</f>
+        <v>NA</v>
+      </c>
       <c r="AU14" s="33"/>
-      <c r="AV14" s="34" t="str">
-        <f t="shared" ref="AV14:AV22" si="30">IF(AT14=0,"NA",AU14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="34" t="str">
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="34" t="str">
+        <f t="shared" ref="AW14:AW22" si="30">IF(AU14=0,"NA",AV14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ14" s="32"/>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="34" t="str">
-        <f t="shared" ref="BB14:BB22" si="31">IF(AZ14=0,"NA",BA14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC14" s="32"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="34" t="str">
-        <f t="shared" ref="BE14:BE22" si="32">IF(BC14=0,"NA",BD14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="32"/>
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="34" t="str">
-        <f t="shared" ref="BH14:BH22" si="33">IF(BF14=0,"NA",BG14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI14" s="32">
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="34" t="str">
+        <f t="shared" ref="BC14:BC22" si="31">IF(BA14=0,"NA",BB14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="34" t="str">
+        <f t="shared" ref="BF14:BF22" si="32">IF(BD14=0,"NA",BE14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="34" t="str">
+        <f t="shared" ref="BI14:BI22" si="33">IF(BG14=0,"NA",BH14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ14" s="32">
         <v>1</v>
       </c>
-      <c r="BJ14" s="35">
+      <c r="BK14" s="35">
         <v>1.8148148148148146E-2</v>
       </c>
-      <c r="BK14" s="34">
-        <f t="shared" ref="BK14:BK22" si="34">IF(BI14=0,"NA",BJ14-$AC14)</f>
+      <c r="BL14" s="34">
+        <f t="shared" ref="BL14:BL22" si="34">IF(BJ14=0,"NA",BK14-$AD14)</f>
         <v>1.4421296296296295E-2</v>
       </c>
-      <c r="BL14" s="33"/>
       <c r="BM14" s="33"/>
-      <c r="BN14" s="34" t="str">
-        <f t="shared" ref="BN14:BN22" si="35">IF(BL14=0,"NA",BM14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO14" s="32"/>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="34" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="36">IF(BO14=0,"NA",BP14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="32">
+      <c r="BN14" s="33"/>
+      <c r="BO14" s="34" t="str">
+        <f t="shared" ref="BO14:BO22" si="35">IF(BM14=0,"NA",BN14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP14" s="32"/>
+      <c r="BQ14" s="33"/>
+      <c r="BR14" s="34" t="str">
+        <f t="shared" ref="BR14:BR22" si="36">IF(BP14=0,"NA",BQ14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS14" s="32">
         <v>1</v>
       </c>
-      <c r="BS14" s="35">
+      <c r="BT14" s="35">
         <v>1.653935185185185E-2</v>
       </c>
-      <c r="BT14" s="34">
-        <f t="shared" ref="BT14:BT22" si="37">IF(BR14=0,"NA",BS14-$AC14)</f>
+      <c r="BU14" s="34">
+        <f t="shared" ref="BU14:BU22" si="37">IF(BS14=0,"NA",BT14-$AD14)</f>
         <v>1.2812499999999999E-2</v>
       </c>
-      <c r="BU14" s="32"/>
-      <c r="BV14" s="35"/>
-      <c r="BW14" s="34" t="str">
+      <c r="BV14" s="32"/>
+      <c r="BW14" s="35"/>
+      <c r="BX14" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX14" s="86"/>
-      <c r="BY14" s="69"/>
-      <c r="BZ14" s="34" t="str">
+      <c r="BY14" s="86"/>
+      <c r="BZ14" s="69"/>
+      <c r="CA14" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA14" s="32"/>
-      <c r="CB14" s="33"/>
-      <c r="CC14" s="34" t="str">
+      <c r="CB14" s="32"/>
+      <c r="CC14" s="33"/>
+      <c r="CD14" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD14" s="32"/>
-      <c r="CE14" s="33"/>
-      <c r="CF14" s="34" t="str">
+      <c r="CE14" s="32"/>
+      <c r="CF14" s="33"/>
+      <c r="CG14" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG14" s="32"/>
-      <c r="CH14" s="33"/>
-      <c r="CI14" s="34" t="str">
+      <c r="CH14" s="32"/>
+      <c r="CI14" s="33"/>
+      <c r="CJ14" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ14" s="32"/>
-      <c r="CK14" s="33"/>
-      <c r="CL14" s="34" t="str">
+      <c r="CK14" s="32"/>
+      <c r="CL14" s="33"/>
+      <c r="CM14" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM14" s="32"/>
-      <c r="CN14" s="33"/>
-      <c r="CO14" s="34" t="str">
+      <c r="CN14" s="32"/>
+      <c r="CO14" s="33"/>
+      <c r="CP14" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP14" s="32"/>
-      <c r="CQ14" s="33"/>
-      <c r="CR14" s="34" t="str">
+      <c r="CQ14" s="32"/>
+      <c r="CR14" s="33"/>
+      <c r="CS14" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS14" s="32"/>
-      <c r="CT14" s="33"/>
-      <c r="CU14" s="34" t="str">
+      <c r="CT14" s="32"/>
+      <c r="CU14" s="33"/>
+      <c r="CV14" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV14" s="32"/>
-      <c r="CW14" s="33"/>
-      <c r="CX14" s="34" t="str">
+      <c r="CW14" s="32"/>
+      <c r="CX14" s="33"/>
+      <c r="CY14" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY14" s="32"/>
-      <c r="CZ14" s="33"/>
-      <c r="DA14" s="34" t="str">
-        <f t="shared" ref="DA14:DA22" si="38">IF(CY14=0,"NA",CZ14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="DB14" s="37"/>
+      <c r="CZ14" s="32"/>
+      <c r="DA14" s="33"/>
+      <c r="DB14" s="34" t="str">
+        <f t="shared" ref="DB14:DB22" si="38">IF(CZ14=0,"NA",DA14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="DC14" s="37"/>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>6</v>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="F15" s="5" t="str">
         <f t="shared" si="24"/>
         <v>E6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>12</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>0.32361111111111113</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>0.39305555555555555</v>
       </c>
-      <c r="J15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,2)</f>
+      <c r="K15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,2)</f>
         <v>-5.463902</v>
       </c>
-      <c r="K15" s="7">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,3)</f>
+      <c r="L15" s="7">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,3)</f>
         <v>119.28802</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>45</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>61</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>3</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="S15" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>0.15</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="19">
+      <c r="V15" s="8"/>
+      <c r="W15" s="19">
         <v>2.1539351851851851E-2</v>
       </c>
-      <c r="W15" s="20">
+      <c r="X15" s="20">
         <v>1.9131944444444444E-2</v>
       </c>
-      <c r="X15" s="20">
+      <c r="Y15" s="20">
         <v>9.7453703703703713E-3</v>
       </c>
-      <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="20">
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20">
         <f t="shared" si="25"/>
         <v>5.0416666666666665E-2</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AD15" s="20">
         <v>5.8796296296296296E-3</v>
       </c>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20">
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20">
         <f t="shared" si="26"/>
         <v>4.4537037037037035E-2</v>
       </c>
-      <c r="AF15" s="21">
+      <c r="AG15" s="21">
         <v>100</v>
       </c>
-      <c r="AG15" s="21">
+      <c r="AH15" s="21">
         <v>50</v>
       </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="30">
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="30">
         <v>6</v>
       </c>
-      <c r="AJ15" s="31">
+      <c r="AK15" s="31">
         <v>5</v>
       </c>
-      <c r="AK15" s="32">
+      <c r="AL15" s="32">
         <v>2</v>
       </c>
-      <c r="AL15" s="35">
+      <c r="AM15" s="35">
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AN15" s="34">
         <f t="shared" si="27"/>
         <v>7.4537037037037046E-3</v>
       </c>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="34" t="str">
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="34" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="34" t="str">
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="34" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AT15" s="33"/>
       <c r="AU15" s="33"/>
-      <c r="AV15" s="34" t="str">
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="34" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="34" t="str">
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="33"/>
-      <c r="BB15" s="34" t="str">
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="34" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="34" t="str">
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="34" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="35"/>
-      <c r="BH15" s="34" t="str">
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="35"/>
+      <c r="BI15" s="34" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="33"/>
-      <c r="BK15" s="34" t="str">
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="34" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BL15" s="32"/>
-      <c r="BM15" s="33"/>
-      <c r="BN15" s="34" t="str">
+      <c r="BM15" s="32"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="34" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO15" s="32"/>
-      <c r="BP15" s="33"/>
-      <c r="BQ15" s="34" t="str">
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="33"/>
+      <c r="BR15" s="34" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR15" s="32">
+      <c r="BS15" s="32">
         <v>2</v>
       </c>
-      <c r="BS15" s="35">
+      <c r="BT15" s="35">
         <v>7.9976851851851858E-3</v>
       </c>
-      <c r="BT15" s="34">
+      <c r="BU15" s="34">
         <f t="shared" si="37"/>
         <v>2.1180555555555562E-3</v>
       </c>
-      <c r="BU15" s="32">
+      <c r="BV15" s="32">
         <v>1</v>
       </c>
-      <c r="BV15" s="83">
+      <c r="BW15" s="83">
         <v>1.2731481481481481E-2</v>
       </c>
-      <c r="BW15" s="34">
+      <c r="BX15" s="34">
         <f t="shared" si="13"/>
         <v>6.8518518518518512E-3</v>
       </c>
-      <c r="BX15" s="86">
+      <c r="BY15" s="86">
         <v>1</v>
       </c>
-      <c r="BY15" s="69">
+      <c r="BZ15" s="69">
         <v>1.0034722222222221E-2</v>
       </c>
-      <c r="BZ15" s="34">
+      <c r="CA15" s="34">
         <f t="shared" si="14"/>
         <v>4.1550925925925913E-3</v>
       </c>
-      <c r="CA15" s="32"/>
-      <c r="CB15" s="83"/>
-      <c r="CC15" s="34" t="str">
+      <c r="CB15" s="32"/>
+      <c r="CC15" s="83"/>
+      <c r="CD15" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD15" s="32"/>
-      <c r="CE15" s="83"/>
-      <c r="CF15" s="34" t="str">
+      <c r="CE15" s="32"/>
+      <c r="CF15" s="83"/>
+      <c r="CG15" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG15" s="32">
+      <c r="CH15" s="32">
         <v>1</v>
       </c>
-      <c r="CH15" s="83">
+      <c r="CI15" s="83">
         <v>1.0289351851851852E-2</v>
       </c>
-      <c r="CI15" s="34">
+      <c r="CJ15" s="34">
         <f t="shared" si="17"/>
         <v>4.409722222222222E-3</v>
       </c>
-      <c r="CJ15" s="32"/>
-      <c r="CK15" s="33"/>
-      <c r="CL15" s="34" t="str">
+      <c r="CK15" s="32"/>
+      <c r="CL15" s="33"/>
+      <c r="CM15" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM15" s="32"/>
-      <c r="CN15" s="33"/>
-      <c r="CO15" s="34" t="str">
+      <c r="CN15" s="32"/>
+      <c r="CO15" s="33"/>
+      <c r="CP15" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP15" s="32"/>
-      <c r="CQ15" s="33"/>
-      <c r="CR15" s="34" t="str">
+      <c r="CQ15" s="32"/>
+      <c r="CR15" s="33"/>
+      <c r="CS15" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS15" s="32"/>
-      <c r="CT15" s="33"/>
-      <c r="CU15" s="34" t="str">
+      <c r="CT15" s="32"/>
+      <c r="CU15" s="33"/>
+      <c r="CV15" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV15" s="32"/>
-      <c r="CW15" s="33"/>
-      <c r="CX15" s="34" t="str">
+      <c r="CW15" s="32"/>
+      <c r="CX15" s="33"/>
+      <c r="CY15" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY15" s="32"/>
-      <c r="CZ15" s="33"/>
-      <c r="DA15" s="34" t="str">
+      <c r="CZ15" s="32"/>
+      <c r="DA15" s="33"/>
+      <c r="DB15" s="34" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="DB15" s="37"/>
+      <c r="DC15" s="37"/>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="F16" s="5" t="str">
         <f t="shared" si="24"/>
         <v>E5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>3</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>0.33958333333333335</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>0.38680555555555557</v>
       </c>
-      <c r="J16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,2)</f>
+      <c r="K16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4620889999999997</v>
       </c>
-      <c r="K16" s="7">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,3)</f>
+      <c r="L16" s="7">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,3)</f>
         <v>119.286874</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>68</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>63</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>4</v>
       </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="S16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>0.15</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="19">
-        <v>1.486111111111111E-2</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="8"/>
+      <c r="W16" s="19">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="X16" s="20">
         <v>1.486111111111111E-2</v>
       </c>
       <c r="Y16" s="20">
+        <v>1.486111111111111E-2</v>
+      </c>
+      <c r="Z16" s="20">
         <v>3.3217592592592591E-3</v>
       </c>
-      <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="20">
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20">
         <f t="shared" si="25"/>
         <v>4.7905092592592589E-2</v>
       </c>
-      <c r="AC16" s="20">
+      <c r="AD16" s="20">
         <v>4.5833333333333334E-3</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AE16" s="20">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="AE16" s="20">
+      <c r="AF16" s="20">
         <f t="shared" si="26"/>
         <v>4.1932870370370363E-2</v>
       </c>
-      <c r="AF16" s="21">
-        <v>80</v>
-      </c>
       <c r="AG16" s="21">
         <v>80</v>
       </c>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="30">
+      <c r="AH16" s="21">
+        <v>80</v>
+      </c>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="30">
         <v>4</v>
       </c>
-      <c r="AJ16" s="31">
+      <c r="AK16" s="31">
         <v>3</v>
       </c>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="35"/>
-      <c r="AM16" s="34" t="str">
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="34" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="34" t="str">
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="34" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AQ16" s="32">
+      <c r="AR16" s="32">
         <v>1</v>
       </c>
-      <c r="AR16" s="35">
+      <c r="AS16" s="35">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="AS16" s="34">
+      <c r="AT16" s="34">
         <f t="shared" si="29"/>
         <v>2.5972222222222223E-2</v>
       </c>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="35"/>
-      <c r="AV16" s="34" t="str">
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="34" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW16" s="32"/>
-      <c r="AX16" s="35"/>
-      <c r="AY16" s="34" t="str">
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ16" s="32"/>
-      <c r="BA16" s="35"/>
-      <c r="BB16" s="34" t="str">
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="34" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BC16" s="32"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="34" t="str">
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="34" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF16" s="32"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="34" t="str">
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="34" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI16" s="43">
+      <c r="BJ16" s="43">
         <v>12</v>
       </c>
-      <c r="BJ16" s="90">
+      <c r="BK16" s="90">
         <v>5.7407407407407416E-3</v>
       </c>
-      <c r="BK16" s="34">
+      <c r="BL16" s="34">
         <f t="shared" si="34"/>
         <v>1.1574074074074082E-3</v>
       </c>
-      <c r="BL16" s="32"/>
-      <c r="BM16" s="33"/>
-      <c r="BN16" s="34" t="str">
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="34" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO16" s="32"/>
-      <c r="BP16" s="33"/>
-      <c r="BQ16" s="34" t="str">
+      <c r="BP16" s="32"/>
+      <c r="BQ16" s="33"/>
+      <c r="BR16" s="34" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR16" s="32">
+      <c r="BS16" s="32">
         <v>1</v>
       </c>
-      <c r="BS16" s="69">
+      <c r="BT16" s="69">
         <v>3.1041666666666665E-2</v>
       </c>
-      <c r="BT16" s="34">
+      <c r="BU16" s="34">
         <f t="shared" si="37"/>
         <v>2.6458333333333334E-2</v>
       </c>
-      <c r="BU16" s="32"/>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="34" t="str">
+      <c r="BV16" s="32"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="86"/>
-      <c r="BY16" s="69"/>
-      <c r="BZ16" s="34" t="str">
+      <c r="BY16" s="86"/>
+      <c r="BZ16" s="69"/>
+      <c r="CA16" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA16" s="32"/>
-      <c r="CB16" s="35"/>
-      <c r="CC16" s="34" t="str">
+      <c r="CB16" s="32"/>
+      <c r="CC16" s="35"/>
+      <c r="CD16" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD16" s="32"/>
-      <c r="CE16" s="35"/>
-      <c r="CF16" s="34" t="str">
+      <c r="CE16" s="32"/>
+      <c r="CF16" s="35"/>
+      <c r="CG16" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG16" s="32"/>
-      <c r="CH16" s="35"/>
-      <c r="CI16" s="34" t="str">
+      <c r="CH16" s="32"/>
+      <c r="CI16" s="35"/>
+      <c r="CJ16" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ16" s="32"/>
-      <c r="CK16" s="35"/>
-      <c r="CL16" s="34" t="str">
+      <c r="CK16" s="32"/>
+      <c r="CL16" s="35"/>
+      <c r="CM16" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM16" s="32"/>
-      <c r="CN16" s="35"/>
-      <c r="CO16" s="34" t="str">
+      <c r="CN16" s="32"/>
+      <c r="CO16" s="35"/>
+      <c r="CP16" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP16" s="32"/>
-      <c r="CQ16" s="35"/>
-      <c r="CR16" s="34" t="str">
+      <c r="CQ16" s="32"/>
+      <c r="CR16" s="35"/>
+      <c r="CS16" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS16" s="32"/>
-      <c r="CT16" s="35"/>
-      <c r="CU16" s="34" t="str">
+      <c r="CT16" s="32"/>
+      <c r="CU16" s="35"/>
+      <c r="CV16" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV16" s="32"/>
-      <c r="CW16" s="35"/>
-      <c r="CX16" s="34" t="str">
+      <c r="CW16" s="32"/>
+      <c r="CX16" s="35"/>
+      <c r="CY16" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY16" s="32"/>
-      <c r="CZ16" s="35"/>
-      <c r="DA16" s="34" t="str">
+      <c r="CZ16" s="32"/>
+      <c r="DA16" s="35"/>
+      <c r="DB16" s="34" t="str">
         <f t="shared" si="38"/>
         <v>NA</v>
       </c>
-      <c r="DB16" s="37"/>
+      <c r="DC16" s="37"/>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="F17" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L6</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>4</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>12</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>0.57222222222222219</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>0.65833333333333333</v>
       </c>
-      <c r="J17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
+      <c r="K17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4686510000000004</v>
       </c>
-      <c r="K17" s="7">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
+      <c r="L17" s="7">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,3)</f>
         <v>119.300428</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>33</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>30</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>2</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="S17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>0.24</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="19">
+      <c r="V17" s="8"/>
+      <c r="W17" s="19">
         <v>2.9224537037037038E-2</v>
       </c>
-      <c r="W17" s="20">
+      <c r="X17" s="20">
         <v>2.854166666666667E-2</v>
       </c>
-      <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="20">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20">
         <f t="shared" si="25"/>
         <v>5.7766203703703708E-2</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AD17" s="20">
         <v>7.2916666666666659E-3</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AE17" s="20">
         <v>7.9861111111111122E-3</v>
       </c>
-      <c r="AE17" s="20">
+      <c r="AF17" s="20">
         <f t="shared" si="26"/>
         <v>4.2488425925925929E-2</v>
       </c>
-      <c r="AF17" s="21">
+      <c r="AG17" s="21">
         <v>100</v>
       </c>
-      <c r="AG17" s="21">
+      <c r="AH17" s="21">
         <v>90</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="30">
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="30">
         <v>5</v>
       </c>
-      <c r="AJ17" s="31">
+      <c r="AK17" s="31">
         <v>4</v>
       </c>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="34" t="str">
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="34" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AN17" s="32">
+      <c r="AO17" s="32">
         <v>1</v>
       </c>
-      <c r="AO17" s="35">
+      <c r="AP17" s="35">
         <v>4.2083333333333334E-2</v>
       </c>
-      <c r="AP17" s="34">
+      <c r="AQ17" s="34">
         <f t="shared" si="28"/>
         <v>3.4791666666666665E-2</v>
       </c>
-      <c r="AQ17" s="32">
+      <c r="AR17" s="32">
         <v>10</v>
       </c>
-      <c r="AR17" s="35">
+      <c r="AS17" s="35">
         <v>2.5196759259259256E-2</v>
       </c>
-      <c r="AS17" s="34">
+      <c r="AT17" s="34">
         <f t="shared" si="29"/>
         <v>1.7905092592592591E-2</v>
       </c>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="35"/>
-      <c r="AV17" s="34" t="str">
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="34" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW17" s="32"/>
-      <c r="AX17" s="35"/>
-      <c r="AY17" s="34" t="str">
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="32">
+      <c r="BA17" s="32">
         <v>1</v>
       </c>
-      <c r="BA17" s="35">
+      <c r="BB17" s="35">
         <v>3.3854166666666664E-2</v>
       </c>
-      <c r="BB17" s="34">
+      <c r="BC17" s="34">
         <f t="shared" si="31"/>
         <v>2.6562499999999999E-2</v>
       </c>
-      <c r="BC17" s="32"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="34" t="str">
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="34" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF17" s="32"/>
-      <c r="BG17" s="35"/>
-      <c r="BH17" s="34" t="str">
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="34" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI17" s="43"/>
-      <c r="BJ17" s="35"/>
-      <c r="BK17" s="34" t="str">
+      <c r="BJ17" s="43"/>
+      <c r="BK17" s="35"/>
+      <c r="BL17" s="34" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BL17" s="43"/>
-      <c r="BM17" s="35"/>
-      <c r="BN17" s="34" t="str">
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="34" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO17" s="43"/>
-      <c r="BP17" s="35"/>
-      <c r="BQ17" s="34" t="str">
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="35"/>
+      <c r="BR17" s="34" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR17" s="32"/>
-      <c r="BS17" s="33"/>
-      <c r="BT17" s="34" t="str">
+      <c r="BS17" s="32"/>
+      <c r="BT17" s="33"/>
+      <c r="BU17" s="34" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BU17" s="32"/>
-      <c r="BV17" s="33"/>
-      <c r="BW17" s="34" t="str">
+      <c r="BV17" s="32"/>
+      <c r="BW17" s="33"/>
+      <c r="BX17" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX17" s="86"/>
-      <c r="BY17" s="69"/>
-      <c r="BZ17" s="34" t="str">
+      <c r="BY17" s="86"/>
+      <c r="BZ17" s="69"/>
+      <c r="CA17" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA17" s="32"/>
-      <c r="CB17" s="35"/>
-      <c r="CC17" s="34" t="str">
+      <c r="CB17" s="32"/>
+      <c r="CC17" s="35"/>
+      <c r="CD17" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="32"/>
-      <c r="CE17" s="35"/>
-      <c r="CF17" s="34" t="str">
+      <c r="CE17" s="32"/>
+      <c r="CF17" s="35"/>
+      <c r="CG17" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG17" s="32"/>
-      <c r="CH17" s="35"/>
-      <c r="CI17" s="34" t="str">
+      <c r="CH17" s="32"/>
+      <c r="CI17" s="35"/>
+      <c r="CJ17" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ17" s="32"/>
-      <c r="CK17" s="35"/>
-      <c r="CL17" s="34" t="str">
+      <c r="CK17" s="32"/>
+      <c r="CL17" s="35"/>
+      <c r="CM17" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM17" s="32"/>
-      <c r="CN17" s="35"/>
-      <c r="CO17" s="34" t="str">
+      <c r="CN17" s="32"/>
+      <c r="CO17" s="35"/>
+      <c r="CP17" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP17" s="32"/>
-      <c r="CQ17" s="35"/>
-      <c r="CR17" s="34" t="str">
+      <c r="CQ17" s="32"/>
+      <c r="CR17" s="35"/>
+      <c r="CS17" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS17" s="32"/>
-      <c r="CT17" s="35"/>
-      <c r="CU17" s="34" t="str">
+      <c r="CT17" s="32"/>
+      <c r="CU17" s="35"/>
+      <c r="CV17" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV17" s="32"/>
-      <c r="CW17" s="35"/>
-      <c r="CX17" s="34" t="str">
+      <c r="CW17" s="32"/>
+      <c r="CX17" s="35"/>
+      <c r="CY17" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY17" s="32">
+      <c r="CZ17" s="32">
         <v>2</v>
       </c>
-      <c r="CZ17" s="35">
+      <c r="DA17" s="35">
         <v>0.80208333333333337</v>
       </c>
-      <c r="DA17" s="34">
+      <c r="DB17" s="34">
         <f t="shared" si="38"/>
         <v>0.79479166666666667</v>
       </c>
-      <c r="DB17" s="37"/>
+      <c r="DC17" s="37"/>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="F18" s="5" t="str">
         <f t="shared" si="24"/>
         <v>D4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>5</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>0.57638888888888895</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>0.65833333333333333</v>
       </c>
-      <c r="J18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
+      <c r="K18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,2)</f>
         <v>-5.468826</v>
       </c>
-      <c r="K18" s="7">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
+      <c r="L18" s="7">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,3)</f>
         <v>119.300459</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>36</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>30</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>3</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>0.26</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="19">
+      <c r="V18" s="8"/>
+      <c r="W18" s="19">
         <v>1.7858796296296296E-2</v>
       </c>
-      <c r="W18" s="20">
+      <c r="X18" s="20">
         <v>2.225694444444444E-2</v>
       </c>
-      <c r="X18" s="20">
+      <c r="Y18" s="20">
         <v>1.6180555555555556E-2</v>
       </c>
-      <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="20">
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f t="shared" si="25"/>
         <v>5.6296296296296289E-2</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AD18" s="20">
         <v>4.155092592592593E-3</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AE18" s="20">
         <v>9.2361111111111116E-3</v>
       </c>
-      <c r="AE18" s="20">
+      <c r="AF18" s="20">
         <f t="shared" si="26"/>
         <v>4.2905092592592585E-2</v>
       </c>
-      <c r="AF18" s="21">
+      <c r="AG18" s="21">
         <v>100</v>
       </c>
-      <c r="AG18" s="21">
+      <c r="AH18" s="21">
         <v>80</v>
       </c>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="30">
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="30">
         <v>3</v>
       </c>
-      <c r="AJ18" s="31">
+      <c r="AK18" s="31">
         <v>3</v>
       </c>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="34" t="str">
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="34" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AN18" s="32">
+      <c r="AO18" s="32">
         <v>1</v>
       </c>
-      <c r="AO18" s="35">
+      <c r="AP18" s="35">
         <v>2.3078703703703702E-2</v>
       </c>
-      <c r="AP18" s="34">
+      <c r="AQ18" s="34">
         <f t="shared" si="28"/>
         <v>1.892361111111111E-2</v>
       </c>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="34" t="str">
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="34" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="34" t="str">
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="34" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="34" t="str">
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="34" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="32">
+      <c r="BA18" s="32">
         <v>1</v>
       </c>
-      <c r="BA18" s="35">
+      <c r="BB18" s="35">
         <v>1.3321759259259261E-2</v>
       </c>
-      <c r="BB18" s="34">
+      <c r="BC18" s="34">
         <f t="shared" si="31"/>
         <v>9.1666666666666667E-3</v>
       </c>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="34" t="str">
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="35"/>
+      <c r="BF18" s="34" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="35"/>
-      <c r="BH18" s="34" t="str">
+      <c r="BG18" s="32"/>
+      <c r="BH18" s="35"/>
+      <c r="BI18" s="34" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="35"/>
-      <c r="BK18" s="34" t="str">
+      <c r="BJ18" s="32"/>
+      <c r="BK18" s="35"/>
+      <c r="BL18" s="34" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BL18" s="32"/>
-      <c r="BM18" s="35"/>
-      <c r="BN18" s="34" t="str">
+      <c r="BM18" s="32"/>
+      <c r="BN18" s="35"/>
+      <c r="BO18" s="34" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="35"/>
-      <c r="BQ18" s="34" t="str">
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="35"/>
+      <c r="BR18" s="34" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="33"/>
-      <c r="BT18" s="34" t="str">
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="33"/>
+      <c r="BU18" s="34" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BU18" s="32"/>
-      <c r="BV18" s="33"/>
-      <c r="BW18" s="34" t="str">
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="34" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX18" s="86"/>
-      <c r="BY18" s="69"/>
-      <c r="BZ18" s="34" t="str">
+      <c r="BY18" s="86"/>
+      <c r="BZ18" s="69"/>
+      <c r="CA18" s="34" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA18" s="32"/>
-      <c r="CB18" s="35"/>
-      <c r="CC18" s="34" t="str">
+      <c r="CB18" s="32"/>
+      <c r="CC18" s="35"/>
+      <c r="CD18" s="34" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD18" s="32"/>
-      <c r="CE18" s="35"/>
-      <c r="CF18" s="34" t="str">
+      <c r="CE18" s="32"/>
+      <c r="CF18" s="35"/>
+      <c r="CG18" s="34" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG18" s="32"/>
-      <c r="CH18" s="35"/>
-      <c r="CI18" s="34" t="str">
+      <c r="CH18" s="32"/>
+      <c r="CI18" s="35"/>
+      <c r="CJ18" s="34" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ18" s="32"/>
-      <c r="CK18" s="35"/>
-      <c r="CL18" s="34" t="str">
+      <c r="CK18" s="32"/>
+      <c r="CL18" s="35"/>
+      <c r="CM18" s="34" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM18" s="32"/>
-      <c r="CN18" s="35"/>
-      <c r="CO18" s="34" t="str">
+      <c r="CN18" s="32"/>
+      <c r="CO18" s="35"/>
+      <c r="CP18" s="34" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP18" s="32"/>
-      <c r="CQ18" s="35"/>
-      <c r="CR18" s="34" t="str">
+      <c r="CQ18" s="32"/>
+      <c r="CR18" s="35"/>
+      <c r="CS18" s="34" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS18" s="32"/>
-      <c r="CT18" s="35"/>
-      <c r="CU18" s="34" t="str">
+      <c r="CT18" s="32"/>
+      <c r="CU18" s="35"/>
+      <c r="CV18" s="34" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV18" s="32"/>
-      <c r="CW18" s="35"/>
-      <c r="CX18" s="34" t="str">
+      <c r="CW18" s="32"/>
+      <c r="CX18" s="35"/>
+      <c r="CY18" s="34" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY18" s="32">
+      <c r="CZ18" s="32">
         <v>3</v>
       </c>
-      <c r="CZ18" s="35">
+      <c r="DA18" s="35">
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="DA18" s="34">
+      <c r="DB18" s="34">
         <f t="shared" si="38"/>
         <v>6.9444444444444024E-5</v>
       </c>
-      <c r="DB18" s="37"/>
+      <c r="DC18" s="37"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="F19" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>6</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>0.58194444444444449</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>0.65347222222222223</v>
       </c>
-      <c r="J19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
+      <c r="K19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682510000000004</v>
       </c>
-      <c r="K19" s="7">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
+      <c r="L19" s="7">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,3)</f>
         <v>119.301957</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>23</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>18</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>4</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <v>0.26</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U19" s="5"/>
-      <c r="V19" s="20">
+      <c r="V19" s="5"/>
+      <c r="W19" s="20">
         <v>2.1944444444444447E-2</v>
       </c>
-      <c r="W19" s="20">
+      <c r="X19" s="20">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="X19" s="20">
+      <c r="Y19" s="20">
         <v>1.5960648148148151E-2</v>
       </c>
-      <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="20">
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20">
         <f t="shared" si="25"/>
         <v>5.2766203703703704E-2</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AD19" s="20">
         <v>1.6898148148148148E-2</v>
       </c>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20">
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20">
         <f t="shared" si="26"/>
         <v>3.5868055555555556E-2</v>
       </c>
-      <c r="AF19" s="21">
+      <c r="AG19" s="21">
         <v>100</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AH19" s="21">
         <v>60</v>
       </c>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="33">
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="33">
         <v>6</v>
       </c>
-      <c r="AJ19" s="33">
+      <c r="AK19" s="33">
         <v>4</v>
       </c>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="69" t="str">
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="69" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AN19" s="33">
+      <c r="AO19" s="33">
         <v>1</v>
       </c>
-      <c r="AO19" s="35">
+      <c r="AP19" s="35">
         <v>1.2</v>
       </c>
-      <c r="AP19" s="69">
+      <c r="AQ19" s="69">
         <f t="shared" si="28"/>
         <v>1.1831018518518519</v>
       </c>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="35"/>
-      <c r="AS19" s="69" t="str">
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="35"/>
+      <c r="AT19" s="69" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="69" t="str">
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="69" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="35"/>
-      <c r="AY19" s="69" t="str">
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="69" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ19" s="33">
+      <c r="BA19" s="33">
         <v>1</v>
       </c>
-      <c r="BA19" s="35">
+      <c r="BB19" s="35">
         <v>2.2754629629629628E-2</v>
       </c>
-      <c r="BB19" s="69">
+      <c r="BC19" s="69">
         <f t="shared" si="31"/>
         <v>5.8564814814814799E-3</v>
       </c>
-      <c r="BC19" s="33"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="69" t="str">
+      <c r="BD19" s="33"/>
+      <c r="BE19" s="35"/>
+      <c r="BF19" s="69" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="35"/>
-      <c r="BH19" s="69" t="str">
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="35"/>
+      <c r="BI19" s="69" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI19" s="33"/>
-      <c r="BJ19" s="35"/>
-      <c r="BK19" s="69" t="str">
+      <c r="BJ19" s="33"/>
+      <c r="BK19" s="35"/>
+      <c r="BL19" s="69" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BL19" s="33"/>
-      <c r="BM19" s="35"/>
-      <c r="BN19" s="69" t="str">
+      <c r="BM19" s="33"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="69" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO19" s="33"/>
-      <c r="BP19" s="35"/>
-      <c r="BQ19" s="69" t="str">
+      <c r="BP19" s="33"/>
+      <c r="BQ19" s="35"/>
+      <c r="BR19" s="69" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR19" s="33"/>
       <c r="BS19" s="33"/>
-      <c r="BT19" s="69" t="str">
+      <c r="BT19" s="33"/>
+      <c r="BU19" s="69" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BU19" s="33"/>
       <c r="BV19" s="33"/>
-      <c r="BW19" s="69" t="str">
+      <c r="BW19" s="33"/>
+      <c r="BX19" s="69" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX19" s="86"/>
-      <c r="BY19" s="69"/>
-      <c r="BZ19" s="69" t="str">
+      <c r="BY19" s="86"/>
+      <c r="BZ19" s="69"/>
+      <c r="CA19" s="69" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA19" s="33"/>
-      <c r="CB19" s="35"/>
-      <c r="CC19" s="69" t="str">
+      <c r="CB19" s="33"/>
+      <c r="CC19" s="35"/>
+      <c r="CD19" s="69" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD19" s="33"/>
-      <c r="CE19" s="35"/>
-      <c r="CF19" s="69" t="str">
+      <c r="CE19" s="33"/>
+      <c r="CF19" s="35"/>
+      <c r="CG19" s="69" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG19" s="33"/>
-      <c r="CH19" s="35"/>
-      <c r="CI19" s="69" t="str">
+      <c r="CH19" s="33"/>
+      <c r="CI19" s="35"/>
+      <c r="CJ19" s="69" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ19" s="33"/>
-      <c r="CK19" s="35"/>
-      <c r="CL19" s="69" t="str">
+      <c r="CK19" s="33"/>
+      <c r="CL19" s="35"/>
+      <c r="CM19" s="69" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM19" s="33"/>
-      <c r="CN19" s="35"/>
-      <c r="CO19" s="69" t="str">
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="35"/>
+      <c r="CP19" s="69" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP19" s="33"/>
-      <c r="CQ19" s="35"/>
-      <c r="CR19" s="69" t="str">
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="35"/>
+      <c r="CS19" s="69" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS19" s="33"/>
-      <c r="CT19" s="35"/>
-      <c r="CU19" s="69" t="str">
+      <c r="CT19" s="33"/>
+      <c r="CU19" s="35"/>
+      <c r="CV19" s="69" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="33"/>
-      <c r="CW19" s="35"/>
-      <c r="CX19" s="69" t="str">
+      <c r="CW19" s="33"/>
+      <c r="CX19" s="35"/>
+      <c r="CY19" s="69" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY19" s="33">
+      <c r="CZ19" s="33">
         <v>2</v>
       </c>
-      <c r="CZ19" s="35">
+      <c r="DA19" s="35">
         <v>1.0895833333333333</v>
       </c>
-      <c r="DA19" s="69">
+      <c r="DB19" s="69">
         <f t="shared" si="38"/>
         <v>1.0726851851851853</v>
       </c>
-      <c r="DB19" s="33"/>
+      <c r="DC19" s="33"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="F20" s="5" t="str">
         <f t="shared" si="24"/>
         <v>D5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>7</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>11</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>0.58680555555555558</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>0.65347222222222223</v>
       </c>
-      <c r="J20" s="7">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
+      <c r="K20" s="7">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4682649999999997</v>
       </c>
-      <c r="K20" s="7">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
+      <c r="L20" s="7">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,3)</f>
         <v>119.30207900000001</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>25</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>20</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>3</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S20" s="5">
+      <c r="T20" s="5">
         <v>0.26</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="U20" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="U20" s="5"/>
-      <c r="V20" s="20">
+      <c r="V20" s="5"/>
+      <c r="W20" s="20">
         <v>2.5983796296296297E-2</v>
       </c>
-      <c r="W20" s="20">
+      <c r="X20" s="20">
         <v>2.6631944444444444E-2</v>
       </c>
-      <c r="X20" s="20">
+      <c r="Y20" s="20">
         <v>1.1574074074074075E-2</v>
       </c>
-      <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="20">
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20">
         <f t="shared" si="25"/>
         <v>6.4189814814814811E-2</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AD20" s="20">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AE20" s="20">
         <v>1.5046296296296295E-2</v>
       </c>
-      <c r="AE20" s="20">
+      <c r="AF20" s="20">
         <f t="shared" si="26"/>
         <v>4.4687499999999998E-2</v>
       </c>
-      <c r="AF20" s="21">
-        <v>80</v>
-      </c>
       <c r="AG20" s="21">
         <v>80</v>
       </c>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="33">
+      <c r="AH20" s="21">
+        <v>80</v>
+      </c>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="33">
         <v>3</v>
       </c>
-      <c r="AJ20" s="33">
+      <c r="AK20" s="33">
         <v>2</v>
       </c>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="69" t="str">
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="69" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="69" t="str">
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="69" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="35"/>
-      <c r="AS20" s="69" t="str">
+      <c r="AR20" s="33"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="69" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="35"/>
-      <c r="AV20" s="69" t="str">
+      <c r="AU20" s="33"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="69" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="35"/>
-      <c r="AY20" s="69" t="str">
+      <c r="AX20" s="33"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="69" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ20" s="33">
+      <c r="BA20" s="33">
         <v>1</v>
       </c>
-      <c r="BA20" s="35">
+      <c r="BB20" s="35">
         <v>3.050925925925926E-2</v>
       </c>
-      <c r="BB20" s="69">
+      <c r="BC20" s="69">
         <f t="shared" si="31"/>
         <v>2.6053240740740741E-2</v>
       </c>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="69" t="str">
+      <c r="BD20" s="33"/>
+      <c r="BE20" s="35"/>
+      <c r="BF20" s="69" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="35"/>
-      <c r="BH20" s="69" t="str">
+      <c r="BG20" s="33"/>
+      <c r="BH20" s="35"/>
+      <c r="BI20" s="69" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI20" s="33"/>
-      <c r="BJ20" s="35"/>
-      <c r="BK20" s="69" t="str">
+      <c r="BJ20" s="33"/>
+      <c r="BK20" s="35"/>
+      <c r="BL20" s="69" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BL20" s="33"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="69" t="str">
+      <c r="BM20" s="33"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="69" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO20" s="33"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="69" t="str">
+      <c r="BP20" s="33"/>
+      <c r="BQ20" s="35"/>
+      <c r="BR20" s="69" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR20" s="33"/>
-      <c r="BS20" s="35"/>
-      <c r="BT20" s="69" t="str">
+      <c r="BS20" s="33"/>
+      <c r="BT20" s="35"/>
+      <c r="BU20" s="69" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BU20" s="33"/>
-      <c r="BV20" s="35"/>
-      <c r="BW20" s="69" t="str">
+      <c r="BV20" s="33"/>
+      <c r="BW20" s="35"/>
+      <c r="BX20" s="69" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX20" s="86"/>
-      <c r="BY20" s="69"/>
-      <c r="BZ20" s="69" t="str">
+      <c r="BY20" s="86"/>
+      <c r="BZ20" s="69"/>
+      <c r="CA20" s="69" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA20" s="33"/>
-      <c r="CB20" s="35"/>
-      <c r="CC20" s="69" t="str">
+      <c r="CB20" s="33"/>
+      <c r="CC20" s="35"/>
+      <c r="CD20" s="69" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD20" s="33"/>
-      <c r="CE20" s="35"/>
-      <c r="CF20" s="69" t="str">
+      <c r="CE20" s="33"/>
+      <c r="CF20" s="35"/>
+      <c r="CG20" s="69" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG20" s="33"/>
-      <c r="CH20" s="35"/>
-      <c r="CI20" s="69" t="str">
+      <c r="CH20" s="33"/>
+      <c r="CI20" s="35"/>
+      <c r="CJ20" s="69" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ20" s="33"/>
-      <c r="CK20" s="35"/>
-      <c r="CL20" s="69" t="str">
+      <c r="CK20" s="33"/>
+      <c r="CL20" s="35"/>
+      <c r="CM20" s="69" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM20" s="33"/>
-      <c r="CN20" s="35"/>
-      <c r="CO20" s="69" t="str">
+      <c r="CN20" s="33"/>
+      <c r="CO20" s="35"/>
+      <c r="CP20" s="69" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP20" s="33"/>
-      <c r="CQ20" s="35"/>
-      <c r="CR20" s="69" t="str">
+      <c r="CQ20" s="33"/>
+      <c r="CR20" s="35"/>
+      <c r="CS20" s="69" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS20" s="33"/>
-      <c r="CT20" s="35"/>
-      <c r="CU20" s="69" t="str">
+      <c r="CT20" s="33"/>
+      <c r="CU20" s="35"/>
+      <c r="CV20" s="69" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV20" s="33"/>
-      <c r="CW20" s="35"/>
-      <c r="CX20" s="69" t="str">
+      <c r="CW20" s="33"/>
+      <c r="CX20" s="35"/>
+      <c r="CY20" s="69" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY20" s="33">
+      <c r="CZ20" s="33">
         <v>1</v>
       </c>
-      <c r="CZ20" s="35">
+      <c r="DA20" s="35">
         <v>3.3784722222222223E-2</v>
       </c>
-      <c r="DA20" s="69">
+      <c r="DB20" s="69">
         <f t="shared" si="38"/>
         <v>2.9328703703703704E-2</v>
       </c>
-      <c r="DB20" s="33"/>
+      <c r="DC20" s="33"/>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="F21" s="5" t="str">
         <f t="shared" si="24"/>
         <v>D6</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>9</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>14</v>
       </c>
-      <c r="H21" s="64">
+      <c r="I21" s="64">
         <v>0.6</v>
       </c>
-      <c r="I21" s="64">
+      <c r="J21" s="64">
         <v>0.64861111111111114</v>
       </c>
-      <c r="J21" s="7">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,2)</f>
+      <c r="K21" s="7">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4671349999999999</v>
       </c>
-      <c r="K21" s="7">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,3)</f>
+      <c r="L21" s="7">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,3)</f>
         <v>119.302812</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <v>29</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>22</v>
       </c>
-      <c r="N21" s="65" t="s">
+      <c r="O21" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="O21" s="65">
+      <c r="P21" s="65">
         <v>3</v>
       </c>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65" t="s">
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="S21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S21" s="65">
+      <c r="T21" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T21" s="65" t="s">
+      <c r="U21" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="U21" s="65"/>
-      <c r="V21" s="66">
+      <c r="V21" s="65"/>
+      <c r="W21" s="66">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="W21" s="66">
+      <c r="X21" s="66">
         <v>2.6377314814814815E-2</v>
       </c>
-      <c r="X21" s="66">
+      <c r="Y21" s="66">
         <v>2.3043981481481481E-2</v>
       </c>
-      <c r="Y21" s="66"/>
       <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
-      <c r="AB21" s="20">
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="20">
         <f t="shared" si="25"/>
         <v>4.9618055555555554E-2</v>
       </c>
-      <c r="AC21" s="91">
+      <c r="AD21" s="91">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="AD21" s="91">
+      <c r="AE21" s="91">
         <v>2.3148148148148146E-4</v>
       </c>
-      <c r="AE21" s="20">
+      <c r="AF21" s="20">
         <f t="shared" si="26"/>
         <v>4.5023148148148152E-2</v>
       </c>
-      <c r="AF21" s="67">
+      <c r="AG21" s="67">
         <v>100</v>
       </c>
-      <c r="AG21" s="67">
+      <c r="AH21" s="67">
         <v>75</v>
       </c>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="68">
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="68">
         <v>6</v>
       </c>
-      <c r="AJ21" s="68">
+      <c r="AK21" s="68">
         <v>4</v>
       </c>
-      <c r="AK21" s="68"/>
       <c r="AL21" s="68"/>
-      <c r="AM21" s="69" t="str">
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="69" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AN21" s="68"/>
       <c r="AO21" s="68"/>
-      <c r="AP21" s="69" t="str">
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="69" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
-      <c r="AS21" s="69" t="str">
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="69" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AT21" s="68"/>
       <c r="AU21" s="68"/>
-      <c r="AV21" s="69" t="str">
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="69" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW21" s="68"/>
       <c r="AX21" s="68"/>
-      <c r="AY21" s="69" t="str">
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="69" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ21" s="68">
+      <c r="BA21" s="68">
         <v>1</v>
       </c>
-      <c r="BA21" s="92">
+      <c r="BB21" s="92">
         <v>5.4398148148148149E-3</v>
       </c>
-      <c r="BB21" s="69">
+      <c r="BC21" s="69">
         <f t="shared" si="31"/>
         <v>1.0763888888888889E-3</v>
       </c>
-      <c r="BC21" s="68"/>
       <c r="BD21" s="68"/>
-      <c r="BE21" s="69" t="str">
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="69" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF21" s="68"/>
       <c r="BG21" s="68"/>
-      <c r="BH21" s="69" t="str">
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="69" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI21" s="68">
+      <c r="BJ21" s="68">
         <v>1</v>
       </c>
-      <c r="BJ21" s="93">
+      <c r="BK21" s="93">
         <v>1.1743055555555555</v>
       </c>
-      <c r="BK21" s="69">
+      <c r="BL21" s="69">
         <f t="shared" si="34"/>
         <v>1.1699421296296295</v>
       </c>
-      <c r="BL21" s="68"/>
       <c r="BM21" s="68"/>
-      <c r="BN21" s="69" t="str">
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="69" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO21" s="68"/>
       <c r="BP21" s="68"/>
-      <c r="BQ21" s="69" t="str">
+      <c r="BQ21" s="68"/>
+      <c r="BR21" s="69" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR21" s="68"/>
       <c r="BS21" s="68"/>
-      <c r="BT21" s="69" t="str">
+      <c r="BT21" s="68"/>
+      <c r="BU21" s="69" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BU21" s="68"/>
       <c r="BV21" s="68"/>
-      <c r="BW21" s="69" t="str">
+      <c r="BW21" s="68"/>
+      <c r="BX21" s="69" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX21" s="87">
+      <c r="BY21" s="87">
         <v>1</v>
       </c>
-      <c r="BY21" s="92">
+      <c r="BZ21" s="92">
         <v>2.2418981481481481E-2</v>
       </c>
-      <c r="BZ21" s="69">
+      <c r="CA21" s="69">
         <f t="shared" si="14"/>
         <v>1.8055555555555554E-2</v>
       </c>
-      <c r="CA21" s="68"/>
       <c r="CB21" s="68"/>
-      <c r="CC21" s="69" t="str">
+      <c r="CC21" s="68"/>
+      <c r="CD21" s="69" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="68"/>
       <c r="CE21" s="68"/>
-      <c r="CF21" s="69" t="str">
+      <c r="CF21" s="68"/>
+      <c r="CG21" s="69" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG21" s="68"/>
       <c r="CH21" s="68"/>
-      <c r="CI21" s="69" t="str">
+      <c r="CI21" s="68"/>
+      <c r="CJ21" s="69" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ21" s="68"/>
       <c r="CK21" s="68"/>
-      <c r="CL21" s="69" t="str">
+      <c r="CL21" s="68"/>
+      <c r="CM21" s="69" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM21" s="68"/>
       <c r="CN21" s="68"/>
-      <c r="CO21" s="69" t="str">
+      <c r="CO21" s="68"/>
+      <c r="CP21" s="69" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP21" s="68"/>
       <c r="CQ21" s="68"/>
-      <c r="CR21" s="69" t="str">
+      <c r="CR21" s="68"/>
+      <c r="CS21" s="69" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS21" s="68"/>
       <c r="CT21" s="68"/>
-      <c r="CU21" s="69" t="str">
+      <c r="CU21" s="68"/>
+      <c r="CV21" s="69" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV21" s="68">
+      <c r="CW21" s="68">
         <v>1</v>
       </c>
-      <c r="CW21" s="93">
+      <c r="CX21" s="93">
         <v>1.2305555555555556</v>
       </c>
-      <c r="CX21" s="69">
+      <c r="CY21" s="69">
         <f t="shared" si="22"/>
         <v>1.2261921296296296</v>
       </c>
-      <c r="CY21" s="68">
+      <c r="CZ21" s="68">
         <v>1</v>
       </c>
-      <c r="CZ21" s="93">
+      <c r="DA21" s="93">
         <v>1.4541666666666666</v>
       </c>
-      <c r="DA21" s="69">
+      <c r="DB21" s="69">
         <f t="shared" si="38"/>
         <v>1.4498032407407406</v>
       </c>
-      <c r="DB21" s="68"/>
+      <c r="DC21" s="68"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="F22" s="5" t="str">
         <f t="shared" si="24"/>
         <v>L4</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>8</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>5</v>
       </c>
-      <c r="H22" s="64">
+      <c r="I22" s="64">
         <v>0.59583333333333333</v>
       </c>
-      <c r="I22" s="64">
+      <c r="J22" s="64">
         <v>0.64652777777777781</v>
       </c>
-      <c r="J22" s="7">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,2)</f>
+      <c r="K22" s="7">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,2)</f>
         <v>-5.4663769999999996</v>
       </c>
-      <c r="K22" s="7">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,3)</f>
+      <c r="L22" s="7">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,3)</f>
         <v>119.30229</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>39</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>30</v>
       </c>
-      <c r="N22" s="65" t="s">
+      <c r="O22" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="O22" s="65">
+      <c r="P22" s="65">
         <v>2</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65" t="s">
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="S22" s="65">
+      <c r="T22" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T22" s="65" t="s">
+      <c r="U22" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="U22" s="65"/>
-      <c r="V22" s="66">
+      <c r="V22" s="65"/>
+      <c r="W22" s="66">
         <v>2.8020833333333332E-2</v>
       </c>
-      <c r="W22" s="66">
+      <c r="X22" s="66">
         <v>2.3090277777777779E-2</v>
       </c>
-      <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
       <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
-      <c r="AB22" s="20">
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="20">
         <f t="shared" si="25"/>
         <v>5.1111111111111107E-2</v>
       </c>
-      <c r="AC22" s="91">
+      <c r="AD22" s="91">
         <v>3.645833333333333E-3</v>
       </c>
-      <c r="AD22" s="91">
+      <c r="AE22" s="91">
         <v>6.4004629629629628E-3</v>
       </c>
-      <c r="AE22" s="20">
+      <c r="AF22" s="20">
         <f t="shared" si="26"/>
         <v>4.1064814814814811E-2</v>
       </c>
-      <c r="AF22" s="67">
+      <c r="AG22" s="67">
         <v>100</v>
       </c>
-      <c r="AG22" s="67">
+      <c r="AH22" s="67">
         <v>95</v>
       </c>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="68">
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="68">
         <v>9</v>
-      </c>
-      <c r="AJ22" s="68">
-        <v>6</v>
       </c>
       <c r="AK22" s="68">
         <v>6</v>
       </c>
-      <c r="AL22" s="92">
+      <c r="AL22" s="68">
+        <v>6</v>
+      </c>
+      <c r="AM22" s="92">
         <v>3.8541666666666668E-3</v>
       </c>
-      <c r="AM22" s="69">
+      <c r="AN22" s="69">
         <f t="shared" si="27"/>
         <v>2.0833333333333381E-4</v>
       </c>
-      <c r="AN22" s="68">
+      <c r="AO22" s="68">
         <v>3</v>
       </c>
-      <c r="AO22" s="92">
+      <c r="AP22" s="92">
         <v>3.7384259259259263E-3</v>
       </c>
-      <c r="AP22" s="69">
+      <c r="AQ22" s="69">
         <f t="shared" si="28"/>
         <v>9.2592592592593333E-5</v>
       </c>
-      <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
-      <c r="AS22" s="69" t="str">
+      <c r="AS22" s="68"/>
+      <c r="AT22" s="69" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AT22" s="68"/>
       <c r="AU22" s="68"/>
-      <c r="AV22" s="69" t="str">
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="69" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="AW22" s="68"/>
       <c r="AX22" s="68"/>
-      <c r="AY22" s="69" t="str">
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="69" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ22" s="68">
+      <c r="BA22" s="68">
         <v>1</v>
       </c>
-      <c r="BA22" s="92">
+      <c r="BB22" s="92">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="BB22" s="69">
+      <c r="BC22" s="69">
         <f t="shared" si="31"/>
         <v>1.3715277777777779E-2</v>
       </c>
-      <c r="BC22" s="68"/>
       <c r="BD22" s="68"/>
-      <c r="BE22" s="69" t="str">
+      <c r="BE22" s="68"/>
+      <c r="BF22" s="69" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BF22" s="68"/>
       <c r="BG22" s="68"/>
-      <c r="BH22" s="69" t="str">
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="69" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BI22" s="68">
+      <c r="BJ22" s="68">
         <v>1</v>
       </c>
-      <c r="BJ22" s="92">
+      <c r="BK22" s="92">
         <v>2.732638888888889E-2</v>
       </c>
-      <c r="BK22" s="69">
+      <c r="BL22" s="69">
         <f t="shared" si="34"/>
         <v>2.3680555555555555E-2</v>
       </c>
-      <c r="BL22" s="68"/>
       <c r="BM22" s="68"/>
-      <c r="BN22" s="69" t="str">
+      <c r="BN22" s="68"/>
+      <c r="BO22" s="69" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BO22" s="68"/>
       <c r="BP22" s="68"/>
-      <c r="BQ22" s="69" t="str">
+      <c r="BQ22" s="68"/>
+      <c r="BR22" s="69" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BR22" s="68"/>
       <c r="BS22" s="68"/>
-      <c r="BT22" s="69" t="str">
+      <c r="BT22" s="68"/>
+      <c r="BU22" s="69" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="BU22" s="68"/>
       <c r="BV22" s="68"/>
-      <c r="BW22" s="69" t="str">
+      <c r="BW22" s="68"/>
+      <c r="BX22" s="69" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX22" s="87"/>
-      <c r="BY22" s="68"/>
-      <c r="BZ22" s="69" t="str">
+      <c r="BY22" s="87"/>
+      <c r="BZ22" s="68"/>
+      <c r="CA22" s="69" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA22" s="68"/>
       <c r="CB22" s="68"/>
-      <c r="CC22" s="69" t="str">
+      <c r="CC22" s="68"/>
+      <c r="CD22" s="69" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD22" s="68"/>
       <c r="CE22" s="68"/>
-      <c r="CF22" s="69" t="str">
+      <c r="CF22" s="68"/>
+      <c r="CG22" s="69" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG22" s="68"/>
       <c r="CH22" s="68"/>
-      <c r="CI22" s="69" t="str">
+      <c r="CI22" s="68"/>
+      <c r="CJ22" s="69" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ22" s="68"/>
       <c r="CK22" s="68"/>
-      <c r="CL22" s="69" t="str">
+      <c r="CL22" s="68"/>
+      <c r="CM22" s="69" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM22" s="68"/>
       <c r="CN22" s="68"/>
-      <c r="CO22" s="69" t="str">
+      <c r="CO22" s="68"/>
+      <c r="CP22" s="69" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP22" s="68"/>
       <c r="CQ22" s="68"/>
-      <c r="CR22" s="69" t="str">
+      <c r="CR22" s="68"/>
+      <c r="CS22" s="69" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS22" s="68">
+      <c r="CT22" s="68">
         <v>1</v>
       </c>
-      <c r="CT22" s="92">
+      <c r="CU22" s="92">
         <v>7.789351851851852E-3</v>
       </c>
-      <c r="CU22" s="69">
+      <c r="CV22" s="69">
         <f t="shared" si="21"/>
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="CV22" s="68"/>
-      <c r="CW22" s="92"/>
-      <c r="CX22" s="69" t="str">
+      <c r="CW22" s="68"/>
+      <c r="CX22" s="92"/>
+      <c r="CY22" s="69" t="str">
         <f t="shared" si="22"/>
         <v>NA</v>
       </c>
-      <c r="CY22" s="68">
+      <c r="CZ22" s="68">
         <v>2</v>
       </c>
-      <c r="CZ22" s="92">
+      <c r="DA22" s="92">
         <v>2.3541666666666666E-2</v>
       </c>
-      <c r="DA22" s="69">
+      <c r="DB22" s="69">
         <f t="shared" si="38"/>
         <v>1.9895833333333331E-2</v>
       </c>
-      <c r="DB22" s="68"/>
+      <c r="DC22" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7041,7 +7112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C275047-2B6F-478B-B578-4E8B665EBECB}">
   <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="AB1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
@@ -7775,13 +7846,13 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20">
-        <f t="shared" ref="X3:X20" si="0">SUM(U15:W15)</f>
+        <f t="shared" ref="X15:X20" si="0">SUM(U15:W15)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20">
-        <f t="shared" ref="AA3:AA20" si="1">X15-Y15-Z15</f>
+        <f t="shared" ref="AA15:AA20" si="1">X15-Y15-Z15</f>
         <v>0</v>
       </c>
       <c r="AB15" s="21"/>
@@ -7792,7 +7863,7 @@
       <c r="AG15" s="32"/>
       <c r="AH15" s="33"/>
       <c r="AI15" s="34" t="str">
-        <f t="shared" ref="AI3:AI20" si="2">IF(AG15=0,"NA",AH15-$Y15)</f>
+        <f t="shared" ref="AI15:AI20" si="2">IF(AG15=0,"NA",AH15-$Y15)</f>
         <v>NA</v>
       </c>
       <c r="AJ15" s="37"/>
